--- a/input_data/vehicle_sales_share_inputs.xlsx
+++ b/input_data/vehicle_sales_share_inputs.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APERC\transport_model_9th_edition\input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\APERC\transport_model_9th_edition\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500D13C5-E800-49C8-B6A5-88E7F64894BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AE0D72-B5EC-41FD-AFD5-A8EEB6A311C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="912" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="912" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{BD5D0853-27AB-4388-BA7A-28E1329E6022}"/>
   </bookViews>
   <sheets>
     <sheet name="regions_passenger" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="49">
   <si>
     <t>Region</t>
   </si>
@@ -163,6 +164,15 @@
   </si>
   <si>
     <t>china</t>
+  </si>
+  <si>
+    <t>cng</t>
+  </si>
+  <si>
+    <t>lpg</t>
+  </si>
+  <si>
+    <t>ice</t>
   </si>
 </sst>
 </file>
@@ -534,12 +544,13 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,7 +558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -555,7 +566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -563,7 +574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -571,7 +582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -579,7 +590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -587,7 +598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -595,7 +606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -603,7 +614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -611,7 +622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -619,7 +630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -627,7 +638,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -635,7 +646,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -643,7 +654,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -651,7 +662,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -659,7 +670,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -667,7 +678,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -675,7 +686,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -683,7 +694,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -691,7 +702,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -699,7 +710,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -707,7 +718,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -727,10 +738,11 @@
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8:F13"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -738,7 +750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -746,7 +758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -754,7 +766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -762,7 +774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -770,7 +782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -778,7 +790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -786,7 +798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -794,7 +806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -802,7 +814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -810,7 +822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -818,7 +830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -826,7 +838,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -834,7 +846,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -842,7 +854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -850,7 +862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -858,7 +870,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -866,7 +878,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -874,7 +886,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -882,7 +894,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -890,7 +902,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -898,7 +910,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -913,15 +925,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I3:I26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -941,7 +956,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -955,13 +970,13 @@
         <v>30</v>
       </c>
       <c r="E2">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F2">
         <v>2027</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -981,7 +996,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -1001,7 +1016,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -1012,16 +1027,16 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1029,19 +1044,19 @@
         <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1049,47 +1064,47 @@
         <v>43</v>
       </c>
       <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
         <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8">
-        <v>0.5</v>
-      </c>
-      <c r="F8">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
       </c>
       <c r="D9" t="s">
         <v>31</v>
@@ -1098,18 +1113,18 @@
         <v>0.7</v>
       </c>
       <c r="F9">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
         <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
         <v>31</v>
@@ -1118,112 +1133,112 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <v>0.2</v>
+      </c>
+      <c r="F13">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14">
+        <v>0.6</v>
+      </c>
+      <c r="F14">
         <v>2035</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12">
-        <v>0.7</v>
-      </c>
-      <c r="F12">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15">
         <v>1</v>
-      </c>
-      <c r="F13">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14">
-        <v>0.5</v>
-      </c>
-      <c r="F14">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15">
-        <v>0.7</v>
       </c>
       <c r="F15">
         <v>2040</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
         <v>43</v>
@@ -1232,18 +1247,18 @@
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
@@ -1252,7 +1267,7 @@
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1261,272 +1276,272 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
         <v>33</v>
       </c>
-      <c r="D18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18">
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20">
         <v>0.7</v>
       </c>
-      <c r="F18">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="F20">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
         <v>33</v>
       </c>
-      <c r="D19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19">
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21">
         <v>1</v>
-      </c>
-      <c r="F19">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20">
-        <v>0.5</v>
-      </c>
-      <c r="F20">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21">
-        <v>0.7</v>
       </c>
       <c r="F21">
         <v>2035</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23">
         <v>1</v>
       </c>
-      <c r="F22">
+      <c r="F23">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24">
+        <v>0.5</v>
+      </c>
+      <c r="F24">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>0.7</v>
+      </c>
+      <c r="F25">
         <v>2040</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24">
-        <v>0.7</v>
-      </c>
-      <c r="F24">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26">
         <v>1</v>
       </c>
-      <c r="F25">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="F26">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" t="s">
         <v>30</v>
       </c>
-      <c r="E26">
-        <v>0.5</v>
-      </c>
-      <c r="F26">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27">
-        <v>0.7</v>
-      </c>
-      <c r="F27">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" t="s">
-        <v>32</v>
-      </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E30">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
@@ -1535,130 +1550,630 @@
         <v>31</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F31">
         <v>2030</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" t="s">
         <v>30</v>
       </c>
-      <c r="E32">
-        <v>0.5</v>
-      </c>
-      <c r="F32">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33">
+      <c r="E34">
+        <v>0.3</v>
+      </c>
+      <c r="F34">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35">
         <v>0.7</v>
       </c>
-      <c r="F33">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34">
+      <c r="F35">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36">
         <v>1</v>
       </c>
-      <c r="F34">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="F36">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" t="s">
         <v>32</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36">
-        <v>0.7</v>
-      </c>
-      <c r="F36">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" t="s">
-        <v>31</v>
-      </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>2035</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38">
+        <v>0.7</v>
+      </c>
+      <c r="F38">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41">
+        <v>0.5</v>
+      </c>
+      <c r="F41">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42">
+        <v>0.7</v>
+      </c>
+      <c r="F42">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48">
+        <v>0.7</v>
+      </c>
+      <c r="F48">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52">
+        <v>0.3</v>
+      </c>
+      <c r="F52">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53">
+        <v>0.7</v>
+      </c>
+      <c r="F53">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" t="s">
+        <v>47</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" t="s">
+        <v>48</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" t="s">
+        <v>31</v>
+      </c>
+      <c r="E59">
+        <v>0.7</v>
+      </c>
+      <c r="F59">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" t="s">
+        <v>48</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" t="s">
+        <v>31</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>2100</v>
       </c>
     </row>
   </sheetData>
@@ -1668,19 +2183,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:T175"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:A45"/>
+    <sheetView topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F149" sqref="F149"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="5" max="5" width="45.26953125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="45.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1700,7 +2216,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1714,33 +2230,35 @@
         <v>31</v>
       </c>
       <c r="E2" s="3">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="F2">
+        <v>2035</v>
+      </c>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F3">
         <v>2040</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1751,404 +2269,433 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E4" s="3">
         <v>0.7</v>
       </c>
       <c r="F4">
+        <v>2050</v>
+      </c>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F5">
+        <v>2070</v>
+      </c>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F6">
+        <v>2100</v>
+      </c>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="F7">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F8">
         <v>2040</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E9" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F9">
+        <v>2050</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F10">
+        <v>2070</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="T10" s="3"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F11">
+        <v>2100</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F12">
+        <v>2050</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="T12" s="3"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2050</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="T13" s="3"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>2050</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="T14" s="3"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>2050</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="T15" s="3"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2050</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2100</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="T17" s="3"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2100</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="T18" s="3"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2100</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="3">
         <v>0.5</v>
       </c>
-      <c r="F7">
+      <c r="F20">
         <v>2027</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="F8">
+      <c r="M20" s="3"/>
+      <c r="T20" s="3"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F21">
         <v>2035</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="F13">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="F15">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F22">
+        <v>2027</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F18">
+      <c r="E23" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F23">
         <v>2027</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="F19">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
         <v>31</v>
@@ -2157,18 +2704,19 @@
         <v>0.7</v>
       </c>
       <c r="F24">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2035</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
         <v>31</v>
@@ -2177,75 +2725,78 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2040</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E26" s="3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>2040</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2040</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E28" s="3">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>
@@ -2254,18 +2805,18 @@
         <v>30</v>
       </c>
       <c r="E29" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
         <v>29</v>
@@ -2274,241 +2825,241 @@
         <v>31</v>
       </c>
       <c r="E30" s="3">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
         <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="3">
         <v>1</v>
       </c>
-      <c r="F31">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="F37">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" t="s">
         <v>33</v>
       </c>
-      <c r="D33" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="F35">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" t="s">
-        <v>35</v>
-      </c>
-      <c r="E37" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="F37">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" t="s">
-        <v>34</v>
-      </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E38" s="3">
         <v>1</v>
       </c>
       <c r="F38">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E39" s="3">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E40" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D41" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E41" s="3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D42" t="s">
         <v>31</v>
@@ -2517,35 +3068,35 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D43" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
         <v>33</v>
@@ -2560,12 +3111,12 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
         <v>33</v>
@@ -2578,6 +3129,2629 @@
       </c>
       <c r="F45">
         <v>2030</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F46">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F47">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="F48">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F49">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F50">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F51">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F53">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" t="s">
+        <v>47</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" t="s">
+        <v>31</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" t="s">
+        <v>48</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" t="s">
+        <v>47</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" t="s">
+        <v>48</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" t="s">
+        <v>47</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" t="s">
+        <v>30</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" t="s">
+        <v>34</v>
+      </c>
+      <c r="D65" t="s">
+        <v>31</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F65">
+        <v>2035</v>
+      </c>
+      <c r="M65" s="3"/>
+      <c r="T65" s="3"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" t="s">
+        <v>31</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F66">
+        <v>2040</v>
+      </c>
+      <c r="M66" s="3"/>
+      <c r="T66" s="3"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" t="s">
+        <v>43</v>
+      </c>
+      <c r="C67" t="s">
+        <v>34</v>
+      </c>
+      <c r="D67" t="s">
+        <v>31</v>
+      </c>
+      <c r="E67" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F67">
+        <v>2050</v>
+      </c>
+      <c r="M67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" t="s">
+        <v>34</v>
+      </c>
+      <c r="D68" t="s">
+        <v>31</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F68">
+        <v>2070</v>
+      </c>
+      <c r="M68" s="3"/>
+      <c r="T68" s="3"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" t="s">
+        <v>34</v>
+      </c>
+      <c r="D69" t="s">
+        <v>31</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F69">
+        <v>2100</v>
+      </c>
+      <c r="M69" s="3"/>
+      <c r="T69" s="3"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D70" t="s">
+        <v>35</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="F70">
+        <v>2035</v>
+      </c>
+      <c r="T70" s="3"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" t="s">
+        <v>35</v>
+      </c>
+      <c r="E71" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F71">
+        <v>2040</v>
+      </c>
+      <c r="T71" s="3"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" t="s">
+        <v>43</v>
+      </c>
+      <c r="C72" t="s">
+        <v>34</v>
+      </c>
+      <c r="D72" t="s">
+        <v>35</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F72">
+        <v>2050</v>
+      </c>
+      <c r="T72" s="3"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73" t="s">
+        <v>34</v>
+      </c>
+      <c r="D73" t="s">
+        <v>35</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F73">
+        <v>2070</v>
+      </c>
+      <c r="T73" s="3"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74" t="s">
+        <v>34</v>
+      </c>
+      <c r="D74" t="s">
+        <v>35</v>
+      </c>
+      <c r="E74" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F74">
+        <v>2100</v>
+      </c>
+      <c r="T74" s="3"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" t="s">
+        <v>34</v>
+      </c>
+      <c r="D75" t="s">
+        <v>48</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F75">
+        <v>2050</v>
+      </c>
+      <c r="T75" s="3"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" t="s">
+        <v>34</v>
+      </c>
+      <c r="D76" t="s">
+        <v>30</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>2050</v>
+      </c>
+      <c r="T76" s="3"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" t="s">
+        <v>34</v>
+      </c>
+      <c r="D77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>2050</v>
+      </c>
+      <c r="T77" s="3"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" t="s">
+        <v>34</v>
+      </c>
+      <c r="D78" t="s">
+        <v>47</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>2050</v>
+      </c>
+      <c r="T78" s="3"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" t="s">
+        <v>43</v>
+      </c>
+      <c r="C79" t="s">
+        <v>34</v>
+      </c>
+      <c r="D79" t="s">
+        <v>48</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>2050</v>
+      </c>
+      <c r="T79" s="3"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80" t="s">
+        <v>34</v>
+      </c>
+      <c r="D80" t="s">
+        <v>30</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>2100</v>
+      </c>
+      <c r="T80" s="3"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" t="s">
+        <v>43</v>
+      </c>
+      <c r="C81" t="s">
+        <v>34</v>
+      </c>
+      <c r="D81" t="s">
+        <v>46</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>2100</v>
+      </c>
+      <c r="T81" s="3"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" t="s">
+        <v>43</v>
+      </c>
+      <c r="C82" t="s">
+        <v>34</v>
+      </c>
+      <c r="D82" t="s">
+        <v>47</v>
+      </c>
+      <c r="E82" s="3">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>2100</v>
+      </c>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" t="s">
+        <v>43</v>
+      </c>
+      <c r="C83" t="s">
+        <v>33</v>
+      </c>
+      <c r="D83" t="s">
+        <v>31</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" t="s">
+        <v>43</v>
+      </c>
+      <c r="C84" t="s">
+        <v>33</v>
+      </c>
+      <c r="D84" t="s">
+        <v>32</v>
+      </c>
+      <c r="E84" s="3">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" t="s">
+        <v>43</v>
+      </c>
+      <c r="C85" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" t="s">
+        <v>31</v>
+      </c>
+      <c r="E85" s="3">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" t="s">
+        <v>43</v>
+      </c>
+      <c r="C86" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86" t="s">
+        <v>32</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" t="s">
+        <v>43</v>
+      </c>
+      <c r="C87" t="s">
+        <v>33</v>
+      </c>
+      <c r="D87" t="s">
+        <v>31</v>
+      </c>
+      <c r="E87" s="3">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88" t="s">
+        <v>43</v>
+      </c>
+      <c r="C88" t="s">
+        <v>33</v>
+      </c>
+      <c r="D88" t="s">
+        <v>32</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" t="s">
+        <v>44</v>
+      </c>
+      <c r="C89" t="s">
+        <v>34</v>
+      </c>
+      <c r="D89" t="s">
+        <v>31</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="F89">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" t="s">
+        <v>44</v>
+      </c>
+      <c r="C90" t="s">
+        <v>34</v>
+      </c>
+      <c r="D90" t="s">
+        <v>31</v>
+      </c>
+      <c r="E90" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="F90">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" t="s">
+        <v>44</v>
+      </c>
+      <c r="C91" t="s">
+        <v>34</v>
+      </c>
+      <c r="D91" t="s">
+        <v>31</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="F91">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" t="s">
+        <v>44</v>
+      </c>
+      <c r="C92" t="s">
+        <v>34</v>
+      </c>
+      <c r="D92" t="s">
+        <v>31</v>
+      </c>
+      <c r="E92" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F92">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" t="s">
+        <v>44</v>
+      </c>
+      <c r="C93" t="s">
+        <v>34</v>
+      </c>
+      <c r="D93" t="s">
+        <v>31</v>
+      </c>
+      <c r="E93" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F93">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" t="s">
+        <v>44</v>
+      </c>
+      <c r="C94" t="s">
+        <v>34</v>
+      </c>
+      <c r="D94" t="s">
+        <v>35</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="F94">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" t="s">
+        <v>44</v>
+      </c>
+      <c r="C95" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" t="s">
+        <v>35</v>
+      </c>
+      <c r="E95" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F95">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" t="s">
+        <v>44</v>
+      </c>
+      <c r="C96" t="s">
+        <v>34</v>
+      </c>
+      <c r="D96" t="s">
+        <v>35</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F96">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" t="s">
+        <v>44</v>
+      </c>
+      <c r="C97" t="s">
+        <v>34</v>
+      </c>
+      <c r="D97" t="s">
+        <v>35</v>
+      </c>
+      <c r="E97" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F97">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" t="s">
+        <v>44</v>
+      </c>
+      <c r="C98" t="s">
+        <v>34</v>
+      </c>
+      <c r="D98" t="s">
+        <v>35</v>
+      </c>
+      <c r="E98" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F98">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" t="s">
+        <v>44</v>
+      </c>
+      <c r="C99" t="s">
+        <v>34</v>
+      </c>
+      <c r="D99" t="s">
+        <v>48</v>
+      </c>
+      <c r="E99" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F99">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" t="s">
+        <v>44</v>
+      </c>
+      <c r="C100" t="s">
+        <v>34</v>
+      </c>
+      <c r="D100" t="s">
+        <v>30</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" t="s">
+        <v>44</v>
+      </c>
+      <c r="C101" t="s">
+        <v>34</v>
+      </c>
+      <c r="D101" t="s">
+        <v>46</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" t="s">
+        <v>44</v>
+      </c>
+      <c r="C102" t="s">
+        <v>34</v>
+      </c>
+      <c r="D102" t="s">
+        <v>47</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" t="s">
+        <v>44</v>
+      </c>
+      <c r="C103" t="s">
+        <v>34</v>
+      </c>
+      <c r="D103" t="s">
+        <v>48</v>
+      </c>
+      <c r="E103" s="3">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" t="s">
+        <v>44</v>
+      </c>
+      <c r="C104" t="s">
+        <v>34</v>
+      </c>
+      <c r="D104" t="s">
+        <v>30</v>
+      </c>
+      <c r="E104" s="3">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" t="s">
+        <v>44</v>
+      </c>
+      <c r="C105" t="s">
+        <v>34</v>
+      </c>
+      <c r="D105" t="s">
+        <v>46</v>
+      </c>
+      <c r="E105" s="3">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" t="s">
+        <v>44</v>
+      </c>
+      <c r="C106" t="s">
+        <v>34</v>
+      </c>
+      <c r="D106" t="s">
+        <v>47</v>
+      </c>
+      <c r="E106" s="3">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" t="s">
+        <v>44</v>
+      </c>
+      <c r="C107" t="s">
+        <v>29</v>
+      </c>
+      <c r="D107" t="s">
+        <v>48</v>
+      </c>
+      <c r="E107" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="F107">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" t="s">
+        <v>44</v>
+      </c>
+      <c r="C108" t="s">
+        <v>29</v>
+      </c>
+      <c r="D108" t="s">
+        <v>48</v>
+      </c>
+      <c r="E108" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="F108">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" t="s">
+        <v>44</v>
+      </c>
+      <c r="C109" t="s">
+        <v>29</v>
+      </c>
+      <c r="D109" t="s">
+        <v>31</v>
+      </c>
+      <c r="E109" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F109">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" t="s">
+        <v>44</v>
+      </c>
+      <c r="C110" t="s">
+        <v>29</v>
+      </c>
+      <c r="D110" t="s">
+        <v>30</v>
+      </c>
+      <c r="E110" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F110">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" t="s">
+        <v>44</v>
+      </c>
+      <c r="C111" t="s">
+        <v>29</v>
+      </c>
+      <c r="D111" t="s">
+        <v>31</v>
+      </c>
+      <c r="E111" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F111">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" t="s">
+        <v>44</v>
+      </c>
+      <c r="C112" t="s">
+        <v>29</v>
+      </c>
+      <c r="D112" t="s">
+        <v>31</v>
+      </c>
+      <c r="E112" s="3">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" t="s">
+        <v>44</v>
+      </c>
+      <c r="C113" t="s">
+        <v>29</v>
+      </c>
+      <c r="D113" t="s">
+        <v>46</v>
+      </c>
+      <c r="E113" s="3">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" t="s">
+        <v>44</v>
+      </c>
+      <c r="C114" t="s">
+        <v>29</v>
+      </c>
+      <c r="D114" t="s">
+        <v>48</v>
+      </c>
+      <c r="E114" s="3">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" t="s">
+        <v>44</v>
+      </c>
+      <c r="C115" t="s">
+        <v>29</v>
+      </c>
+      <c r="D115" t="s">
+        <v>47</v>
+      </c>
+      <c r="E115" s="3">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" t="s">
+        <v>44</v>
+      </c>
+      <c r="C116" t="s">
+        <v>29</v>
+      </c>
+      <c r="D116" t="s">
+        <v>30</v>
+      </c>
+      <c r="E116" s="3">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" t="s">
+        <v>44</v>
+      </c>
+      <c r="C117" t="s">
+        <v>29</v>
+      </c>
+      <c r="D117" t="s">
+        <v>31</v>
+      </c>
+      <c r="E117" s="3">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" t="s">
+        <v>44</v>
+      </c>
+      <c r="C118" t="s">
+        <v>29</v>
+      </c>
+      <c r="D118" t="s">
+        <v>46</v>
+      </c>
+      <c r="E118" s="3">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" t="s">
+        <v>44</v>
+      </c>
+      <c r="C119" t="s">
+        <v>29</v>
+      </c>
+      <c r="D119" t="s">
+        <v>48</v>
+      </c>
+      <c r="E119" s="3">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>4</v>
+      </c>
+      <c r="B120" t="s">
+        <v>44</v>
+      </c>
+      <c r="C120" t="s">
+        <v>29</v>
+      </c>
+      <c r="D120" t="s">
+        <v>47</v>
+      </c>
+      <c r="E120" s="3">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" t="s">
+        <v>44</v>
+      </c>
+      <c r="C121" t="s">
+        <v>29</v>
+      </c>
+      <c r="D121" t="s">
+        <v>46</v>
+      </c>
+      <c r="E121" s="3">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" t="s">
+        <v>44</v>
+      </c>
+      <c r="C122" t="s">
+        <v>29</v>
+      </c>
+      <c r="D122" t="s">
+        <v>48</v>
+      </c>
+      <c r="E122" s="3">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" t="s">
+        <v>44</v>
+      </c>
+      <c r="C123" t="s">
+        <v>29</v>
+      </c>
+      <c r="D123" t="s">
+        <v>47</v>
+      </c>
+      <c r="E123" s="3">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" t="s">
+        <v>44</v>
+      </c>
+      <c r="C124" t="s">
+        <v>29</v>
+      </c>
+      <c r="D124" t="s">
+        <v>31</v>
+      </c>
+      <c r="E124" s="3">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" t="s">
+        <v>44</v>
+      </c>
+      <c r="C125" t="s">
+        <v>33</v>
+      </c>
+      <c r="D125" t="s">
+        <v>31</v>
+      </c>
+      <c r="E125" s="3">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" t="s">
+        <v>44</v>
+      </c>
+      <c r="C126" t="s">
+        <v>33</v>
+      </c>
+      <c r="D126" t="s">
+        <v>48</v>
+      </c>
+      <c r="E126" s="3">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" t="s">
+        <v>44</v>
+      </c>
+      <c r="C127" t="s">
+        <v>33</v>
+      </c>
+      <c r="D127" t="s">
+        <v>31</v>
+      </c>
+      <c r="E127" s="3">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128" t="s">
+        <v>44</v>
+      </c>
+      <c r="C128" t="s">
+        <v>33</v>
+      </c>
+      <c r="D128" t="s">
+        <v>48</v>
+      </c>
+      <c r="E128" s="3">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" t="s">
+        <v>44</v>
+      </c>
+      <c r="C129" t="s">
+        <v>33</v>
+      </c>
+      <c r="D129" t="s">
+        <v>31</v>
+      </c>
+      <c r="E129" s="3">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" t="s">
+        <v>44</v>
+      </c>
+      <c r="C130" t="s">
+        <v>33</v>
+      </c>
+      <c r="D130" t="s">
+        <v>48</v>
+      </c>
+      <c r="E130" s="3">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131" t="s">
+        <v>44</v>
+      </c>
+      <c r="C131" t="s">
+        <v>33</v>
+      </c>
+      <c r="D131" t="s">
+        <v>31</v>
+      </c>
+      <c r="E131" s="3">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" t="s">
+        <v>44</v>
+      </c>
+      <c r="C132" t="s">
+        <v>33</v>
+      </c>
+      <c r="D132" t="s">
+        <v>32</v>
+      </c>
+      <c r="E132" s="3">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133" t="s">
+        <v>44</v>
+      </c>
+      <c r="C133" t="s">
+        <v>29</v>
+      </c>
+      <c r="D133" t="s">
+        <v>31</v>
+      </c>
+      <c r="E133" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F133">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>13</v>
+      </c>
+      <c r="B134" t="s">
+        <v>44</v>
+      </c>
+      <c r="C134" t="s">
+        <v>29</v>
+      </c>
+      <c r="D134" t="s">
+        <v>48</v>
+      </c>
+      <c r="E134" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F134">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>13</v>
+      </c>
+      <c r="B135" t="s">
+        <v>44</v>
+      </c>
+      <c r="C135" t="s">
+        <v>29</v>
+      </c>
+      <c r="D135" t="s">
+        <v>30</v>
+      </c>
+      <c r="E135" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F135">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>13</v>
+      </c>
+      <c r="B136" t="s">
+        <v>44</v>
+      </c>
+      <c r="C136" t="s">
+        <v>29</v>
+      </c>
+      <c r="D136" t="s">
+        <v>48</v>
+      </c>
+      <c r="E136" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F136">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>13</v>
+      </c>
+      <c r="B137" t="s">
+        <v>44</v>
+      </c>
+      <c r="C137" t="s">
+        <v>29</v>
+      </c>
+      <c r="D137" t="s">
+        <v>31</v>
+      </c>
+      <c r="E137" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F137">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>13</v>
+      </c>
+      <c r="B138" t="s">
+        <v>44</v>
+      </c>
+      <c r="C138" t="s">
+        <v>29</v>
+      </c>
+      <c r="D138" t="s">
+        <v>31</v>
+      </c>
+      <c r="E138" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F138">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>13</v>
+      </c>
+      <c r="B139" t="s">
+        <v>44</v>
+      </c>
+      <c r="C139" t="s">
+        <v>29</v>
+      </c>
+      <c r="D139" t="s">
+        <v>46</v>
+      </c>
+      <c r="E139" s="3">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>13</v>
+      </c>
+      <c r="B140" t="s">
+        <v>44</v>
+      </c>
+      <c r="C140" t="s">
+        <v>29</v>
+      </c>
+      <c r="D140" t="s">
+        <v>48</v>
+      </c>
+      <c r="E140" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F140">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>13</v>
+      </c>
+      <c r="B141" t="s">
+        <v>44</v>
+      </c>
+      <c r="C141" t="s">
+        <v>29</v>
+      </c>
+      <c r="D141" t="s">
+        <v>47</v>
+      </c>
+      <c r="E141" s="3">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142" t="s">
+        <v>44</v>
+      </c>
+      <c r="C142" t="s">
+        <v>29</v>
+      </c>
+      <c r="D142" t="s">
+        <v>30</v>
+      </c>
+      <c r="E142" s="3">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>13</v>
+      </c>
+      <c r="B143" t="s">
+        <v>44</v>
+      </c>
+      <c r="C143" t="s">
+        <v>29</v>
+      </c>
+      <c r="D143" t="s">
+        <v>31</v>
+      </c>
+      <c r="E143" s="3">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>13</v>
+      </c>
+      <c r="B144" t="s">
+        <v>44</v>
+      </c>
+      <c r="C144" t="s">
+        <v>29</v>
+      </c>
+      <c r="D144" t="s">
+        <v>46</v>
+      </c>
+      <c r="E144" s="3">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>13</v>
+      </c>
+      <c r="B145" t="s">
+        <v>44</v>
+      </c>
+      <c r="C145" t="s">
+        <v>29</v>
+      </c>
+      <c r="D145" t="s">
+        <v>48</v>
+      </c>
+      <c r="E145" s="3">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>13</v>
+      </c>
+      <c r="B146" t="s">
+        <v>44</v>
+      </c>
+      <c r="C146" t="s">
+        <v>29</v>
+      </c>
+      <c r="D146" t="s">
+        <v>47</v>
+      </c>
+      <c r="E146" s="3">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>13</v>
+      </c>
+      <c r="B147" t="s">
+        <v>44</v>
+      </c>
+      <c r="C147" t="s">
+        <v>29</v>
+      </c>
+      <c r="D147" t="s">
+        <v>46</v>
+      </c>
+      <c r="E147" s="3">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148" t="s">
+        <v>44</v>
+      </c>
+      <c r="C148" t="s">
+        <v>29</v>
+      </c>
+      <c r="D148" t="s">
+        <v>48</v>
+      </c>
+      <c r="E148" s="3">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149" t="s">
+        <v>44</v>
+      </c>
+      <c r="C149" t="s">
+        <v>29</v>
+      </c>
+      <c r="D149" t="s">
+        <v>47</v>
+      </c>
+      <c r="E149" s="3">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150" t="s">
+        <v>44</v>
+      </c>
+      <c r="C150" t="s">
+        <v>29</v>
+      </c>
+      <c r="D150" t="s">
+        <v>31</v>
+      </c>
+      <c r="E150" s="3">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>13</v>
+      </c>
+      <c r="B151" t="s">
+        <v>44</v>
+      </c>
+      <c r="C151" t="s">
+        <v>29</v>
+      </c>
+      <c r="D151" t="s">
+        <v>30</v>
+      </c>
+      <c r="E151" s="3">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>13</v>
+      </c>
+      <c r="B152" t="s">
+        <v>44</v>
+      </c>
+      <c r="C152" t="s">
+        <v>34</v>
+      </c>
+      <c r="D152" t="s">
+        <v>31</v>
+      </c>
+      <c r="E152" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F152">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>13</v>
+      </c>
+      <c r="B153" t="s">
+        <v>44</v>
+      </c>
+      <c r="C153" t="s">
+        <v>34</v>
+      </c>
+      <c r="D153" t="s">
+        <v>31</v>
+      </c>
+      <c r="E153" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F153">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>13</v>
+      </c>
+      <c r="B154" t="s">
+        <v>44</v>
+      </c>
+      <c r="C154" t="s">
+        <v>34</v>
+      </c>
+      <c r="D154" t="s">
+        <v>31</v>
+      </c>
+      <c r="E154" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F154">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>13</v>
+      </c>
+      <c r="B155" t="s">
+        <v>44</v>
+      </c>
+      <c r="C155" t="s">
+        <v>34</v>
+      </c>
+      <c r="D155" t="s">
+        <v>31</v>
+      </c>
+      <c r="E155" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F155">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>13</v>
+      </c>
+      <c r="B156" t="s">
+        <v>44</v>
+      </c>
+      <c r="C156" t="s">
+        <v>34</v>
+      </c>
+      <c r="D156" t="s">
+        <v>31</v>
+      </c>
+      <c r="E156" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F156">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>13</v>
+      </c>
+      <c r="B157" t="s">
+        <v>44</v>
+      </c>
+      <c r="C157" t="s">
+        <v>34</v>
+      </c>
+      <c r="D157" t="s">
+        <v>35</v>
+      </c>
+      <c r="E157" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="F157">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>13</v>
+      </c>
+      <c r="B158" t="s">
+        <v>44</v>
+      </c>
+      <c r="C158" t="s">
+        <v>34</v>
+      </c>
+      <c r="D158" t="s">
+        <v>35</v>
+      </c>
+      <c r="E158" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F158">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>13</v>
+      </c>
+      <c r="B159" t="s">
+        <v>44</v>
+      </c>
+      <c r="C159" t="s">
+        <v>34</v>
+      </c>
+      <c r="D159" t="s">
+        <v>35</v>
+      </c>
+      <c r="E159" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F159">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>13</v>
+      </c>
+      <c r="B160" t="s">
+        <v>44</v>
+      </c>
+      <c r="C160" t="s">
+        <v>34</v>
+      </c>
+      <c r="D160" t="s">
+        <v>35</v>
+      </c>
+      <c r="E160" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F160">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>13</v>
+      </c>
+      <c r="B161" t="s">
+        <v>44</v>
+      </c>
+      <c r="C161" t="s">
+        <v>34</v>
+      </c>
+      <c r="D161" t="s">
+        <v>35</v>
+      </c>
+      <c r="E161" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F161">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>13</v>
+      </c>
+      <c r="B162" t="s">
+        <v>44</v>
+      </c>
+      <c r="C162" t="s">
+        <v>34</v>
+      </c>
+      <c r="D162" t="s">
+        <v>48</v>
+      </c>
+      <c r="E162" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F162">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>13</v>
+      </c>
+      <c r="B163" t="s">
+        <v>44</v>
+      </c>
+      <c r="C163" t="s">
+        <v>34</v>
+      </c>
+      <c r="D163" t="s">
+        <v>30</v>
+      </c>
+      <c r="E163" s="3">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>13</v>
+      </c>
+      <c r="B164" t="s">
+        <v>44</v>
+      </c>
+      <c r="C164" t="s">
+        <v>34</v>
+      </c>
+      <c r="D164" t="s">
+        <v>46</v>
+      </c>
+      <c r="E164" s="3">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>13</v>
+      </c>
+      <c r="B165" t="s">
+        <v>44</v>
+      </c>
+      <c r="C165" t="s">
+        <v>34</v>
+      </c>
+      <c r="D165" t="s">
+        <v>47</v>
+      </c>
+      <c r="E165" s="3">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>13</v>
+      </c>
+      <c r="B166" t="s">
+        <v>44</v>
+      </c>
+      <c r="C166" t="s">
+        <v>34</v>
+      </c>
+      <c r="D166" t="s">
+        <v>48</v>
+      </c>
+      <c r="E166" s="3">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>13</v>
+      </c>
+      <c r="B167" t="s">
+        <v>44</v>
+      </c>
+      <c r="C167" t="s">
+        <v>34</v>
+      </c>
+      <c r="D167" t="s">
+        <v>30</v>
+      </c>
+      <c r="E167" s="3">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>13</v>
+      </c>
+      <c r="B168" t="s">
+        <v>44</v>
+      </c>
+      <c r="C168" t="s">
+        <v>34</v>
+      </c>
+      <c r="D168" t="s">
+        <v>46</v>
+      </c>
+      <c r="E168" s="3">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>13</v>
+      </c>
+      <c r="B169" t="s">
+        <v>44</v>
+      </c>
+      <c r="C169" t="s">
+        <v>34</v>
+      </c>
+      <c r="D169" t="s">
+        <v>47</v>
+      </c>
+      <c r="E169" s="3">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>13</v>
+      </c>
+      <c r="B170" t="s">
+        <v>44</v>
+      </c>
+      <c r="C170" t="s">
+        <v>33</v>
+      </c>
+      <c r="D170" t="s">
+        <v>31</v>
+      </c>
+      <c r="E170" s="3">
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>13</v>
+      </c>
+      <c r="B171" t="s">
+        <v>44</v>
+      </c>
+      <c r="C171" t="s">
+        <v>33</v>
+      </c>
+      <c r="D171" t="s">
+        <v>32</v>
+      </c>
+      <c r="E171" s="3">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>13</v>
+      </c>
+      <c r="B172" t="s">
+        <v>44</v>
+      </c>
+      <c r="C172" t="s">
+        <v>33</v>
+      </c>
+      <c r="D172" t="s">
+        <v>31</v>
+      </c>
+      <c r="E172" s="3">
+        <v>1</v>
+      </c>
+      <c r="F172">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>13</v>
+      </c>
+      <c r="B173" t="s">
+        <v>44</v>
+      </c>
+      <c r="C173" t="s">
+        <v>33</v>
+      </c>
+      <c r="D173" t="s">
+        <v>32</v>
+      </c>
+      <c r="E173" s="3">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>13</v>
+      </c>
+      <c r="B174" t="s">
+        <v>44</v>
+      </c>
+      <c r="C174" t="s">
+        <v>33</v>
+      </c>
+      <c r="D174" t="s">
+        <v>31</v>
+      </c>
+      <c r="E174" s="3">
+        <v>1</v>
+      </c>
+      <c r="F174">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>13</v>
+      </c>
+      <c r="B175" t="s">
+        <v>44</v>
+      </c>
+      <c r="C175" t="s">
+        <v>33</v>
+      </c>
+      <c r="D175" t="s">
+        <v>32</v>
+      </c>
+      <c r="E175" s="3">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>2100</v>
       </c>
     </row>
   </sheetData>
@@ -2591,12 +5765,13 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2613,7 +5788,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -2630,7 +5805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -2647,7 +5822,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -2664,7 +5839,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -2681,7 +5856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -2698,7 +5873,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -2715,7 +5890,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -2729,10 +5904,10 @@
         <v>40</v>
       </c>
       <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -2749,7 +5924,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -2763,10 +5938,10 @@
         <v>40</v>
       </c>
       <c r="E10">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -2783,7 +5958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -2800,7 +5975,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2826,13 +6001,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6C2B10-BDCD-46C9-B641-8C907286B1AB}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O46" sqref="O46"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2842,7 +6018,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -2850,7 +6026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -2858,7 +6034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -2866,7 +6042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -2874,7 +6050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -2882,7 +6058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -2890,7 +6066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -2898,7 +6074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -2906,7 +6082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -2914,7 +6090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -2922,7 +6098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -2930,7 +6106,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2938,7 +6114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -2946,7 +6122,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -2954,7 +6130,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -2962,7 +6138,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -2970,7 +6146,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -2978,7 +6154,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -2986,7 +6162,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -2994,7 +6170,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -3002,7 +6178,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>

--- a/input_data/vehicle_sales_share_inputs.xlsx
+++ b/input_data/vehicle_sales_share_inputs.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\APERC\transport_model_9th_edition\input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APERC\transport_model_9th_edition\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AE0D72-B5EC-41FD-AFD5-A8EEB6A311C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3501FAB-6E46-423E-9A6F-696530364649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="912" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{BD5D0853-27AB-4388-BA7A-28E1329E6022}"/>
+    <workbookView xWindow="-9705" yWindow="-13035" windowWidth="38655" windowHeight="15060" activeTab="2" xr2:uid="{BD5D0853-27AB-4388-BA7A-28E1329E6022}"/>
   </bookViews>
   <sheets>
     <sheet name="regions_passenger" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="51">
   <si>
     <t>Region</t>
   </si>
@@ -173,6 +172,12 @@
   </si>
   <si>
     <t>ice</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>tha</t>
   </si>
 </sst>
 </file>
@@ -543,14 +548,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,7 +560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -566,7 +568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -574,7 +576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -582,7 +584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -590,7 +592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -598,7 +600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -606,7 +608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -614,7 +616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -622,7 +624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -630,15 +632,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -646,7 +648,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -654,7 +656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -662,7 +664,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -670,7 +672,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -678,7 +680,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -686,7 +688,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -694,7 +696,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -702,7 +704,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -710,15 +712,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -735,14 +737,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F13"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -750,7 +749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -758,7 +757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -766,7 +765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -774,7 +773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -782,7 +781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -790,7 +789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -798,7 +797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -806,7 +805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -814,7 +813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -822,7 +821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -830,7 +829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -838,7 +837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -846,7 +845,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -854,7 +853,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -862,7 +861,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -870,7 +869,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -878,7 +877,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -886,7 +885,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -894,7 +893,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -902,7 +901,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -910,7 +909,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -925,18 +924,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -956,12 +952,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
@@ -976,12 +972,12 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -996,12 +992,12 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -1010,118 +1006,118 @@
         <v>31</v>
       </c>
       <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
         <v>46</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
         <v>47</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8">
+        <v>0.1</v>
+      </c>
+      <c r="F8">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
         <v>48</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
       <c r="E9">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
@@ -1130,241 +1126,241 @@
         <v>31</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F10">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>2030</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13">
         <v>1</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>2100</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>0.2</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>2027</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15">
+        <v>0.3</v>
+      </c>
+      <c r="F15">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16">
         <v>0.6</v>
       </c>
-      <c r="F14">
+      <c r="F16">
         <v>2035</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17">
+        <v>0.4</v>
+      </c>
+      <c r="F17">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18">
+        <v>0.9</v>
+      </c>
+      <c r="F18">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
         <v>46</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
         <v>47</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
         <v>30</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20">
-        <v>0.7</v>
-      </c>
-      <c r="F20">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" t="s">
-        <v>31</v>
-      </c>
       <c r="E21">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F21">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
         <v>48</v>
@@ -1373,72 +1369,72 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
         <v>31</v>
       </c>
       <c r="E23">
+        <v>0.7</v>
+      </c>
+      <c r="F23">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24">
         <v>1</v>
       </c>
-      <c r="F23">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24">
-        <v>0.5</v>
-      </c>
       <c r="F24">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
         <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E25">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
         <v>43</v>
@@ -1453,12 +1449,12 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
         <v>43</v>
@@ -1467,261 +1463,261 @@
         <v>29</v>
       </c>
       <c r="D27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27">
+        <v>0.3</v>
+      </c>
+      <c r="F27">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28">
+        <v>0.7</v>
+      </c>
+      <c r="F28">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
         <v>46</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
         <v>47</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" t="s">
         <v>30</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" t="s">
         <v>48</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31">
-        <v>0.7</v>
-      </c>
-      <c r="F31">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" t="s">
-        <v>31</v>
-      </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E34">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="F34">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
         <v>31</v>
       </c>
       <c r="E35">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="F35">
         <v>2030</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
         <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38">
+        <v>0.2</v>
+      </c>
+      <c r="F38">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39">
+        <v>0.6</v>
+      </c>
+      <c r="F39">
         <v>2035</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38">
-        <v>0.7</v>
-      </c>
-      <c r="F38">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
         <v>29</v>
@@ -1733,138 +1729,138 @@
         <v>1</v>
       </c>
       <c r="F40">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
         <v>29</v>
       </c>
       <c r="D41" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" t="s">
         <v>30</v>
       </c>
-      <c r="E41">
-        <v>0.5</v>
-      </c>
-      <c r="F41">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" t="s">
-        <v>31</v>
-      </c>
-      <c r="E42">
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45">
         <v>0.7</v>
       </c>
-      <c r="F42">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" t="s">
-        <v>31</v>
-      </c>
-      <c r="E43">
+      <c r="F45">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46">
         <v>1</v>
-      </c>
-      <c r="F43">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" t="s">
-        <v>46</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" t="s">
-        <v>47</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" t="s">
-        <v>30</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
       </c>
       <c r="F46">
         <v>2035</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D47" t="s">
         <v>48</v>
@@ -1873,75 +1869,75 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D48" t="s">
         <v>31</v>
       </c>
       <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49">
+        <v>0.5</v>
+      </c>
+      <c r="F49">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50">
         <v>0.7</v>
       </c>
-      <c r="F48">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" t="s">
-        <v>33</v>
-      </c>
-      <c r="D49" t="s">
-        <v>31</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" t="s">
-        <v>33</v>
-      </c>
-      <c r="D50" t="s">
-        <v>48</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
       <c r="F50">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C51" t="s">
         <v>29</v>
@@ -1953,226 +1949,726 @@
         <v>1</v>
       </c>
       <c r="F51">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" t="s">
+        <v>48</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" t="s">
+        <v>31</v>
+      </c>
+      <c r="E56">
+        <v>0.7</v>
+      </c>
+      <c r="F56">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" t="s">
+        <v>31</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
         <v>2100</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" t="s">
-        <v>44</v>
-      </c>
-      <c r="C52" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" t="s">
         <v>30</v>
       </c>
-      <c r="E52">
+      <c r="E59">
         <v>0.3</v>
       </c>
-      <c r="F52">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53" t="s">
-        <v>31</v>
-      </c>
-      <c r="E53">
+      <c r="F59">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60">
         <v>0.7</v>
-      </c>
-      <c r="F53">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54" t="s">
-        <v>29</v>
-      </c>
-      <c r="D54" t="s">
-        <v>31</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" t="s">
-        <v>44</v>
-      </c>
-      <c r="C55" t="s">
-        <v>29</v>
-      </c>
-      <c r="D55" t="s">
-        <v>46</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" t="s">
-        <v>44</v>
-      </c>
-      <c r="C56" t="s">
-        <v>29</v>
-      </c>
-      <c r="D56" t="s">
-        <v>47</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C57" t="s">
-        <v>29</v>
-      </c>
-      <c r="D57" t="s">
-        <v>30</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" t="s">
-        <v>44</v>
-      </c>
-      <c r="C58" t="s">
-        <v>29</v>
-      </c>
-      <c r="D58" t="s">
-        <v>48</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" t="s">
-        <v>44</v>
-      </c>
-      <c r="C59" t="s">
-        <v>33</v>
-      </c>
-      <c r="D59" t="s">
-        <v>31</v>
-      </c>
-      <c r="E59">
-        <v>0.7</v>
-      </c>
-      <c r="F59">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" t="s">
-        <v>44</v>
-      </c>
-      <c r="C60" t="s">
-        <v>33</v>
-      </c>
-      <c r="D60" t="s">
-        <v>31</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
       </c>
       <c r="F60">
         <v>2030</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B61" t="s">
         <v>44</v>
       </c>
       <c r="C61" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" t="s">
+        <v>31</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>45</v>
+      </c>
+      <c r="B62" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>45</v>
+      </c>
+      <c r="B63" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" t="s">
         <v>33</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D63" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63">
+        <v>0.7</v>
+      </c>
+      <c r="F63">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" t="s">
+        <v>31</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" t="s">
+        <v>31</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" t="s">
+        <v>30</v>
+      </c>
+      <c r="E66">
+        <v>0.5</v>
+      </c>
+      <c r="F66">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" t="s">
+        <v>31</v>
+      </c>
+      <c r="E67">
+        <v>0.7</v>
+      </c>
+      <c r="F67">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" t="s">
+        <v>29</v>
+      </c>
+      <c r="D68" t="s">
+        <v>31</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" t="s">
+        <v>46</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" t="s">
+        <v>47</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" t="s">
+        <v>29</v>
+      </c>
+      <c r="D71" t="s">
+        <v>30</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" t="s">
         <v>48</v>
       </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" t="s">
+        <v>44</v>
+      </c>
+      <c r="C73" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" t="s">
+        <v>31</v>
+      </c>
+      <c r="E73">
+        <v>0.7</v>
+      </c>
+      <c r="F73">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" t="s">
+        <v>31</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
         <v>2030</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" t="s">
-        <v>44</v>
-      </c>
-      <c r="C62" t="s">
-        <v>29</v>
-      </c>
-      <c r="D62" t="s">
-        <v>31</v>
-      </c>
-      <c r="E62">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" t="s">
+        <v>44</v>
+      </c>
+      <c r="C75" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" t="s">
+        <v>48</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" t="s">
+        <v>44</v>
+      </c>
+      <c r="C76" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" t="s">
+        <v>31</v>
+      </c>
+      <c r="E76">
         <v>1</v>
       </c>
-      <c r="F62">
+      <c r="F76">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" t="s">
+        <v>44</v>
+      </c>
+      <c r="C77" t="s">
+        <v>29</v>
+      </c>
+      <c r="D77" t="s">
+        <v>30</v>
+      </c>
+      <c r="E77">
+        <v>0.3</v>
+      </c>
+      <c r="F77">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" t="s">
+        <v>44</v>
+      </c>
+      <c r="C78" t="s">
+        <v>29</v>
+      </c>
+      <c r="D78" t="s">
+        <v>31</v>
+      </c>
+      <c r="E78">
+        <v>0.7</v>
+      </c>
+      <c r="F78">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" t="s">
+        <v>44</v>
+      </c>
+      <c r="C79" t="s">
+        <v>29</v>
+      </c>
+      <c r="D79" t="s">
+        <v>31</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" t="s">
+        <v>44</v>
+      </c>
+      <c r="C80" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80" t="s">
+        <v>46</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" t="s">
+        <v>44</v>
+      </c>
+      <c r="C81" t="s">
+        <v>29</v>
+      </c>
+      <c r="D81" t="s">
+        <v>47</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82" t="s">
+        <v>29</v>
+      </c>
+      <c r="D82" t="s">
+        <v>30</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" t="s">
+        <v>44</v>
+      </c>
+      <c r="C83" t="s">
+        <v>29</v>
+      </c>
+      <c r="D83" t="s">
+        <v>48</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" t="s">
+        <v>44</v>
+      </c>
+      <c r="C84" t="s">
+        <v>33</v>
+      </c>
+      <c r="D84" t="s">
+        <v>31</v>
+      </c>
+      <c r="E84">
+        <v>0.7</v>
+      </c>
+      <c r="F84">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" t="s">
+        <v>44</v>
+      </c>
+      <c r="C85" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" t="s">
+        <v>31</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" t="s">
+        <v>44</v>
+      </c>
+      <c r="C86" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86" t="s">
+        <v>48</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" t="s">
+        <v>44</v>
+      </c>
+      <c r="C87" t="s">
+        <v>29</v>
+      </c>
+      <c r="D87" t="s">
+        <v>31</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
         <v>2100</v>
       </c>
     </row>
@@ -2183,20 +2679,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:T175"/>
+  <dimension ref="A1:T263"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F149" sqref="F149"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="45.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+    <col min="5" max="5" width="45.26953125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2216,7 +2709,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2237,7 +2730,7 @@
       </c>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2258,7 +2751,7 @@
       </c>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2279,7 +2772,7 @@
       </c>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2300,7 +2793,7 @@
       </c>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2321,7 +2814,7 @@
       </c>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2341,7 +2834,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2361,7 +2854,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2382,7 +2875,7 @@
       </c>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2404,7 +2897,7 @@
       <c r="M10" s="3"/>
       <c r="T10" s="3"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2426,7 +2919,7 @@
       <c r="M11" s="3"/>
       <c r="T11" s="3"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2448,7 +2941,7 @@
       <c r="M12" s="3"/>
       <c r="T12" s="3"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2470,7 +2963,7 @@
       <c r="M13" s="3"/>
       <c r="T13" s="3"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2492,7 +2985,7 @@
       <c r="M14" s="3"/>
       <c r="T14" s="3"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2514,7 +3007,7 @@
       <c r="M15" s="3"/>
       <c r="T15" s="3"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -2536,7 +3029,7 @@
       <c r="M16" s="3"/>
       <c r="T16" s="3"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2558,7 +3051,7 @@
       <c r="M17" s="3"/>
       <c r="T17" s="3"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2580,7 +3073,7 @@
       <c r="M18" s="3"/>
       <c r="T18" s="3"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -2602,7 +3095,7 @@
       <c r="M19" s="3"/>
       <c r="T19" s="3"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2624,7 +3117,7 @@
       <c r="M20" s="3"/>
       <c r="T20" s="3"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2645,7 +3138,7 @@
       </c>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2666,7 +3159,7 @@
       </c>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2687,7 +3180,7 @@
       </c>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2708,7 +3201,7 @@
       </c>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2729,7 +3222,7 @@
       </c>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -2750,7 +3243,7 @@
       </c>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2771,7 +3264,7 @@
       </c>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2791,7 +3284,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2811,7 +3304,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -2831,7 +3324,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2851,7 +3344,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2871,7 +3364,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -2891,7 +3384,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -2911,7 +3404,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -2931,7 +3424,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -2951,7 +3444,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -2971,7 +3464,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -2991,7 +3484,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -3011,7 +3504,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -3031,7 +3524,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -3051,7 +3544,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -3071,7 +3564,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -3091,7 +3584,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -3111,7 +3604,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -3131,7 +3624,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -3151,7 +3644,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -3171,7 +3664,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -3191,7 +3684,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -3211,7 +3704,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -3231,7 +3724,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -3251,7 +3744,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -3271,7 +3764,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -3291,7 +3784,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -3311,7 +3804,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -3331,7 +3824,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -3351,7 +3844,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -3371,7 +3864,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -3391,7 +3884,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -3411,7 +3904,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -3431,7 +3924,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -3451,7 +3944,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -3471,7 +3964,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -3491,7 +3984,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -3511,7 +4004,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -3533,7 +4026,7 @@
       <c r="M65" s="3"/>
       <c r="T65" s="3"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -3555,7 +4048,7 @@
       <c r="M66" s="3"/>
       <c r="T66" s="3"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -3577,7 +4070,7 @@
       <c r="M67" s="3"/>
       <c r="T67" s="3"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -3599,7 +4092,7 @@
       <c r="M68" s="3"/>
       <c r="T68" s="3"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -3621,7 +4114,7 @@
       <c r="M69" s="3"/>
       <c r="T69" s="3"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>13</v>
       </c>
@@ -3642,7 +4135,7 @@
       </c>
       <c r="T70" s="3"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -3663,7 +4156,7 @@
       </c>
       <c r="T71" s="3"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -3684,7 +4177,7 @@
       </c>
       <c r="T72" s="3"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -3705,7 +4198,7 @@
       </c>
       <c r="T73" s="3"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>13</v>
       </c>
@@ -3726,7 +4219,7 @@
       </c>
       <c r="T74" s="3"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -3747,7 +4240,7 @@
       </c>
       <c r="T75" s="3"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -3768,7 +4261,7 @@
       </c>
       <c r="T76" s="3"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>13</v>
       </c>
@@ -3789,7 +4282,7 @@
       </c>
       <c r="T77" s="3"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -3810,7 +4303,7 @@
       </c>
       <c r="T78" s="3"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>13</v>
       </c>
@@ -3831,7 +4324,7 @@
       </c>
       <c r="T79" s="3"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -3852,7 +4345,7 @@
       </c>
       <c r="T80" s="3"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>13</v>
       </c>
@@ -3873,7 +4366,7 @@
       </c>
       <c r="T81" s="3"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -3894,7 +4387,7 @@
       </c>
       <c r="T82" s="3"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -3914,7 +4407,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -3934,7 +4427,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>13</v>
       </c>
@@ -3954,7 +4447,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>13</v>
       </c>
@@ -3974,7 +4467,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>13</v>
       </c>
@@ -3994,7 +4487,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>13</v>
       </c>
@@ -4014,7 +4507,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -4034,7 +4527,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -4054,7 +4547,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -4074,7 +4567,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -4094,7 +4587,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -4114,7 +4607,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>4</v>
       </c>
@@ -4134,7 +4627,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>4</v>
       </c>
@@ -4154,7 +4647,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -4174,7 +4667,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -4194,7 +4687,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>4</v>
       </c>
@@ -4214,7 +4707,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>4</v>
       </c>
@@ -4234,7 +4727,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -4254,7 +4747,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>4</v>
       </c>
@@ -4274,7 +4767,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>4</v>
       </c>
@@ -4294,7 +4787,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>4</v>
       </c>
@@ -4314,7 +4807,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>4</v>
       </c>
@@ -4334,7 +4827,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>4</v>
       </c>
@@ -4354,7 +4847,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>4</v>
       </c>
@@ -4374,7 +4867,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>4</v>
       </c>
@@ -4394,7 +4887,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>4</v>
       </c>
@@ -4414,7 +4907,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>4</v>
       </c>
@@ -4434,7 +4927,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>4</v>
       </c>
@@ -4454,7 +4947,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>4</v>
       </c>
@@ -4474,7 +4967,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>4</v>
       </c>
@@ -4494,7 +4987,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -4514,7 +5007,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>4</v>
       </c>
@@ -4534,7 +5027,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>4</v>
       </c>
@@ -4554,7 +5047,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>4</v>
       </c>
@@ -4574,7 +5067,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>4</v>
       </c>
@@ -4594,7 +5087,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>4</v>
       </c>
@@ -4614,7 +5107,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>4</v>
       </c>
@@ -4634,7 +5127,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>4</v>
       </c>
@@ -4654,7 +5147,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>4</v>
       </c>
@@ -4674,7 +5167,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>4</v>
       </c>
@@ -4694,7 +5187,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>4</v>
       </c>
@@ -4714,7 +5207,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>4</v>
       </c>
@@ -4734,7 +5227,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>4</v>
       </c>
@@ -4754,7 +5247,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>4</v>
       </c>
@@ -4774,7 +5267,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>4</v>
       </c>
@@ -4794,7 +5287,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>4</v>
       </c>
@@ -4814,7 +5307,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>4</v>
       </c>
@@ -4834,7 +5327,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>4</v>
       </c>
@@ -4854,7 +5347,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>4</v>
       </c>
@@ -4874,7 +5367,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>4</v>
       </c>
@@ -4894,7 +5387,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>13</v>
       </c>
@@ -4914,7 +5407,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>13</v>
       </c>
@@ -4934,7 +5427,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>13</v>
       </c>
@@ -4954,7 +5447,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>13</v>
       </c>
@@ -4974,7 +5467,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>13</v>
       </c>
@@ -4994,7 +5487,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>13</v>
       </c>
@@ -5014,7 +5507,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>13</v>
       </c>
@@ -5034,7 +5527,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>13</v>
       </c>
@@ -5054,7 +5547,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>13</v>
       </c>
@@ -5074,7 +5567,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>13</v>
       </c>
@@ -5094,7 +5587,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>13</v>
       </c>
@@ -5114,7 +5607,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>13</v>
       </c>
@@ -5134,7 +5627,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>13</v>
       </c>
@@ -5154,7 +5647,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>13</v>
       </c>
@@ -5174,7 +5667,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>13</v>
       </c>
@@ -5194,7 +5687,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>13</v>
       </c>
@@ -5214,7 +5707,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>13</v>
       </c>
@@ -5234,7 +5727,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>13</v>
       </c>
@@ -5254,7 +5747,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -5274,7 +5767,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>13</v>
       </c>
@@ -5294,7 +5787,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>13</v>
       </c>
@@ -5314,7 +5807,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>13</v>
       </c>
@@ -5334,7 +5827,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>13</v>
       </c>
@@ -5354,7 +5847,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>13</v>
       </c>
@@ -5374,7 +5867,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>13</v>
       </c>
@@ -5394,7 +5887,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>13</v>
       </c>
@@ -5414,7 +5907,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>13</v>
       </c>
@@ -5434,7 +5927,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>13</v>
       </c>
@@ -5454,7 +5947,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>13</v>
       </c>
@@ -5474,7 +5967,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>13</v>
       </c>
@@ -5494,7 +5987,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>13</v>
       </c>
@@ -5514,7 +6007,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>13</v>
       </c>
@@ -5534,7 +6027,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>13</v>
       </c>
@@ -5554,7 +6047,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>13</v>
       </c>
@@ -5574,7 +6067,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>13</v>
       </c>
@@ -5594,7 +6087,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>13</v>
       </c>
@@ -5614,7 +6107,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>13</v>
       </c>
@@ -5634,7 +6127,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>13</v>
       </c>
@@ -5654,7 +6147,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>13</v>
       </c>
@@ -5674,7 +6167,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>13</v>
       </c>
@@ -5694,7 +6187,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>13</v>
       </c>
@@ -5714,7 +6207,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>13</v>
       </c>
@@ -5734,7 +6227,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>13</v>
       </c>
@@ -5752,6 +6245,1766 @@
       </c>
       <c r="F175">
         <v>2100</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>49</v>
+      </c>
+      <c r="B176" t="s">
+        <v>43</v>
+      </c>
+      <c r="C176" t="s">
+        <v>34</v>
+      </c>
+      <c r="D176" t="s">
+        <v>31</v>
+      </c>
+      <c r="E176" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F176">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>49</v>
+      </c>
+      <c r="B177" t="s">
+        <v>43</v>
+      </c>
+      <c r="C177" t="s">
+        <v>34</v>
+      </c>
+      <c r="D177" t="s">
+        <v>31</v>
+      </c>
+      <c r="E177" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F177">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>49</v>
+      </c>
+      <c r="B178" t="s">
+        <v>43</v>
+      </c>
+      <c r="C178" t="s">
+        <v>34</v>
+      </c>
+      <c r="D178" t="s">
+        <v>31</v>
+      </c>
+      <c r="E178" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F178">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>49</v>
+      </c>
+      <c r="B179" t="s">
+        <v>43</v>
+      </c>
+      <c r="C179" t="s">
+        <v>34</v>
+      </c>
+      <c r="D179" t="s">
+        <v>31</v>
+      </c>
+      <c r="E179" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F179">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>49</v>
+      </c>
+      <c r="B180" t="s">
+        <v>43</v>
+      </c>
+      <c r="C180" t="s">
+        <v>34</v>
+      </c>
+      <c r="D180" t="s">
+        <v>31</v>
+      </c>
+      <c r="E180" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F180">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>49</v>
+      </c>
+      <c r="B181" t="s">
+        <v>43</v>
+      </c>
+      <c r="C181" t="s">
+        <v>34</v>
+      </c>
+      <c r="D181" t="s">
+        <v>35</v>
+      </c>
+      <c r="E181" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="F181">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>49</v>
+      </c>
+      <c r="B182" t="s">
+        <v>43</v>
+      </c>
+      <c r="C182" t="s">
+        <v>34</v>
+      </c>
+      <c r="D182" t="s">
+        <v>35</v>
+      </c>
+      <c r="E182" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F182">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>49</v>
+      </c>
+      <c r="B183" t="s">
+        <v>43</v>
+      </c>
+      <c r="C183" t="s">
+        <v>34</v>
+      </c>
+      <c r="D183" t="s">
+        <v>35</v>
+      </c>
+      <c r="E183" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F183">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>49</v>
+      </c>
+      <c r="B184" t="s">
+        <v>43</v>
+      </c>
+      <c r="C184" t="s">
+        <v>34</v>
+      </c>
+      <c r="D184" t="s">
+        <v>35</v>
+      </c>
+      <c r="E184" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F184">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>49</v>
+      </c>
+      <c r="B185" t="s">
+        <v>43</v>
+      </c>
+      <c r="C185" t="s">
+        <v>34</v>
+      </c>
+      <c r="D185" t="s">
+        <v>35</v>
+      </c>
+      <c r="E185" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F185">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>49</v>
+      </c>
+      <c r="B186" t="s">
+        <v>43</v>
+      </c>
+      <c r="C186" t="s">
+        <v>34</v>
+      </c>
+      <c r="D186" t="s">
+        <v>48</v>
+      </c>
+      <c r="E186" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F186">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>49</v>
+      </c>
+      <c r="B187" t="s">
+        <v>43</v>
+      </c>
+      <c r="C187" t="s">
+        <v>34</v>
+      </c>
+      <c r="D187" t="s">
+        <v>30</v>
+      </c>
+      <c r="E187" s="3">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>49</v>
+      </c>
+      <c r="B188" t="s">
+        <v>43</v>
+      </c>
+      <c r="C188" t="s">
+        <v>34</v>
+      </c>
+      <c r="D188" t="s">
+        <v>46</v>
+      </c>
+      <c r="E188" s="3">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>49</v>
+      </c>
+      <c r="B189" t="s">
+        <v>43</v>
+      </c>
+      <c r="C189" t="s">
+        <v>34</v>
+      </c>
+      <c r="D189" t="s">
+        <v>47</v>
+      </c>
+      <c r="E189" s="3">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>49</v>
+      </c>
+      <c r="B190" t="s">
+        <v>43</v>
+      </c>
+      <c r="C190" t="s">
+        <v>34</v>
+      </c>
+      <c r="D190" t="s">
+        <v>48</v>
+      </c>
+      <c r="E190" s="3">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>49</v>
+      </c>
+      <c r="B191" t="s">
+        <v>43</v>
+      </c>
+      <c r="C191" t="s">
+        <v>34</v>
+      </c>
+      <c r="D191" t="s">
+        <v>30</v>
+      </c>
+      <c r="E191" s="3">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>49</v>
+      </c>
+      <c r="B192" t="s">
+        <v>43</v>
+      </c>
+      <c r="C192" t="s">
+        <v>34</v>
+      </c>
+      <c r="D192" t="s">
+        <v>46</v>
+      </c>
+      <c r="E192" s="3">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>49</v>
+      </c>
+      <c r="B193" t="s">
+        <v>43</v>
+      </c>
+      <c r="C193" t="s">
+        <v>34</v>
+      </c>
+      <c r="D193" t="s">
+        <v>47</v>
+      </c>
+      <c r="E193" s="3">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>49</v>
+      </c>
+      <c r="B194" t="s">
+        <v>43</v>
+      </c>
+      <c r="C194" t="s">
+        <v>29</v>
+      </c>
+      <c r="D194" t="s">
+        <v>48</v>
+      </c>
+      <c r="E194" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F194">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>49</v>
+      </c>
+      <c r="B195" t="s">
+        <v>43</v>
+      </c>
+      <c r="C195" t="s">
+        <v>29</v>
+      </c>
+      <c r="D195" t="s">
+        <v>48</v>
+      </c>
+      <c r="E195" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F195">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>49</v>
+      </c>
+      <c r="B196" t="s">
+        <v>43</v>
+      </c>
+      <c r="C196" t="s">
+        <v>29</v>
+      </c>
+      <c r="D196" t="s">
+        <v>31</v>
+      </c>
+      <c r="E196" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F196">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>49</v>
+      </c>
+      <c r="B197" t="s">
+        <v>43</v>
+      </c>
+      <c r="C197" t="s">
+        <v>29</v>
+      </c>
+      <c r="D197" t="s">
+        <v>30</v>
+      </c>
+      <c r="E197" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F197">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>49</v>
+      </c>
+      <c r="B198" t="s">
+        <v>43</v>
+      </c>
+      <c r="C198" t="s">
+        <v>29</v>
+      </c>
+      <c r="D198" t="s">
+        <v>31</v>
+      </c>
+      <c r="E198" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F198">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>49</v>
+      </c>
+      <c r="B199" t="s">
+        <v>43</v>
+      </c>
+      <c r="C199" t="s">
+        <v>29</v>
+      </c>
+      <c r="D199" t="s">
+        <v>31</v>
+      </c>
+      <c r="E199" s="3">
+        <v>1</v>
+      </c>
+      <c r="F199">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>49</v>
+      </c>
+      <c r="B200" t="s">
+        <v>43</v>
+      </c>
+      <c r="C200" t="s">
+        <v>29</v>
+      </c>
+      <c r="D200" t="s">
+        <v>46</v>
+      </c>
+      <c r="E200" s="3">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>49</v>
+      </c>
+      <c r="B201" t="s">
+        <v>43</v>
+      </c>
+      <c r="C201" t="s">
+        <v>29</v>
+      </c>
+      <c r="D201" t="s">
+        <v>48</v>
+      </c>
+      <c r="E201" s="3">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>49</v>
+      </c>
+      <c r="B202" t="s">
+        <v>43</v>
+      </c>
+      <c r="C202" t="s">
+        <v>29</v>
+      </c>
+      <c r="D202" t="s">
+        <v>47</v>
+      </c>
+      <c r="E202" s="3">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>49</v>
+      </c>
+      <c r="B203" t="s">
+        <v>43</v>
+      </c>
+      <c r="C203" t="s">
+        <v>29</v>
+      </c>
+      <c r="D203" t="s">
+        <v>30</v>
+      </c>
+      <c r="E203" s="3">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>49</v>
+      </c>
+      <c r="B204" t="s">
+        <v>43</v>
+      </c>
+      <c r="C204" t="s">
+        <v>29</v>
+      </c>
+      <c r="D204" t="s">
+        <v>31</v>
+      </c>
+      <c r="E204" s="3">
+        <v>1</v>
+      </c>
+      <c r="F204">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>49</v>
+      </c>
+      <c r="B205" t="s">
+        <v>43</v>
+      </c>
+      <c r="C205" t="s">
+        <v>29</v>
+      </c>
+      <c r="D205" t="s">
+        <v>46</v>
+      </c>
+      <c r="E205" s="3">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>49</v>
+      </c>
+      <c r="B206" t="s">
+        <v>43</v>
+      </c>
+      <c r="C206" t="s">
+        <v>29</v>
+      </c>
+      <c r="D206" t="s">
+        <v>48</v>
+      </c>
+      <c r="E206" s="3">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>49</v>
+      </c>
+      <c r="B207" t="s">
+        <v>43</v>
+      </c>
+      <c r="C207" t="s">
+        <v>29</v>
+      </c>
+      <c r="D207" t="s">
+        <v>47</v>
+      </c>
+      <c r="E207" s="3">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>49</v>
+      </c>
+      <c r="B208" t="s">
+        <v>43</v>
+      </c>
+      <c r="C208" t="s">
+        <v>29</v>
+      </c>
+      <c r="D208" t="s">
+        <v>46</v>
+      </c>
+      <c r="E208" s="3">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>49</v>
+      </c>
+      <c r="B209" t="s">
+        <v>43</v>
+      </c>
+      <c r="C209" t="s">
+        <v>29</v>
+      </c>
+      <c r="D209" t="s">
+        <v>48</v>
+      </c>
+      <c r="E209" s="3">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>49</v>
+      </c>
+      <c r="B210" t="s">
+        <v>43</v>
+      </c>
+      <c r="C210" t="s">
+        <v>29</v>
+      </c>
+      <c r="D210" t="s">
+        <v>47</v>
+      </c>
+      <c r="E210" s="3">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>49</v>
+      </c>
+      <c r="B211" t="s">
+        <v>43</v>
+      </c>
+      <c r="C211" t="s">
+        <v>29</v>
+      </c>
+      <c r="D211" t="s">
+        <v>31</v>
+      </c>
+      <c r="E211" s="3">
+        <v>1</v>
+      </c>
+      <c r="F211">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>49</v>
+      </c>
+      <c r="B212" t="s">
+        <v>43</v>
+      </c>
+      <c r="C212" t="s">
+        <v>33</v>
+      </c>
+      <c r="D212" t="s">
+        <v>31</v>
+      </c>
+      <c r="E212" s="3">
+        <v>1</v>
+      </c>
+      <c r="F212">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>49</v>
+      </c>
+      <c r="B213" t="s">
+        <v>43</v>
+      </c>
+      <c r="C213" t="s">
+        <v>33</v>
+      </c>
+      <c r="D213" t="s">
+        <v>48</v>
+      </c>
+      <c r="E213" s="3">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>49</v>
+      </c>
+      <c r="B214" t="s">
+        <v>43</v>
+      </c>
+      <c r="C214" t="s">
+        <v>33</v>
+      </c>
+      <c r="D214" t="s">
+        <v>31</v>
+      </c>
+      <c r="E214" s="3">
+        <v>1</v>
+      </c>
+      <c r="F214">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>49</v>
+      </c>
+      <c r="B215" t="s">
+        <v>43</v>
+      </c>
+      <c r="C215" t="s">
+        <v>33</v>
+      </c>
+      <c r="D215" t="s">
+        <v>48</v>
+      </c>
+      <c r="E215" s="3">
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>49</v>
+      </c>
+      <c r="B216" t="s">
+        <v>43</v>
+      </c>
+      <c r="C216" t="s">
+        <v>33</v>
+      </c>
+      <c r="D216" t="s">
+        <v>31</v>
+      </c>
+      <c r="E216" s="3">
+        <v>1</v>
+      </c>
+      <c r="F216">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>49</v>
+      </c>
+      <c r="B217" t="s">
+        <v>43</v>
+      </c>
+      <c r="C217" t="s">
+        <v>33</v>
+      </c>
+      <c r="D217" t="s">
+        <v>48</v>
+      </c>
+      <c r="E217" s="3">
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>49</v>
+      </c>
+      <c r="B218" t="s">
+        <v>43</v>
+      </c>
+      <c r="C218" t="s">
+        <v>33</v>
+      </c>
+      <c r="D218" t="s">
+        <v>31</v>
+      </c>
+      <c r="E218" s="3">
+        <v>1</v>
+      </c>
+      <c r="F218">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>49</v>
+      </c>
+      <c r="B219" t="s">
+        <v>43</v>
+      </c>
+      <c r="C219" t="s">
+        <v>33</v>
+      </c>
+      <c r="D219" t="s">
+        <v>32</v>
+      </c>
+      <c r="E219" s="3">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>49</v>
+      </c>
+      <c r="B220" t="s">
+        <v>44</v>
+      </c>
+      <c r="C220" t="s">
+        <v>34</v>
+      </c>
+      <c r="D220" t="s">
+        <v>31</v>
+      </c>
+      <c r="E220" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="F220">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>49</v>
+      </c>
+      <c r="B221" t="s">
+        <v>44</v>
+      </c>
+      <c r="C221" t="s">
+        <v>34</v>
+      </c>
+      <c r="D221" t="s">
+        <v>31</v>
+      </c>
+      <c r="E221" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="F221">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>49</v>
+      </c>
+      <c r="B222" t="s">
+        <v>44</v>
+      </c>
+      <c r="C222" t="s">
+        <v>34</v>
+      </c>
+      <c r="D222" t="s">
+        <v>31</v>
+      </c>
+      <c r="E222" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="F222">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>49</v>
+      </c>
+      <c r="B223" t="s">
+        <v>44</v>
+      </c>
+      <c r="C223" t="s">
+        <v>34</v>
+      </c>
+      <c r="D223" t="s">
+        <v>31</v>
+      </c>
+      <c r="E223" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F223">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>49</v>
+      </c>
+      <c r="B224" t="s">
+        <v>44</v>
+      </c>
+      <c r="C224" t="s">
+        <v>34</v>
+      </c>
+      <c r="D224" t="s">
+        <v>31</v>
+      </c>
+      <c r="E224" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F224">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>49</v>
+      </c>
+      <c r="B225" t="s">
+        <v>44</v>
+      </c>
+      <c r="C225" t="s">
+        <v>34</v>
+      </c>
+      <c r="D225" t="s">
+        <v>35</v>
+      </c>
+      <c r="E225" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="F225">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>49</v>
+      </c>
+      <c r="B226" t="s">
+        <v>44</v>
+      </c>
+      <c r="C226" t="s">
+        <v>34</v>
+      </c>
+      <c r="D226" t="s">
+        <v>35</v>
+      </c>
+      <c r="E226" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F226">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>49</v>
+      </c>
+      <c r="B227" t="s">
+        <v>44</v>
+      </c>
+      <c r="C227" t="s">
+        <v>34</v>
+      </c>
+      <c r="D227" t="s">
+        <v>35</v>
+      </c>
+      <c r="E227" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F227">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>49</v>
+      </c>
+      <c r="B228" t="s">
+        <v>44</v>
+      </c>
+      <c r="C228" t="s">
+        <v>34</v>
+      </c>
+      <c r="D228" t="s">
+        <v>35</v>
+      </c>
+      <c r="E228" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F228">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>49</v>
+      </c>
+      <c r="B229" t="s">
+        <v>44</v>
+      </c>
+      <c r="C229" t="s">
+        <v>34</v>
+      </c>
+      <c r="D229" t="s">
+        <v>35</v>
+      </c>
+      <c r="E229" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F229">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>49</v>
+      </c>
+      <c r="B230" t="s">
+        <v>44</v>
+      </c>
+      <c r="C230" t="s">
+        <v>34</v>
+      </c>
+      <c r="D230" t="s">
+        <v>48</v>
+      </c>
+      <c r="E230" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F230">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>49</v>
+      </c>
+      <c r="B231" t="s">
+        <v>44</v>
+      </c>
+      <c r="C231" t="s">
+        <v>34</v>
+      </c>
+      <c r="D231" t="s">
+        <v>30</v>
+      </c>
+      <c r="E231" s="3">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>49</v>
+      </c>
+      <c r="B232" t="s">
+        <v>44</v>
+      </c>
+      <c r="C232" t="s">
+        <v>34</v>
+      </c>
+      <c r="D232" t="s">
+        <v>46</v>
+      </c>
+      <c r="E232" s="3">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>49</v>
+      </c>
+      <c r="B233" t="s">
+        <v>44</v>
+      </c>
+      <c r="C233" t="s">
+        <v>34</v>
+      </c>
+      <c r="D233" t="s">
+        <v>47</v>
+      </c>
+      <c r="E233" s="3">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>49</v>
+      </c>
+      <c r="B234" t="s">
+        <v>44</v>
+      </c>
+      <c r="C234" t="s">
+        <v>34</v>
+      </c>
+      <c r="D234" t="s">
+        <v>48</v>
+      </c>
+      <c r="E234" s="3">
+        <v>0</v>
+      </c>
+      <c r="F234">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>49</v>
+      </c>
+      <c r="B235" t="s">
+        <v>44</v>
+      </c>
+      <c r="C235" t="s">
+        <v>34</v>
+      </c>
+      <c r="D235" t="s">
+        <v>30</v>
+      </c>
+      <c r="E235" s="3">
+        <v>0</v>
+      </c>
+      <c r="F235">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>49</v>
+      </c>
+      <c r="B236" t="s">
+        <v>44</v>
+      </c>
+      <c r="C236" t="s">
+        <v>34</v>
+      </c>
+      <c r="D236" t="s">
+        <v>46</v>
+      </c>
+      <c r="E236" s="3">
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>49</v>
+      </c>
+      <c r="B237" t="s">
+        <v>44</v>
+      </c>
+      <c r="C237" t="s">
+        <v>34</v>
+      </c>
+      <c r="D237" t="s">
+        <v>47</v>
+      </c>
+      <c r="E237" s="3">
+        <v>0</v>
+      </c>
+      <c r="F237">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>49</v>
+      </c>
+      <c r="B238" t="s">
+        <v>44</v>
+      </c>
+      <c r="C238" t="s">
+        <v>29</v>
+      </c>
+      <c r="D238" t="s">
+        <v>48</v>
+      </c>
+      <c r="E238" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="F238">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>49</v>
+      </c>
+      <c r="B239" t="s">
+        <v>44</v>
+      </c>
+      <c r="C239" t="s">
+        <v>29</v>
+      </c>
+      <c r="D239" t="s">
+        <v>48</v>
+      </c>
+      <c r="E239" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="F239">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>49</v>
+      </c>
+      <c r="B240" t="s">
+        <v>44</v>
+      </c>
+      <c r="C240" t="s">
+        <v>29</v>
+      </c>
+      <c r="D240" t="s">
+        <v>31</v>
+      </c>
+      <c r="E240" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F240">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>49</v>
+      </c>
+      <c r="B241" t="s">
+        <v>44</v>
+      </c>
+      <c r="C241" t="s">
+        <v>29</v>
+      </c>
+      <c r="D241" t="s">
+        <v>30</v>
+      </c>
+      <c r="E241" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F241">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>49</v>
+      </c>
+      <c r="B242" t="s">
+        <v>44</v>
+      </c>
+      <c r="C242" t="s">
+        <v>29</v>
+      </c>
+      <c r="D242" t="s">
+        <v>31</v>
+      </c>
+      <c r="E242" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F242">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>49</v>
+      </c>
+      <c r="B243" t="s">
+        <v>44</v>
+      </c>
+      <c r="C243" t="s">
+        <v>29</v>
+      </c>
+      <c r="D243" t="s">
+        <v>31</v>
+      </c>
+      <c r="E243" s="3">
+        <v>1</v>
+      </c>
+      <c r="F243">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>49</v>
+      </c>
+      <c r="B244" t="s">
+        <v>44</v>
+      </c>
+      <c r="C244" t="s">
+        <v>29</v>
+      </c>
+      <c r="D244" t="s">
+        <v>46</v>
+      </c>
+      <c r="E244" s="3">
+        <v>0</v>
+      </c>
+      <c r="F244">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>49</v>
+      </c>
+      <c r="B245" t="s">
+        <v>44</v>
+      </c>
+      <c r="C245" t="s">
+        <v>29</v>
+      </c>
+      <c r="D245" t="s">
+        <v>48</v>
+      </c>
+      <c r="E245" s="3">
+        <v>0</v>
+      </c>
+      <c r="F245">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>49</v>
+      </c>
+      <c r="B246" t="s">
+        <v>44</v>
+      </c>
+      <c r="C246" t="s">
+        <v>29</v>
+      </c>
+      <c r="D246" t="s">
+        <v>47</v>
+      </c>
+      <c r="E246" s="3">
+        <v>0</v>
+      </c>
+      <c r="F246">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>49</v>
+      </c>
+      <c r="B247" t="s">
+        <v>44</v>
+      </c>
+      <c r="C247" t="s">
+        <v>29</v>
+      </c>
+      <c r="D247" t="s">
+        <v>30</v>
+      </c>
+      <c r="E247" s="3">
+        <v>0</v>
+      </c>
+      <c r="F247">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>49</v>
+      </c>
+      <c r="B248" t="s">
+        <v>44</v>
+      </c>
+      <c r="C248" t="s">
+        <v>29</v>
+      </c>
+      <c r="D248" t="s">
+        <v>31</v>
+      </c>
+      <c r="E248" s="3">
+        <v>1</v>
+      </c>
+      <c r="F248">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>49</v>
+      </c>
+      <c r="B249" t="s">
+        <v>44</v>
+      </c>
+      <c r="C249" t="s">
+        <v>29</v>
+      </c>
+      <c r="D249" t="s">
+        <v>46</v>
+      </c>
+      <c r="E249" s="3">
+        <v>0</v>
+      </c>
+      <c r="F249">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>49</v>
+      </c>
+      <c r="B250" t="s">
+        <v>44</v>
+      </c>
+      <c r="C250" t="s">
+        <v>29</v>
+      </c>
+      <c r="D250" t="s">
+        <v>48</v>
+      </c>
+      <c r="E250" s="3">
+        <v>0</v>
+      </c>
+      <c r="F250">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>49</v>
+      </c>
+      <c r="B251" t="s">
+        <v>44</v>
+      </c>
+      <c r="C251" t="s">
+        <v>29</v>
+      </c>
+      <c r="D251" t="s">
+        <v>47</v>
+      </c>
+      <c r="E251" s="3">
+        <v>0</v>
+      </c>
+      <c r="F251">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>49</v>
+      </c>
+      <c r="B252" t="s">
+        <v>44</v>
+      </c>
+      <c r="C252" t="s">
+        <v>29</v>
+      </c>
+      <c r="D252" t="s">
+        <v>46</v>
+      </c>
+      <c r="E252" s="3">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>49</v>
+      </c>
+      <c r="B253" t="s">
+        <v>44</v>
+      </c>
+      <c r="C253" t="s">
+        <v>29</v>
+      </c>
+      <c r="D253" t="s">
+        <v>48</v>
+      </c>
+      <c r="E253" s="3">
+        <v>0</v>
+      </c>
+      <c r="F253">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>49</v>
+      </c>
+      <c r="B254" t="s">
+        <v>44</v>
+      </c>
+      <c r="C254" t="s">
+        <v>29</v>
+      </c>
+      <c r="D254" t="s">
+        <v>47</v>
+      </c>
+      <c r="E254" s="3">
+        <v>0</v>
+      </c>
+      <c r="F254">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>49</v>
+      </c>
+      <c r="B255" t="s">
+        <v>44</v>
+      </c>
+      <c r="C255" t="s">
+        <v>29</v>
+      </c>
+      <c r="D255" t="s">
+        <v>31</v>
+      </c>
+      <c r="E255" s="3">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>49</v>
+      </c>
+      <c r="B256" t="s">
+        <v>44</v>
+      </c>
+      <c r="C256" t="s">
+        <v>33</v>
+      </c>
+      <c r="D256" t="s">
+        <v>31</v>
+      </c>
+      <c r="E256" s="3">
+        <v>1</v>
+      </c>
+      <c r="F256">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>49</v>
+      </c>
+      <c r="B257" t="s">
+        <v>44</v>
+      </c>
+      <c r="C257" t="s">
+        <v>33</v>
+      </c>
+      <c r="D257" t="s">
+        <v>48</v>
+      </c>
+      <c r="E257" s="3">
+        <v>0</v>
+      </c>
+      <c r="F257">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>49</v>
+      </c>
+      <c r="B258" t="s">
+        <v>44</v>
+      </c>
+      <c r="C258" t="s">
+        <v>33</v>
+      </c>
+      <c r="D258" t="s">
+        <v>31</v>
+      </c>
+      <c r="E258" s="3">
+        <v>1</v>
+      </c>
+      <c r="F258">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>49</v>
+      </c>
+      <c r="B259" t="s">
+        <v>44</v>
+      </c>
+      <c r="C259" t="s">
+        <v>33</v>
+      </c>
+      <c r="D259" t="s">
+        <v>48</v>
+      </c>
+      <c r="E259" s="3">
+        <v>0</v>
+      </c>
+      <c r="F259">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>49</v>
+      </c>
+      <c r="B260" t="s">
+        <v>44</v>
+      </c>
+      <c r="C260" t="s">
+        <v>33</v>
+      </c>
+      <c r="D260" t="s">
+        <v>31</v>
+      </c>
+      <c r="E260" s="3">
+        <v>1</v>
+      </c>
+      <c r="F260">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>49</v>
+      </c>
+      <c r="B261" t="s">
+        <v>44</v>
+      </c>
+      <c r="C261" t="s">
+        <v>33</v>
+      </c>
+      <c r="D261" t="s">
+        <v>48</v>
+      </c>
+      <c r="E261" s="3">
+        <v>0</v>
+      </c>
+      <c r="F261">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>49</v>
+      </c>
+      <c r="B262" t="s">
+        <v>44</v>
+      </c>
+      <c r="C262" t="s">
+        <v>33</v>
+      </c>
+      <c r="D262" t="s">
+        <v>31</v>
+      </c>
+      <c r="E262" s="3">
+        <v>1</v>
+      </c>
+      <c r="F262">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>49</v>
+      </c>
+      <c r="B263" t="s">
+        <v>44</v>
+      </c>
+      <c r="C263" t="s">
+        <v>33</v>
+      </c>
+      <c r="D263" t="s">
+        <v>32</v>
+      </c>
+      <c r="E263" s="3">
+        <v>0</v>
+      </c>
+      <c r="F263">
+        <v>2030</v>
       </c>
     </row>
   </sheetData>
@@ -5764,14 +8017,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0CDAF3-7418-4740-A83B-5135672277C4}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5788,7 +8038,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -5805,7 +8055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -5822,7 +8072,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -5839,7 +8089,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -5856,7 +8106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -5873,7 +8123,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -5890,7 +8140,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -5907,7 +8157,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -5924,7 +8174,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -5941,7 +8191,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -5958,7 +8208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -5975,7 +8225,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -6001,14 +8251,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6C2B10-BDCD-46C9-B641-8C907286B1AB}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O46" sqref="O46"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6018,7 +8265,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -6026,7 +8273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -6034,7 +8281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -6042,7 +8289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -6050,7 +8297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -6058,7 +8305,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -6066,7 +8313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -6074,7 +8321,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -6082,7 +8329,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -6090,7 +8337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -6098,7 +8345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -6106,7 +8353,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -6114,7 +8361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -6122,7 +8369,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -6130,7 +8377,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -6138,7 +8385,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -6146,7 +8393,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -6154,7 +8401,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -6162,7 +8409,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -6170,7 +8417,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -6178,7 +8425,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>38</v>
       </c>

--- a/input_data/vehicle_sales_share_inputs.xlsx
+++ b/input_data/vehicle_sales_share_inputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\APERC\transport_model_9th_edition\input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\APERC\transport_model_9th_edition\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35716227-C821-44B6-A1B0-CB184C999CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE00673-F545-429A-92EA-2868540C32C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="23040" windowHeight="12204" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="regions_passenger" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3863" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3935" uniqueCount="57">
   <si>
     <t>Region</t>
   </si>
@@ -382,7 +382,67 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="182">
+  <dxfs count="190">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -10460,30 +10520,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="181" priority="31" operator="containsText" text="ldv">
+    <cfRule type="containsText" dxfId="189" priority="31" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="32" operator="containsText" text="bus">
+    <cfRule type="containsText" dxfId="188" priority="32" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="33" operator="containsText" text="2w">
+    <cfRule type="containsText" dxfId="187" priority="33" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576 I334">
-    <cfRule type="containsText" dxfId="178" priority="26" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="186" priority="26" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="27" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="185" priority="27" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="28" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="184" priority="28" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="29" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="183" priority="29" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="30" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="182" priority="30" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10498,7 +10558,7 @@
   <dimension ref="A1:F206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14648,58 +14708,58 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B142 B148:B177">
-    <cfRule type="containsText" dxfId="173" priority="97" operator="containsText" text="ldv">
+    <cfRule type="containsText" dxfId="181" priority="97" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="98" operator="containsText" text="bus">
+    <cfRule type="containsText" dxfId="180" priority="98" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="99" operator="containsText" text="2w">
+    <cfRule type="containsText" dxfId="179" priority="99" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C142 C148:C177">
-    <cfRule type="containsText" dxfId="170" priority="92" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="178" priority="92" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="93" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="177" priority="93" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="94" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="176" priority="94" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="95" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="175" priority="95" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="96" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="174" priority="96" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I142:I205">
-    <cfRule type="containsText" dxfId="165" priority="73" operator="containsText" text="ldv">
+    <cfRule type="containsText" dxfId="173" priority="73" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",I142)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="74" operator="containsText" text="bus">
+    <cfRule type="containsText" dxfId="172" priority="74" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",I142)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="75" operator="containsText" text="2w">
+    <cfRule type="containsText" dxfId="171" priority="75" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",I142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J142:J205">
-    <cfRule type="containsText" dxfId="162" priority="1" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="170" priority="1" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",J142)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="2" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="169" priority="2" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",J142)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="3" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="168" priority="3" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",J142)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="4" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="167" priority="4" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",J142)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="5" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="166" priority="5" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",J142)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14710,10 +14770,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09EB2682-BE80-4949-AB75-59FF57965C53}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F205"/>
+  <dimension ref="A1:F229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I104" sqref="I104"/>
+      <selection activeCell="A206" sqref="A206:F229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18816,6 +18876,486 @@
       </c>
       <c r="F205">
         <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>25</v>
+      </c>
+      <c r="B206" t="s">
+        <v>33</v>
+      </c>
+      <c r="C206" t="s">
+        <v>34</v>
+      </c>
+      <c r="D206">
+        <v>2100</v>
+      </c>
+      <c r="E206">
+        <v>1</v>
+      </c>
+      <c r="F206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>25</v>
+      </c>
+      <c r="B207" t="s">
+        <v>33</v>
+      </c>
+      <c r="C207" t="s">
+        <v>34</v>
+      </c>
+      <c r="D207">
+        <v>2070</v>
+      </c>
+      <c r="E207">
+        <v>1</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>25</v>
+      </c>
+      <c r="B208" t="s">
+        <v>33</v>
+      </c>
+      <c r="C208" t="s">
+        <v>34</v>
+      </c>
+      <c r="D208">
+        <v>2050</v>
+      </c>
+      <c r="E208">
+        <v>1</v>
+      </c>
+      <c r="F208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>25</v>
+      </c>
+      <c r="B209" t="s">
+        <v>33</v>
+      </c>
+      <c r="C209" t="s">
+        <v>34</v>
+      </c>
+      <c r="D209">
+        <v>2040</v>
+      </c>
+      <c r="E209">
+        <v>1</v>
+      </c>
+      <c r="F209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B210" t="s">
+        <v>33</v>
+      </c>
+      <c r="C210" t="s">
+        <v>34</v>
+      </c>
+      <c r="D210">
+        <v>2035</v>
+      </c>
+      <c r="E210">
+        <v>1</v>
+      </c>
+      <c r="F210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>39</v>
+      </c>
+      <c r="B211" t="s">
+        <v>33</v>
+      </c>
+      <c r="C211" t="s">
+        <v>34</v>
+      </c>
+      <c r="D211">
+        <v>2035</v>
+      </c>
+      <c r="E211">
+        <v>1</v>
+      </c>
+      <c r="F211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>7</v>
+      </c>
+      <c r="B212" t="s">
+        <v>33</v>
+      </c>
+      <c r="C212" t="s">
+        <v>34</v>
+      </c>
+      <c r="D212">
+        <v>2035</v>
+      </c>
+      <c r="E212">
+        <v>1</v>
+      </c>
+      <c r="F212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>15</v>
+      </c>
+      <c r="B213" t="s">
+        <v>33</v>
+      </c>
+      <c r="C213" t="s">
+        <v>34</v>
+      </c>
+      <c r="D213">
+        <v>2035</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+      <c r="F213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>25</v>
+      </c>
+      <c r="B214" t="s">
+        <v>33</v>
+      </c>
+      <c r="C214" t="s">
+        <v>34</v>
+      </c>
+      <c r="D214">
+        <v>2035</v>
+      </c>
+      <c r="E214">
+        <v>1</v>
+      </c>
+      <c r="F214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>2</v>
+      </c>
+      <c r="B215" t="s">
+        <v>33</v>
+      </c>
+      <c r="C215" t="s">
+        <v>34</v>
+      </c>
+      <c r="D215">
+        <v>2030</v>
+      </c>
+      <c r="E215">
+        <v>1</v>
+      </c>
+      <c r="F215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B216" t="s">
+        <v>33</v>
+      </c>
+      <c r="C216" t="s">
+        <v>34</v>
+      </c>
+      <c r="D216">
+        <v>2030</v>
+      </c>
+      <c r="E216">
+        <v>1</v>
+      </c>
+      <c r="F216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>39</v>
+      </c>
+      <c r="B217" t="s">
+        <v>33</v>
+      </c>
+      <c r="C217" t="s">
+        <v>34</v>
+      </c>
+      <c r="D217">
+        <v>2030</v>
+      </c>
+      <c r="E217">
+        <v>0.7</v>
+      </c>
+      <c r="F217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>7</v>
+      </c>
+      <c r="B218" t="s">
+        <v>33</v>
+      </c>
+      <c r="C218" t="s">
+        <v>34</v>
+      </c>
+      <c r="D218">
+        <v>2030</v>
+      </c>
+      <c r="E218">
+        <v>0.5</v>
+      </c>
+      <c r="F218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>15</v>
+      </c>
+      <c r="B219" t="s">
+        <v>33</v>
+      </c>
+      <c r="C219" t="s">
+        <v>34</v>
+      </c>
+      <c r="D219">
+        <v>2030</v>
+      </c>
+      <c r="E219">
+        <v>0.7</v>
+      </c>
+      <c r="F219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>25</v>
+      </c>
+      <c r="B220" t="s">
+        <v>33</v>
+      </c>
+      <c r="C220" t="s">
+        <v>34</v>
+      </c>
+      <c r="D220">
+        <v>2030</v>
+      </c>
+      <c r="E220">
+        <v>0.5</v>
+      </c>
+      <c r="F220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>2</v>
+      </c>
+      <c r="B221" t="s">
+        <v>33</v>
+      </c>
+      <c r="C221" t="s">
+        <v>34</v>
+      </c>
+      <c r="D221">
+        <v>2025</v>
+      </c>
+      <c r="E221">
+        <v>0.7</v>
+      </c>
+      <c r="F221">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>5</v>
+      </c>
+      <c r="B222" t="s">
+        <v>33</v>
+      </c>
+      <c r="C222" t="s">
+        <v>34</v>
+      </c>
+      <c r="D222">
+        <v>2025</v>
+      </c>
+      <c r="E222">
+        <v>0.7</v>
+      </c>
+      <c r="F222">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>39</v>
+      </c>
+      <c r="B223" t="s">
+        <v>33</v>
+      </c>
+      <c r="C223" t="s">
+        <v>34</v>
+      </c>
+      <c r="D223">
+        <v>2025</v>
+      </c>
+      <c r="E223">
+        <v>0.7</v>
+      </c>
+      <c r="F223">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>7</v>
+      </c>
+      <c r="B224" t="s">
+        <v>33</v>
+      </c>
+      <c r="C224" t="s">
+        <v>34</v>
+      </c>
+      <c r="D224">
+        <v>2025</v>
+      </c>
+      <c r="E224">
+        <v>0.3</v>
+      </c>
+      <c r="F224">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>15</v>
+      </c>
+      <c r="B225" t="s">
+        <v>33</v>
+      </c>
+      <c r="C225" t="s">
+        <v>34</v>
+      </c>
+      <c r="D225">
+        <v>2025</v>
+      </c>
+      <c r="E225">
+        <v>0.5</v>
+      </c>
+      <c r="F225">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>25</v>
+      </c>
+      <c r="B226" t="s">
+        <v>33</v>
+      </c>
+      <c r="C226" t="s">
+        <v>34</v>
+      </c>
+      <c r="D226">
+        <v>2025</v>
+      </c>
+      <c r="E226">
+        <v>0.3</v>
+      </c>
+      <c r="F226">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>25</v>
+      </c>
+      <c r="B227" t="s">
+        <v>33</v>
+      </c>
+      <c r="C227" t="s">
+        <v>34</v>
+      </c>
+      <c r="D227">
+        <v>2022</v>
+      </c>
+      <c r="E227">
+        <v>0.1</v>
+      </c>
+      <c r="F227">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>39</v>
+      </c>
+      <c r="B228" t="s">
+        <v>33</v>
+      </c>
+      <c r="C228" t="s">
+        <v>34</v>
+      </c>
+      <c r="D228">
+        <v>2021</v>
+      </c>
+      <c r="E228">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F228">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>7</v>
+      </c>
+      <c r="B229" t="s">
+        <v>33</v>
+      </c>
+      <c r="C229" t="s">
+        <v>34</v>
+      </c>
+      <c r="D229">
+        <v>2021</v>
+      </c>
+      <c r="E229">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F229">
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
   </sheetData>
@@ -18839,16 +19379,16 @@
     <sortCondition ref="A2:A187"/>
   </sortState>
   <conditionalFormatting sqref="B1">
-    <cfRule type="containsText" dxfId="157" priority="125" operator="containsText" text="ldv">
+    <cfRule type="containsText" dxfId="165" priority="133" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="126" operator="containsText" text="bus">
+    <cfRule type="containsText" dxfId="164" priority="134" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="127" operator="containsText" text="2w">
+    <cfRule type="containsText" dxfId="163" priority="135" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",B1)))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="128">
+    <cfRule type="colorScale" priority="136">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18860,364 +19400,392 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B149">
-    <cfRule type="containsText" dxfId="154" priority="145" operator="containsText" text="bus">
+    <cfRule type="containsText" dxfId="162" priority="153" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="144" operator="containsText" text="ldv">
+    <cfRule type="containsText" dxfId="161" priority="152" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="143" operator="containsText" text="ht">
+    <cfRule type="containsText" dxfId="160" priority="151" operator="containsText" text="ht">
       <formula>NOT(ISERROR(SEARCH("ht",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="146" operator="containsText" text="2w">
+    <cfRule type="containsText" dxfId="159" priority="154" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143:B149">
-    <cfRule type="containsText" dxfId="150" priority="136" operator="containsText" text="bus">
+    <cfRule type="containsText" dxfId="158" priority="144" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",B143)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="134" operator="containsText" text="ht">
+    <cfRule type="containsText" dxfId="157" priority="142" operator="containsText" text="ht">
       <formula>NOT(ISERROR(SEARCH("ht",B143)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="135" operator="containsText" text="ldv">
+    <cfRule type="containsText" dxfId="156" priority="143" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",B143)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="137" operator="containsText" text="2w">
+    <cfRule type="containsText" dxfId="155" priority="145" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",B143)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155:B157">
-    <cfRule type="containsText" dxfId="146" priority="42" operator="containsText" text="bus">
+    <cfRule type="containsText" dxfId="154" priority="50" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",B155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="41" operator="containsText" text="ldv">
+    <cfRule type="containsText" dxfId="153" priority="49" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",B155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="43" operator="containsText" text="2w">
+    <cfRule type="containsText" dxfId="152" priority="51" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",B155)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="containsText" dxfId="143" priority="122" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="151" priority="130" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="121" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="150" priority="129" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="124" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="149" priority="132" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="123" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="148" priority="131" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="120" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="147" priority="128" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C149">
-    <cfRule type="containsText" dxfId="138" priority="138" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="146" priority="146" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="142" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="145" priority="150" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="141" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="144" priority="149" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="139" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="143" priority="147" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="140" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="142" priority="148" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C143:C149">
-    <cfRule type="containsText" dxfId="133" priority="133" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="141" priority="141" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",C143)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="131" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="140" priority="139" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",C143)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="130" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="139" priority="138" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",C143)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="129" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="138" priority="137" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",C143)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="132" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="137" priority="140" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",C143)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C155:C157">
-    <cfRule type="containsText" dxfId="128" priority="40" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="136" priority="48" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",C155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="39" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="135" priority="47" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",C155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="36" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="134" priority="44" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",C155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="38" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="133" priority="46" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",C155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="37" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="132" priority="45" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",C155)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C163:C173">
-    <cfRule type="containsText" dxfId="123" priority="30" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="131" priority="38" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",C163)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="28" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="130" priority="36" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",C163)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="27" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="129" priority="35" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",C163)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="26" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="128" priority="34" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",C163)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="29" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="127" priority="37" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",C163)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C166:C173">
-    <cfRule type="containsText" dxfId="118" priority="21" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="126" priority="29" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",C166)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="25" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="125" priority="33" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",C166)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="24" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="124" priority="32" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",C166)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="23" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="123" priority="31" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",C166)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="22" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="122" priority="30" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",C166)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C179:C189">
-    <cfRule type="containsText" dxfId="113" priority="11" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="121" priority="19" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",C179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="12" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="120" priority="20" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",C179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="13" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="119" priority="21" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",C179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="14" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="118" priority="22" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",C179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="15" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="117" priority="23" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",C179)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C182:C189">
-    <cfRule type="containsText" dxfId="108" priority="6" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="116" priority="14" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",C182)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="7" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="115" priority="15" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",C182)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="9" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="114" priority="17" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",C182)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="10" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="113" priority="18" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",C182)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="8" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="112" priority="16" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",C182)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C195:C197">
-    <cfRule type="containsText" dxfId="103" priority="2" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="111" priority="10" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",C195)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="3" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="110" priority="11" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",C195)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="4" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="109" priority="12" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",C195)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="5" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="108" priority="13" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",C195)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="1" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="107" priority="9" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",C195)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I75">
-    <cfRule type="containsText" dxfId="98" priority="172" operator="containsText" text="2w">
+    <cfRule type="containsText" dxfId="106" priority="180" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="170" operator="containsText" text="ldv">
+    <cfRule type="containsText" dxfId="105" priority="178" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="171" operator="containsText" text="bus">
+    <cfRule type="containsText" dxfId="104" priority="179" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I155:I157">
-    <cfRule type="containsText" dxfId="95" priority="117" operator="containsText" text="ldv">
+    <cfRule type="containsText" dxfId="103" priority="125" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",I155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="118" operator="containsText" text="bus">
+    <cfRule type="containsText" dxfId="102" priority="126" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",I155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="119" operator="containsText" text="2w">
+    <cfRule type="containsText" dxfId="101" priority="127" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",I155)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J75">
-    <cfRule type="containsText" dxfId="92" priority="167" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="100" priority="175" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="165" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="99" priority="173" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="166" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="98" priority="174" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="168" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="97" priority="176" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="169" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="96" priority="177" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J155:J157">
-    <cfRule type="containsText" dxfId="87" priority="112" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="95" priority="120" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",J155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="113" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="94" priority="121" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",J155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="114" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="93" priority="122" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",J155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="115" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="92" priority="123" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",J155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="116" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="91" priority="124" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",J155)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J163:J173">
-    <cfRule type="containsText" dxfId="82" priority="94" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="90" priority="102" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",J163)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="98" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="89" priority="106" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",J163)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="97" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="88" priority="105" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",J163)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="96" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="87" priority="104" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",J163)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="95" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="86" priority="103" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",J163)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J166:J173">
-    <cfRule type="containsText" dxfId="77" priority="93" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="85" priority="101" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",J166)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="92" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="84" priority="100" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",J166)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="91" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="83" priority="99" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",J166)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="90" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="82" priority="98" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",J166)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="89" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="81" priority="97" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",J166)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J179:J189">
-    <cfRule type="containsText" dxfId="72" priority="63" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="80" priority="71" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",J179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="62" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="79" priority="70" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",J179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="61" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="78" priority="69" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",J179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="60" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="77" priority="68" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",J179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="59" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="76" priority="67" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",J179)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J182:J189">
-    <cfRule type="containsText" dxfId="67" priority="54" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="75" priority="62" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",J182)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="57" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="74" priority="65" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",J182)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="58" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="73" priority="66" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",J182)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="56" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="72" priority="64" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",J182)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="55" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="71" priority="63" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",J182)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J195:J197">
-    <cfRule type="containsText" dxfId="62" priority="52" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="70" priority="60" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",J195)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="53" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="69" priority="61" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",J195)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="49" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="68" priority="57" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",J195)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="50" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="67" priority="58" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",J195)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="51" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="66" priority="59" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",J195)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P66">
-    <cfRule type="containsText" dxfId="57" priority="163" operator="containsText" text="bus">
+    <cfRule type="containsText" dxfId="65" priority="171" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",P2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="164" operator="containsText" text="2w">
+    <cfRule type="containsText" dxfId="64" priority="172" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",P2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="162" operator="containsText" text="ldv">
+    <cfRule type="containsText" dxfId="63" priority="170" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",P2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q66">
-    <cfRule type="containsText" dxfId="54" priority="160" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="62" priority="168" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",Q2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="161" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="61" priority="169" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",Q2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="157" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="60" priority="165" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",Q2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="158" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="59" priority="166" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",Q2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="159" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="58" priority="167" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",Q2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B219:B226 B206:B217">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="ldv">
+      <formula>NOT(ISERROR(SEARCH("ldv",B206)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="bus">
+      <formula>NOT(ISERROR(SEARCH("bus",B206)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="2w">
+      <formula>NOT(ISERROR(SEARCH("2w",B206)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C219:C226 C206:C217">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",C206)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="phev">
+      <formula>NOT(ISERROR(SEARCH("phev",C206)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Drivephev">
+      <formula>NOT(ISERROR(SEARCH("Drivephev",C206)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="ice">
+      <formula>NOT(ISERROR(SEARCH("ice",C206)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="bev">
+      <formula>NOT(ISERROR(SEARCH("bev",C206)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19229,8 +19797,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F386"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="A1:F386"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26984,174 +27552,174 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B234">
-    <cfRule type="containsText" dxfId="49" priority="7" operator="containsText" text="ldv">
+    <cfRule type="containsText" dxfId="57" priority="7" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="6" operator="containsText" text="ht">
+    <cfRule type="containsText" dxfId="56" priority="6" operator="containsText" text="ht">
       <formula>NOT(ISERROR(SEARCH("ht",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="8" operator="containsText" text="bus">
+    <cfRule type="containsText" dxfId="55" priority="8" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="9" operator="containsText" text="2w">
+    <cfRule type="containsText" dxfId="54" priority="9" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B235:B1048576">
-    <cfRule type="containsText" dxfId="45" priority="51" operator="containsText" text="ldv">
+    <cfRule type="containsText" dxfId="53" priority="51" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",B235)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="50" operator="containsText" text="ht">
+    <cfRule type="containsText" dxfId="52" priority="50" operator="containsText" text="ht">
       <formula>NOT(ISERROR(SEARCH("ht",B235)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="53" operator="containsText" text="2w">
+    <cfRule type="containsText" dxfId="51" priority="53" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",B235)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="52" operator="containsText" text="bus">
+    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",B235)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B312:B386">
-    <cfRule type="containsText" dxfId="41" priority="26" operator="containsText" text="bus">
+    <cfRule type="containsText" dxfId="49" priority="26" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",B312)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="27" operator="containsText" text="2w">
+    <cfRule type="containsText" dxfId="48" priority="27" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",B312)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="24" operator="containsText" text="ht">
+    <cfRule type="containsText" dxfId="47" priority="24" operator="containsText" text="ht">
       <formula>NOT(ISERROR(SEARCH("ht",B312)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="25" operator="containsText" text="ldv">
+    <cfRule type="containsText" dxfId="46" priority="25" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",B312)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C234">
-    <cfRule type="containsText" dxfId="37" priority="2" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="45" priority="2" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="3" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="44" priority="3" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="4" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="43" priority="4" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="42" priority="5" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="1" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C235:C1048576">
-    <cfRule type="containsText" dxfId="32" priority="47" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="40" priority="47" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",C235)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="49" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="39" priority="49" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",C235)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="48" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="38" priority="48" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",C235)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="45" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="37" priority="45" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",C235)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="46" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="36" priority="46" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",C235)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C312:C386">
-    <cfRule type="containsText" dxfId="27" priority="22" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="35" priority="22" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",C312)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="23" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="34" priority="23" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",C312)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="20" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="33" priority="20" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",C312)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="32" priority="21" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",C312)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="31" priority="19" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",C312)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:I42">
-    <cfRule type="containsText" dxfId="22" priority="37" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="30" priority="37" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",I40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="38" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="29" priority="38" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",I40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="40" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="28" priority="40" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",I40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="41" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="27" priority="41" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",I40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="39" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="26" priority="39" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",I40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77:I114 I122:I152">
-    <cfRule type="containsText" dxfId="17" priority="33" operator="containsText" text="ht">
+    <cfRule type="containsText" dxfId="25" priority="33" operator="containsText" text="ht">
       <formula>NOT(ISERROR(SEARCH("ht",I77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="34" operator="containsText" text="ldv">
+    <cfRule type="containsText" dxfId="24" priority="34" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",I77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="35" operator="containsText" text="bus">
+    <cfRule type="containsText" dxfId="23" priority="35" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",I77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="36" operator="containsText" text="2w">
+    <cfRule type="containsText" dxfId="22" priority="36" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",I77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I229:I234">
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="ht">
+    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="ht">
       <formula>NOT(ISERROR(SEARCH("ht",I229)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="ldv">
+    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",I229)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="18" operator="containsText" text="2w">
+    <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",I229)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="bus">
+    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",I229)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J77:J114 J122:J152">
-    <cfRule type="containsText" dxfId="9" priority="31" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="17" priority="31" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",J77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="32" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="16" priority="32" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",J77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="28" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="15" priority="28" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",J77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="29" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",J77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="30" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="13" priority="30" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",J77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J229:J234">
-    <cfRule type="containsText" dxfId="4" priority="10" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",J229)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="11" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",J229)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="12" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",J229)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="13" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",J229)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="14" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="8" priority="14" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",J229)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27165,7 +27733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>

--- a/input_data/vehicle_sales_share_inputs.xlsx
+++ b/input_data/vehicle_sales_share_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\APERC\transport_model_9th_edition\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE00673-F545-429A-92EA-2868540C32C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2091874-AC5D-433A-BE88-A2E2742B3875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="23040" windowHeight="12204" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="regions_passenger" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="vehicle_type_growth_regions" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">freight_drive_shares!$A$1:$F$205</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">freight_drive_shares!$A$1:$F$227</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">freight_drive_shares_old!$A$1:$F$386</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">passenger_drive_shares!$A$1:$F$206</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">passenger_drive_shares_old!$A$1:$F$393</definedName>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3935" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="57">
   <si>
     <t>Region</t>
   </si>
@@ -382,7 +382,537 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="190">
+  <dxfs count="169">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -475,211 +1005,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
     </dxf>
@@ -701,331 +1026,6 @@
     <dxf>
       <font>
         <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
       </font>
     </dxf>
     <dxf>
@@ -1085,73 +1085,8 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="6"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1177,31 +1112,6 @@
       <font>
         <color theme="6"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1245,12 +1155,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
+        <color rgb="FF9C0006"/>
       </font>
     </dxf>
     <dxf>
@@ -1262,46 +1167,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1320,6 +1185,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="7"/>
       </font>
       <fill>
@@ -1327,6 +1197,21 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1345,11 +1230,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="6"/>
       </font>
     </dxf>
@@ -1360,67 +1240,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
       </font>
     </dxf>
     <dxf>
@@ -1430,6 +1250,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1445,11 +1275,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1465,21 +1315,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10520,30 +10370,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="189" priority="31" operator="containsText" text="ldv">
+    <cfRule type="containsText" dxfId="168" priority="31" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="188" priority="32" operator="containsText" text="bus">
+    <cfRule type="containsText" dxfId="167" priority="32" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="33" operator="containsText" text="2w">
+    <cfRule type="containsText" dxfId="166" priority="33" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576 I334">
-    <cfRule type="containsText" dxfId="186" priority="26" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="165" priority="26" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="185" priority="27" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="164" priority="27" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="28" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="163" priority="28" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="29" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="162" priority="29" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="30" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="161" priority="30" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14708,58 +14558,58 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B142 B148:B177">
-    <cfRule type="containsText" dxfId="181" priority="97" operator="containsText" text="ldv">
+    <cfRule type="containsText" dxfId="160" priority="97" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="98" operator="containsText" text="bus">
+    <cfRule type="containsText" dxfId="159" priority="98" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="99" operator="containsText" text="2w">
+    <cfRule type="containsText" dxfId="158" priority="99" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C142 C148:C177">
-    <cfRule type="containsText" dxfId="178" priority="92" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="157" priority="92" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="93" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="156" priority="93" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="94" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="155" priority="94" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="95" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="154" priority="95" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="96" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="153" priority="96" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I142:I205">
-    <cfRule type="containsText" dxfId="173" priority="73" operator="containsText" text="ldv">
+    <cfRule type="containsText" dxfId="152" priority="73" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",I142)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="74" operator="containsText" text="bus">
+    <cfRule type="containsText" dxfId="151" priority="74" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",I142)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="75" operator="containsText" text="2w">
+    <cfRule type="containsText" dxfId="150" priority="75" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",I142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J142:J205">
-    <cfRule type="containsText" dxfId="170" priority="1" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="149" priority="1" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",J142)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="2" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="148" priority="2" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",J142)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="3" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="147" priority="3" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",J142)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="4" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="146" priority="4" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",J142)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="5" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="145" priority="5" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",J142)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14769,11 +14619,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09EB2682-BE80-4949-AB75-59FF57965C53}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F229"/>
+  <dimension ref="A1:F227"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A206" sqref="A206:F229"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14798,7 +14647,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -14818,7 +14667,7 @@
         <v>0.72000000000000008</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -14838,7 +14687,7 @@
         <v>0.72000000000000008</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -14858,7 +14707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -14878,7 +14727,7 @@
         <v>0.22399999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -14918,7 +14767,7 @@
         <v>0.48000000000000009</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -14938,7 +14787,7 @@
         <v>0.51200000000000012</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -14958,7 +14807,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -14978,7 +14827,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -15018,7 +14867,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -15038,7 +14887,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -15078,7 +14927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -15098,7 +14947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -15118,7 +14967,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -15138,7 +14987,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -15178,7 +15027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -15198,7 +15047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -15218,7 +15067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -15238,7 +15087,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -15258,7 +15107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -15278,7 +15127,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -15318,7 +15167,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -15338,7 +15187,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -15358,7 +15207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -15378,7 +15227,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -15418,7 +15267,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -15438,7 +15287,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -15478,7 +15327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -15498,9 +15347,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B37" t="s">
         <v>33</v>
@@ -15509,18 +15358,18 @@
         <v>34</v>
       </c>
       <c r="D37">
-        <v>2030</v>
+        <v>2035</v>
       </c>
       <c r="E37">
-        <v>0.51200000000000012</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>0.57600000000000007</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B38" t="s">
         <v>33</v>
@@ -15529,18 +15378,18 @@
         <v>34</v>
       </c>
       <c r="D38">
-        <v>2070</v>
+        <v>2030</v>
       </c>
       <c r="E38">
-        <v>0.51200000000000012</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>0.57600000000000007</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B39" t="s">
         <v>33</v>
@@ -15549,53 +15398,53 @@
         <v>34</v>
       </c>
       <c r="D39">
-        <v>2100</v>
+        <v>2025</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C40" t="s">
         <v>34</v>
       </c>
       <c r="D40">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E40">
-        <v>0.15360000000000001</v>
+        <v>0.51200000000000012</v>
       </c>
       <c r="F40">
-        <v>0.1792</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.57600000000000007</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C41" t="s">
         <v>34</v>
       </c>
       <c r="D41">
-        <v>2040</v>
+        <v>2070</v>
       </c>
       <c r="E41">
-        <v>0.30720000000000003</v>
+        <v>0.51200000000000012</v>
       </c>
       <c r="F41">
-        <v>0.33280000000000004</v>
+        <v>0.57600000000000007</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -15603,22 +15452,22 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C42" t="s">
         <v>34</v>
       </c>
       <c r="D42">
-        <v>2050</v>
+        <v>2100</v>
       </c>
       <c r="E42">
-        <v>0.3584</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>0.38400000000000012</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -15629,16 +15478,16 @@
         <v>34</v>
       </c>
       <c r="D43">
-        <v>2070</v>
+        <v>2035</v>
       </c>
       <c r="E43">
-        <v>0.40960000000000013</v>
+        <v>0.15360000000000001</v>
       </c>
       <c r="F43">
-        <v>0.40960000000000013</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.1792</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -15649,16 +15498,16 @@
         <v>34</v>
       </c>
       <c r="D44">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E44">
-        <v>0.7</v>
+        <v>0.30720000000000003</v>
       </c>
       <c r="F44">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.33280000000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -15666,19 +15515,19 @@
         <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D45">
-        <v>2035</v>
+        <v>2050</v>
       </c>
       <c r="E45">
-        <v>4.0000000000000008E-2</v>
+        <v>0.3584</v>
       </c>
       <c r="F45">
-        <v>4.0000000000000008E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.38400000000000012</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -15686,16 +15535,16 @@
         <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D46">
-        <v>2040</v>
+        <v>2070</v>
       </c>
       <c r="E46">
-        <v>0.2</v>
+        <v>0.40960000000000013</v>
       </c>
       <c r="F46">
-        <v>0.2</v>
+        <v>0.40960000000000013</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -15706,19 +15555,19 @@
         <v>40</v>
       </c>
       <c r="C47" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D47">
-        <v>2050</v>
+        <v>2100</v>
       </c>
       <c r="E47">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="F47">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>39</v>
       </c>
@@ -15729,16 +15578,16 @@
         <v>41</v>
       </c>
       <c r="D48">
-        <v>2070</v>
+        <v>2035</v>
       </c>
       <c r="E48">
-        <v>0.4</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="F48">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>4.0000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>39</v>
       </c>
@@ -15749,13 +15598,13 @@
         <v>41</v>
       </c>
       <c r="D49">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E49">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F49">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -15766,19 +15615,19 @@
         <v>40</v>
       </c>
       <c r="C50" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D50">
         <v>2050</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>39</v>
       </c>
@@ -15786,76 +15635,76 @@
         <v>40</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D51">
-        <v>2100</v>
+        <v>2070</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>39</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D52">
-        <v>2027</v>
+        <v>2100</v>
       </c>
       <c r="E52">
-        <v>0.16000000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="F52">
-        <v>0.32000000000000006</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>39</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D53">
-        <v>2035</v>
+        <v>2050</v>
       </c>
       <c r="E53">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>0.55999999999999994</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>39</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D54">
-        <v>2040</v>
+        <v>2100</v>
       </c>
       <c r="E54">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0.72000000000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -15869,16 +15718,16 @@
         <v>34</v>
       </c>
       <c r="D55">
-        <v>2050</v>
+        <v>2027</v>
       </c>
       <c r="E55">
-        <v>0.64000000000000012</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="F55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.32000000000000006</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>39</v>
       </c>
@@ -15889,16 +15738,16 @@
         <v>34</v>
       </c>
       <c r="D56">
-        <v>2070</v>
+        <v>2035</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="F56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.55999999999999994</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>39</v>
       </c>
@@ -15909,16 +15758,16 @@
         <v>34</v>
       </c>
       <c r="D57">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0.48</v>
       </c>
       <c r="F57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.72000000000000008</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>39</v>
       </c>
@@ -15926,19 +15775,19 @@
         <v>50</v>
       </c>
       <c r="C58" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D58">
-        <v>2027</v>
+        <v>2050</v>
       </c>
       <c r="E58">
-        <v>8.0000000000000016E-2</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="F58">
-        <v>8.0000000000000016E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>39</v>
       </c>
@@ -15946,56 +15795,56 @@
         <v>50</v>
       </c>
       <c r="C59" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D59">
         <v>2070</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>39</v>
       </c>
       <c r="B60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C60" t="s">
         <v>34</v>
       </c>
       <c r="D60">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E60">
-        <v>0.26400000000000001</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>0.30800000000000005</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>39</v>
       </c>
       <c r="B61" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D61">
-        <v>2040</v>
+        <v>2027</v>
       </c>
       <c r="E61">
-        <v>0.52800000000000002</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="F61">
-        <v>0.57200000000000006</v>
+        <v>8.0000000000000016E-2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -16003,22 +15852,22 @@
         <v>39</v>
       </c>
       <c r="B62" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C62" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D62">
-        <v>2050</v>
+        <v>2070</v>
       </c>
       <c r="E62">
-        <v>0.6160000000000001</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>0.66000000000000014</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>39</v>
       </c>
@@ -16029,16 +15878,16 @@
         <v>34</v>
       </c>
       <c r="D63">
-        <v>2070</v>
+        <v>2035</v>
       </c>
       <c r="E63">
-        <v>0.70400000000000018</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="F63">
-        <v>0.70400000000000018</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.30800000000000005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>39</v>
       </c>
@@ -16049,16 +15898,16 @@
         <v>34</v>
       </c>
       <c r="D64">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="F64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.57200000000000006</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>39</v>
       </c>
@@ -16066,19 +15915,19 @@
         <v>48</v>
       </c>
       <c r="C65" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D65">
-        <v>2035</v>
+        <v>2050</v>
       </c>
       <c r="E65">
-        <v>4.0000000000000008E-2</v>
+        <v>0.6160000000000001</v>
       </c>
       <c r="F65">
-        <v>4.0000000000000008E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.66000000000000014</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>39</v>
       </c>
@@ -16086,16 +15935,16 @@
         <v>48</v>
       </c>
       <c r="C66" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D66">
-        <v>2040</v>
+        <v>2070</v>
       </c>
       <c r="E66">
-        <v>8.0000000000000016E-2</v>
+        <v>0.70400000000000018</v>
       </c>
       <c r="F66">
-        <v>8.0000000000000016E-2</v>
+        <v>0.70400000000000018</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -16106,19 +15955,19 @@
         <v>48</v>
       </c>
       <c r="C67" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D67">
-        <v>2050</v>
+        <v>2100</v>
       </c>
       <c r="E67">
-        <v>0.16000000000000003</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>0.16000000000000003</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>39</v>
       </c>
@@ -16129,16 +15978,16 @@
         <v>41</v>
       </c>
       <c r="D68">
-        <v>2070</v>
+        <v>2035</v>
       </c>
       <c r="E68">
-        <v>0.16000000000000003</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="F68">
-        <v>0.16000000000000003</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>4.0000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>39</v>
       </c>
@@ -16149,13 +15998,13 @@
         <v>41</v>
       </c>
       <c r="D69">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>8.0000000000000016E-2</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -16166,19 +16015,19 @@
         <v>48</v>
       </c>
       <c r="C70" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D70">
         <v>2050</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="F70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>39</v>
       </c>
@@ -16186,81 +16035,81 @@
         <v>48</v>
       </c>
       <c r="C71" t="s">
+        <v>41</v>
+      </c>
+      <c r="D71">
+        <v>2070</v>
+      </c>
+      <c r="E71">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="F71">
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" t="s">
+        <v>48</v>
+      </c>
+      <c r="C72" t="s">
+        <v>41</v>
+      </c>
+      <c r="D72">
+        <v>2100</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73" t="s">
+        <v>48</v>
+      </c>
+      <c r="C73" t="s">
         <v>55</v>
       </c>
-      <c r="D71">
+      <c r="D73">
+        <v>2050</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" t="s">
+        <v>48</v>
+      </c>
+      <c r="C74" t="s">
+        <v>55</v>
+      </c>
+      <c r="D74">
         <v>2100</v>
       </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72" t="s">
-        <v>33</v>
-      </c>
-      <c r="C72" t="s">
-        <v>34</v>
-      </c>
-      <c r="D72">
-        <v>2021</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" t="s">
-        <v>33</v>
-      </c>
-      <c r="C73" t="s">
-        <v>34</v>
-      </c>
-      <c r="D73">
-        <v>2025</v>
-      </c>
-      <c r="E73">
-        <v>0.3</v>
-      </c>
-      <c r="F73">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" t="s">
-        <v>33</v>
-      </c>
-      <c r="C74" t="s">
-        <v>34</v>
-      </c>
-      <c r="D74">
-        <v>2030</v>
-      </c>
       <c r="E74">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B75" t="s">
         <v>33</v>
@@ -16278,84 +16127,84 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B76" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C76" t="s">
         <v>34</v>
       </c>
       <c r="D76">
+        <v>2030</v>
+      </c>
+      <c r="E76">
+        <v>0.7</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>39</v>
+      </c>
+      <c r="B77" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77" t="s">
+        <v>34</v>
+      </c>
+      <c r="D77">
+        <v>2025</v>
+      </c>
+      <c r="E77">
+        <v>0.7</v>
+      </c>
+      <c r="F77">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" t="s">
+        <v>34</v>
+      </c>
+      <c r="D78">
         <v>2021</v>
       </c>
-      <c r="E76">
-        <v>6.4000000000000005E-4</v>
-      </c>
-      <c r="F76">
-        <v>6.4000000000000005E-4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>7</v>
-      </c>
-      <c r="B77" t="s">
-        <v>40</v>
-      </c>
-      <c r="C77" t="s">
-        <v>34</v>
-      </c>
-      <c r="D77">
-        <v>2027</v>
-      </c>
-      <c r="E77">
-        <v>6.4000000000000015E-2</v>
-      </c>
-      <c r="F77">
-        <v>0.12800000000000003</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>7</v>
-      </c>
-      <c r="B78" t="s">
-        <v>40</v>
-      </c>
-      <c r="C78" t="s">
-        <v>34</v>
-      </c>
-      <c r="D78">
-        <v>2035</v>
-      </c>
       <c r="E78">
-        <v>0.192</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F78">
-        <v>0.22399999999999998</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C79" t="s">
         <v>34</v>
       </c>
       <c r="D79">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="E79">
-        <v>0.38400000000000001</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>0.41600000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -16363,53 +16212,53 @@
         <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C80" t="s">
         <v>34</v>
       </c>
       <c r="D80">
-        <v>2050</v>
+        <v>2025</v>
       </c>
       <c r="E80">
-        <v>0.44799999999999995</v>
+        <v>0.3</v>
       </c>
       <c r="F80">
-        <v>0.48000000000000009</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C81" t="s">
         <v>34</v>
       </c>
       <c r="D81">
-        <v>2070</v>
+        <v>2030</v>
       </c>
       <c r="E81">
-        <v>0.51200000000000012</v>
+        <v>0.5</v>
       </c>
       <c r="F81">
-        <v>0.51200000000000012</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C82" t="s">
         <v>34</v>
       </c>
       <c r="D82">
-        <v>2100</v>
+        <v>2035</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -16418,7 +16267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -16426,19 +16275,19 @@
         <v>40</v>
       </c>
       <c r="C83" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D83">
         <v>2021</v>
       </c>
       <c r="E83">
-        <v>1E-3</v>
+        <v>6.4000000000000005E-4</v>
       </c>
       <c r="F83">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>6.4000000000000005E-4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -16446,19 +16295,19 @@
         <v>40</v>
       </c>
       <c r="C84" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D84">
-        <v>2035</v>
+        <v>2027</v>
       </c>
       <c r="E84">
-        <v>4.0000000000000008E-2</v>
+        <v>6.4000000000000015E-2</v>
       </c>
       <c r="F84">
-        <v>4.0000000000000008E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.12800000000000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -16466,16 +16315,16 @@
         <v>40</v>
       </c>
       <c r="C85" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D85">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E85">
-        <v>4.0000000000000008E-2</v>
+        <v>0.192</v>
       </c>
       <c r="F85">
-        <v>4.0000000000000008E-2</v>
+        <v>0.22399999999999998</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -16486,19 +16335,19 @@
         <v>40</v>
       </c>
       <c r="C86" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D86">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="E86">
-        <v>4.0000000000000008E-2</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="F86">
-        <v>4.0000000000000008E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.41600000000000004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -16506,19 +16355,19 @@
         <v>40</v>
       </c>
       <c r="C87" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D87">
-        <v>2070</v>
+        <v>2050</v>
       </c>
       <c r="E87">
-        <v>0.12</v>
+        <v>0.44799999999999995</v>
       </c>
       <c r="F87">
-        <v>8.0000000000000016E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.48000000000000009</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -16526,16 +16375,16 @@
         <v>40</v>
       </c>
       <c r="C88" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D88">
-        <v>2100</v>
+        <v>2070</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>0.51200000000000012</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>0.51200000000000012</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -16546,19 +16395,19 @@
         <v>40</v>
       </c>
       <c r="C89" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D89">
-        <v>2050</v>
+        <v>2100</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -16566,159 +16415,159 @@
         <v>40</v>
       </c>
       <c r="C90" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D90">
-        <v>2100</v>
+        <v>2021</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C91" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D91">
-        <v>2021</v>
+        <v>2035</v>
       </c>
       <c r="E91">
-        <v>1E-3</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="F91">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>4.0000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>7</v>
       </c>
       <c r="B92" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C92" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D92">
-        <v>2027</v>
+        <v>2040</v>
       </c>
       <c r="E92">
-        <v>0.01</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="F92">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>4.0000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>7</v>
       </c>
       <c r="B93" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C93" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D93">
-        <v>2035</v>
+        <v>2050</v>
       </c>
       <c r="E93">
-        <v>0.3</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="F93">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>4.0000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>7</v>
       </c>
       <c r="B94" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C94" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D94">
-        <v>2040</v>
+        <v>2070</v>
       </c>
       <c r="E94">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="F94">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>8.0000000000000016E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>7</v>
       </c>
       <c r="B95" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C95" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D95">
-        <v>2070</v>
+        <v>2100</v>
       </c>
       <c r="E95">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>7</v>
       </c>
       <c r="B96" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C96" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D96">
-        <v>2100</v>
+        <v>2050</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>7</v>
       </c>
       <c r="B97" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C97" t="s">
         <v>55</v>
       </c>
       <c r="D97">
-        <v>2021</v>
+        <v>2100</v>
       </c>
       <c r="E97">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -16726,19 +16575,19 @@
         <v>50</v>
       </c>
       <c r="C98" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D98">
-        <v>2027</v>
+        <v>2021</v>
       </c>
       <c r="E98">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="F98">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -16746,96 +16595,96 @@
         <v>50</v>
       </c>
       <c r="C99" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D99">
-        <v>2070</v>
+        <v>2027</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>7</v>
       </c>
       <c r="B100" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C100" t="s">
         <v>34</v>
       </c>
       <c r="D100">
-        <v>2021</v>
+        <v>2035</v>
       </c>
       <c r="E100">
-        <v>1.1000000000000001E-3</v>
+        <v>0.3</v>
       </c>
       <c r="F100">
-        <v>1.1000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>7</v>
       </c>
       <c r="B101" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C101" t="s">
         <v>34</v>
       </c>
       <c r="D101">
-        <v>2027</v>
+        <v>2040</v>
       </c>
       <c r="E101">
-        <v>0.11000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="F101">
-        <v>0.22000000000000003</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>7</v>
       </c>
       <c r="B102" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C102" t="s">
         <v>34</v>
       </c>
       <c r="D102">
-        <v>2035</v>
+        <v>2070</v>
       </c>
       <c r="E102">
-        <v>0.33</v>
+        <v>0.9</v>
       </c>
       <c r="F102">
-        <v>0.38500000000000001</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>7</v>
       </c>
       <c r="B103" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C103" t="s">
         <v>34</v>
       </c>
       <c r="D103">
-        <v>2040</v>
+        <v>2100</v>
       </c>
       <c r="E103">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>0.71500000000000008</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -16843,62 +16692,62 @@
         <v>7</v>
       </c>
       <c r="B104" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C104" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D104">
-        <v>2050</v>
+        <v>2021</v>
       </c>
       <c r="E104">
-        <v>0.77</v>
+        <v>0.01</v>
       </c>
       <c r="F104">
-        <v>0.82500000000000007</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>7</v>
       </c>
       <c r="B105" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C105" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D105">
-        <v>2070</v>
+        <v>2027</v>
       </c>
       <c r="E105">
-        <v>0.88000000000000012</v>
+        <v>0.1</v>
       </c>
       <c r="F105">
-        <v>0.88000000000000012</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>7</v>
       </c>
       <c r="B106" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C106" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D106">
-        <v>2100</v>
+        <v>2070</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -16906,19 +16755,19 @@
         <v>48</v>
       </c>
       <c r="C107" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D107">
         <v>2021</v>
       </c>
       <c r="E107">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F107">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -16926,19 +16775,19 @@
         <v>48</v>
       </c>
       <c r="C108" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D108">
-        <v>2035</v>
+        <v>2027</v>
       </c>
       <c r="E108">
-        <v>4.0000000000000008E-2</v>
+        <v>0.11000000000000001</v>
       </c>
       <c r="F108">
-        <v>4.0000000000000008E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.22000000000000003</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -16946,16 +16795,16 @@
         <v>48</v>
       </c>
       <c r="C109" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D109">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E109">
-        <v>4.0000000000000008E-2</v>
+        <v>0.33</v>
       </c>
       <c r="F109">
-        <v>4.0000000000000008E-2</v>
+        <v>0.38500000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -16966,19 +16815,19 @@
         <v>48</v>
       </c>
       <c r="C110" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D110">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="E110">
-        <v>4.0000000000000008E-2</v>
+        <v>0.66</v>
       </c>
       <c r="F110">
-        <v>4.0000000000000008E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.71500000000000008</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -16986,19 +16835,19 @@
         <v>48</v>
       </c>
       <c r="C111" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D111">
-        <v>2070</v>
+        <v>2050</v>
       </c>
       <c r="E111">
-        <v>0.12</v>
+        <v>0.77</v>
       </c>
       <c r="F111">
-        <v>8.0000000000000016E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.82500000000000007</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -17006,16 +16855,16 @@
         <v>48</v>
       </c>
       <c r="C112" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D112">
-        <v>2100</v>
+        <v>2070</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>0.88000000000000012</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>0.88000000000000012</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -17026,19 +16875,19 @@
         <v>48</v>
       </c>
       <c r="C113" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D113">
-        <v>2050</v>
+        <v>2100</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -17046,276 +16895,276 @@
         <v>48</v>
       </c>
       <c r="C114" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D114">
+        <v>2021</v>
+      </c>
+      <c r="E114">
+        <v>1E-3</v>
+      </c>
+      <c r="F114">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" t="s">
+        <v>48</v>
+      </c>
+      <c r="C115" t="s">
+        <v>41</v>
+      </c>
+      <c r="D115">
+        <v>2035</v>
+      </c>
+      <c r="E115">
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="F115">
+        <v>4.0000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116" t="s">
+        <v>48</v>
+      </c>
+      <c r="C116" t="s">
+        <v>41</v>
+      </c>
+      <c r="D116">
+        <v>2040</v>
+      </c>
+      <c r="E116">
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="F116">
+        <v>4.0000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" t="s">
+        <v>48</v>
+      </c>
+      <c r="C117" t="s">
+        <v>41</v>
+      </c>
+      <c r="D117">
+        <v>2050</v>
+      </c>
+      <c r="E117">
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="F117">
+        <v>4.0000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" t="s">
+        <v>48</v>
+      </c>
+      <c r="C118" t="s">
+        <v>41</v>
+      </c>
+      <c r="D118">
+        <v>2070</v>
+      </c>
+      <c r="E118">
+        <v>0.12</v>
+      </c>
+      <c r="F118">
+        <v>8.0000000000000016E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119" t="s">
+        <v>48</v>
+      </c>
+      <c r="C119" t="s">
+        <v>41</v>
+      </c>
+      <c r="D119">
         <v>2100</v>
       </c>
-      <c r="E114">
-        <v>0</v>
-      </c>
-      <c r="F114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>15</v>
-      </c>
-      <c r="B115" t="s">
-        <v>33</v>
-      </c>
-      <c r="C115" t="s">
-        <v>34</v>
-      </c>
-      <c r="D115">
-        <v>2030</v>
-      </c>
-      <c r="E115">
-        <v>0.51200000000000012</v>
-      </c>
-      <c r="F115">
-        <v>0.57600000000000007</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>15</v>
-      </c>
-      <c r="B116" t="s">
-        <v>33</v>
-      </c>
-      <c r="C116" t="s">
-        <v>34</v>
-      </c>
-      <c r="D116">
-        <v>2070</v>
-      </c>
-      <c r="E116">
-        <v>0.51200000000000012</v>
-      </c>
-      <c r="F116">
-        <v>0.57600000000000007</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>15</v>
-      </c>
-      <c r="B117" t="s">
-        <v>33</v>
-      </c>
-      <c r="C117" t="s">
-        <v>34</v>
-      </c>
-      <c r="D117">
-        <v>2100</v>
-      </c>
-      <c r="E117">
-        <v>1</v>
-      </c>
-      <c r="F117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>15</v>
-      </c>
-      <c r="B118" t="s">
-        <v>40</v>
-      </c>
-      <c r="C118" t="s">
-        <v>34</v>
-      </c>
-      <c r="D118">
-        <v>2035</v>
-      </c>
-      <c r="E118">
-        <v>0.15360000000000001</v>
-      </c>
-      <c r="F118">
-        <v>0.1792</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>15</v>
-      </c>
-      <c r="B119" t="s">
-        <v>40</v>
-      </c>
-      <c r="C119" t="s">
-        <v>34</v>
-      </c>
-      <c r="D119">
-        <v>2040</v>
-      </c>
       <c r="E119">
-        <v>0.30720000000000003</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>0.33280000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B120" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C120" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D120">
         <v>2050</v>
       </c>
       <c r="E120">
-        <v>0.3584</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>0.38400000000000012</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B121" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C121" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D121">
-        <v>2070</v>
+        <v>2100</v>
       </c>
       <c r="E121">
-        <v>0.40960000000000013</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>0.40960000000000013</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B122" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C122" t="s">
         <v>34</v>
       </c>
       <c r="D122">
-        <v>2100</v>
+        <v>2035</v>
       </c>
       <c r="E122">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="F122">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B123" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C123" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D123">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E123">
-        <v>4.0000000000000008E-2</v>
+        <v>0.5</v>
       </c>
       <c r="F123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" t="s">
+        <v>33</v>
+      </c>
+      <c r="C124" t="s">
+        <v>34</v>
+      </c>
+      <c r="D124">
+        <v>2025</v>
+      </c>
+      <c r="E124">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>15</v>
-      </c>
-      <c r="B124" t="s">
-        <v>40</v>
-      </c>
-      <c r="C124" t="s">
-        <v>41</v>
-      </c>
-      <c r="D124">
-        <v>2040</v>
-      </c>
-      <c r="E124">
-        <v>0.2</v>
-      </c>
       <c r="F124">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B125" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C125" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D125">
-        <v>2050</v>
+        <v>2021</v>
       </c>
       <c r="E125">
-        <v>0.3</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F125">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>15</v>
       </c>
       <c r="B126" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C126" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D126">
-        <v>2070</v>
+        <v>2030</v>
       </c>
       <c r="E126">
-        <v>0.4</v>
+        <v>0.51200000000000012</v>
       </c>
       <c r="F126">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.57600000000000007</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>15</v>
       </c>
       <c r="B127" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C127" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D127">
-        <v>2100</v>
+        <v>2070</v>
       </c>
       <c r="E127">
-        <v>0.3</v>
+        <v>0.51200000000000012</v>
       </c>
       <c r="F127">
-        <v>0.3</v>
+        <v>0.57600000000000007</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -17323,22 +17172,22 @@
         <v>15</v>
       </c>
       <c r="B128" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C128" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D128">
-        <v>2050</v>
+        <v>2100</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>15</v>
       </c>
@@ -17346,76 +17195,76 @@
         <v>40</v>
       </c>
       <c r="C129" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D129">
-        <v>2100</v>
+        <v>2035</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>0.15360000000000001</v>
       </c>
       <c r="F129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.1792</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>15</v>
       </c>
       <c r="B130" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C130" t="s">
         <v>34</v>
       </c>
       <c r="D130">
-        <v>2027</v>
+        <v>2040</v>
       </c>
       <c r="E130">
-        <v>0.16000000000000003</v>
+        <v>0.30720000000000003</v>
       </c>
       <c r="F130">
-        <v>0.32000000000000006</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.33280000000000004</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>15</v>
       </c>
       <c r="B131" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C131" t="s">
         <v>34</v>
       </c>
       <c r="D131">
-        <v>2035</v>
+        <v>2050</v>
       </c>
       <c r="E131">
-        <v>0.4</v>
+        <v>0.3584</v>
       </c>
       <c r="F131">
-        <v>0.55999999999999994</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.38400000000000012</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>15</v>
       </c>
       <c r="B132" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C132" t="s">
         <v>34</v>
       </c>
       <c r="D132">
-        <v>2040</v>
+        <v>2070</v>
       </c>
       <c r="E132">
-        <v>0.48</v>
+        <v>0.40960000000000013</v>
       </c>
       <c r="F132">
-        <v>0.72000000000000008</v>
+        <v>0.40960000000000013</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -17423,139 +17272,139 @@
         <v>15</v>
       </c>
       <c r="B133" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C133" t="s">
         <v>34</v>
       </c>
       <c r="D133">
-        <v>2050</v>
+        <v>2100</v>
       </c>
       <c r="E133">
-        <v>0.64000000000000012</v>
+        <v>0.7</v>
       </c>
       <c r="F133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>15</v>
       </c>
       <c r="B134" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C134" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D134">
-        <v>2070</v>
+        <v>2035</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="F134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>15</v>
       </c>
       <c r="B135" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C135" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D135">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="F135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>15</v>
       </c>
       <c r="B136" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C136" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D136">
-        <v>2027</v>
+        <v>2050</v>
       </c>
       <c r="E136">
-        <v>8.0000000000000016E-2</v>
+        <v>0.3</v>
       </c>
       <c r="F136">
-        <v>8.0000000000000016E-2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>15</v>
       </c>
       <c r="B137" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C137" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D137">
         <v>2070</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>15</v>
       </c>
       <c r="B138" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C138" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D138">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E138">
-        <v>0.26400000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="F138">
-        <v>0.30800000000000005</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>15</v>
       </c>
       <c r="B139" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C139" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D139">
-        <v>2040</v>
+        <v>2050</v>
       </c>
       <c r="E139">
-        <v>0.52800000000000002</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>0.57200000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -17563,99 +17412,99 @@
         <v>15</v>
       </c>
       <c r="B140" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C140" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D140">
-        <v>2050</v>
+        <v>2100</v>
       </c>
       <c r="E140">
-        <v>0.6160000000000001</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>0.66000000000000014</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>15</v>
       </c>
       <c r="B141" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C141" t="s">
         <v>34</v>
       </c>
       <c r="D141">
-        <v>2070</v>
+        <v>2027</v>
       </c>
       <c r="E141">
-        <v>0.70400000000000018</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="F141">
-        <v>0.70400000000000018</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.32000000000000006</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>15</v>
       </c>
       <c r="B142" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C142" t="s">
         <v>34</v>
       </c>
       <c r="D142">
-        <v>2100</v>
+        <v>2035</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="F142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.55999999999999994</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>15</v>
       </c>
       <c r="B143" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C143" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D143">
-        <v>2035</v>
+        <v>2040</v>
       </c>
       <c r="E143">
-        <v>4.0000000000000008E-2</v>
+        <v>0.48</v>
       </c>
       <c r="F143">
-        <v>4.0000000000000008E-2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.72000000000000008</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>15</v>
       </c>
       <c r="B144" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C144" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D144">
-        <v>2040</v>
+        <v>2050</v>
       </c>
       <c r="E144">
-        <v>8.0000000000000016E-2</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="F144">
-        <v>8.0000000000000016E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -17663,59 +17512,59 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C145" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D145">
-        <v>2050</v>
+        <v>2070</v>
       </c>
       <c r="E145">
-        <v>0.16000000000000003</v>
+        <v>1</v>
       </c>
       <c r="F145">
-        <v>0.16000000000000003</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>15</v>
       </c>
       <c r="B146" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C146" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D146">
-        <v>2070</v>
+        <v>2100</v>
       </c>
       <c r="E146">
-        <v>0.16000000000000003</v>
+        <v>1</v>
       </c>
       <c r="F146">
-        <v>0.16000000000000003</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>15</v>
       </c>
       <c r="B147" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C147" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D147">
-        <v>2100</v>
+        <v>2027</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>8.0000000000000016E-2</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -17723,13 +17572,13 @@
         <v>15</v>
       </c>
       <c r="B148" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C148" t="s">
         <v>55</v>
       </c>
       <c r="D148">
-        <v>2050</v>
+        <v>2070</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -17738,7 +17587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>15</v>
       </c>
@@ -17746,90 +17595,90 @@
         <v>48</v>
       </c>
       <c r="C149" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D149">
+        <v>2035</v>
+      </c>
+      <c r="E149">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="F149">
+        <v>0.30800000000000005</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>15</v>
+      </c>
+      <c r="B150" t="s">
+        <v>48</v>
+      </c>
+      <c r="C150" t="s">
+        <v>34</v>
+      </c>
+      <c r="D150">
+        <v>2040</v>
+      </c>
+      <c r="E150">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="F150">
+        <v>0.57200000000000006</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>15</v>
+      </c>
+      <c r="B151" t="s">
+        <v>48</v>
+      </c>
+      <c r="C151" t="s">
+        <v>34</v>
+      </c>
+      <c r="D151">
+        <v>2050</v>
+      </c>
+      <c r="E151">
+        <v>0.6160000000000001</v>
+      </c>
+      <c r="F151">
+        <v>0.66000000000000014</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>15</v>
+      </c>
+      <c r="B152" t="s">
+        <v>48</v>
+      </c>
+      <c r="C152" t="s">
+        <v>34</v>
+      </c>
+      <c r="D152">
+        <v>2070</v>
+      </c>
+      <c r="E152">
+        <v>0.70400000000000018</v>
+      </c>
+      <c r="F152">
+        <v>0.70400000000000018</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>15</v>
+      </c>
+      <c r="B153" t="s">
+        <v>48</v>
+      </c>
+      <c r="C153" t="s">
+        <v>34</v>
+      </c>
+      <c r="D153">
         <v>2100</v>
-      </c>
-      <c r="E149">
-        <v>0</v>
-      </c>
-      <c r="F149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>25</v>
-      </c>
-      <c r="B150" t="s">
-        <v>33</v>
-      </c>
-      <c r="C150" t="s">
-        <v>34</v>
-      </c>
-      <c r="D150">
-        <v>2022</v>
-      </c>
-      <c r="E150">
-        <v>0.1</v>
-      </c>
-      <c r="F150">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>25</v>
-      </c>
-      <c r="B151" t="s">
-        <v>33</v>
-      </c>
-      <c r="C151" t="s">
-        <v>34</v>
-      </c>
-      <c r="D151">
-        <v>2025</v>
-      </c>
-      <c r="E151">
-        <v>0.3</v>
-      </c>
-      <c r="F151">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>25</v>
-      </c>
-      <c r="B152" t="s">
-        <v>33</v>
-      </c>
-      <c r="C152" t="s">
-        <v>34</v>
-      </c>
-      <c r="D152">
-        <v>2030</v>
-      </c>
-      <c r="E152">
-        <v>0.5</v>
-      </c>
-      <c r="F152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>25</v>
-      </c>
-      <c r="B153" t="s">
-        <v>33</v>
-      </c>
-      <c r="C153" t="s">
-        <v>34</v>
-      </c>
-      <c r="D153">
-        <v>2035</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -17838,152 +17687,152 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B154" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C154" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D154">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>4.0000000000000008E-2</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B155" t="s">
+        <v>48</v>
+      </c>
+      <c r="C155" t="s">
+        <v>41</v>
+      </c>
+      <c r="D155">
+        <v>2040</v>
+      </c>
+      <c r="E155">
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="F155">
+        <v>8.0000000000000016E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>15</v>
+      </c>
+      <c r="B156" t="s">
+        <v>48</v>
+      </c>
+      <c r="C156" t="s">
+        <v>41</v>
+      </c>
+      <c r="D156">
+        <v>2050</v>
+      </c>
+      <c r="E156">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="F156">
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>15</v>
+      </c>
+      <c r="B157" t="s">
+        <v>48</v>
+      </c>
+      <c r="C157" t="s">
+        <v>41</v>
+      </c>
+      <c r="D157">
+        <v>2070</v>
+      </c>
+      <c r="E157">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="F157">
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>15</v>
+      </c>
+      <c r="B158" t="s">
+        <v>48</v>
+      </c>
+      <c r="C158" t="s">
+        <v>41</v>
+      </c>
+      <c r="D158">
+        <v>2100</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>15</v>
+      </c>
+      <c r="B159" t="s">
+        <v>48</v>
+      </c>
+      <c r="C159" t="s">
+        <v>55</v>
+      </c>
+      <c r="D159">
+        <v>2050</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>15</v>
+      </c>
+      <c r="B160" t="s">
+        <v>48</v>
+      </c>
+      <c r="C160" t="s">
+        <v>55</v>
+      </c>
+      <c r="D160">
+        <v>2100</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>15</v>
+      </c>
+      <c r="B161" t="s">
         <v>33</v>
-      </c>
-      <c r="C155" t="s">
-        <v>34</v>
-      </c>
-      <c r="D155">
-        <v>2050</v>
-      </c>
-      <c r="E155">
-        <v>1</v>
-      </c>
-      <c r="F155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>25</v>
-      </c>
-      <c r="B156" t="s">
-        <v>33</v>
-      </c>
-      <c r="C156" t="s">
-        <v>34</v>
-      </c>
-      <c r="D156">
-        <v>2070</v>
-      </c>
-      <c r="E156">
-        <v>1</v>
-      </c>
-      <c r="F156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>25</v>
-      </c>
-      <c r="B157" t="s">
-        <v>33</v>
-      </c>
-      <c r="C157" t="s">
-        <v>34</v>
-      </c>
-      <c r="D157">
-        <v>2100</v>
-      </c>
-      <c r="E157">
-        <v>1</v>
-      </c>
-      <c r="F157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>25</v>
-      </c>
-      <c r="B158" t="s">
-        <v>40</v>
-      </c>
-      <c r="C158" t="s">
-        <v>34</v>
-      </c>
-      <c r="D158">
-        <v>2022</v>
-      </c>
-      <c r="E158">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F158">
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>25</v>
-      </c>
-      <c r="B159" t="s">
-        <v>40</v>
-      </c>
-      <c r="C159" t="s">
-        <v>34</v>
-      </c>
-      <c r="D159">
-        <v>2025</v>
-      </c>
-      <c r="E159">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F159">
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>25</v>
-      </c>
-      <c r="B160" t="s">
-        <v>40</v>
-      </c>
-      <c r="C160" t="s">
-        <v>34</v>
-      </c>
-      <c r="D160">
-        <v>2030</v>
-      </c>
-      <c r="E160">
-        <v>0.01</v>
-      </c>
-      <c r="F160">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>25</v>
-      </c>
-      <c r="B161" t="s">
-        <v>40</v>
       </c>
       <c r="C161" t="s">
         <v>34</v>
@@ -17992,190 +17841,190 @@
         <v>2035</v>
       </c>
       <c r="E161">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="F161">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B162" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C162" t="s">
         <v>34</v>
       </c>
       <c r="D162">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="E162">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="F162">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B163" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C163" t="s">
         <v>34</v>
       </c>
       <c r="D163">
+        <v>2025</v>
+      </c>
+      <c r="E163">
+        <v>0.5</v>
+      </c>
+      <c r="F163">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>25</v>
+      </c>
+      <c r="B164" t="s">
+        <v>33</v>
+      </c>
+      <c r="C164" t="s">
+        <v>34</v>
+      </c>
+      <c r="D164">
+        <v>2022</v>
+      </c>
+      <c r="E164">
+        <v>0.1</v>
+      </c>
+      <c r="F164">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>25</v>
+      </c>
+      <c r="B165" t="s">
+        <v>33</v>
+      </c>
+      <c r="C165" t="s">
+        <v>34</v>
+      </c>
+      <c r="D165">
+        <v>2025</v>
+      </c>
+      <c r="E165">
+        <v>0.3</v>
+      </c>
+      <c r="F165">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>25</v>
+      </c>
+      <c r="B166" t="s">
+        <v>33</v>
+      </c>
+      <c r="C166" t="s">
+        <v>34</v>
+      </c>
+      <c r="D166">
+        <v>2030</v>
+      </c>
+      <c r="E166">
+        <v>0.5</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>25</v>
+      </c>
+      <c r="B167" t="s">
+        <v>33</v>
+      </c>
+      <c r="C167" t="s">
+        <v>34</v>
+      </c>
+      <c r="D167">
+        <v>2035</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>25</v>
+      </c>
+      <c r="B168" t="s">
+        <v>33</v>
+      </c>
+      <c r="C168" t="s">
+        <v>34</v>
+      </c>
+      <c r="D168">
+        <v>2040</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>25</v>
+      </c>
+      <c r="B169" t="s">
+        <v>33</v>
+      </c>
+      <c r="C169" t="s">
+        <v>34</v>
+      </c>
+      <c r="D169">
         <v>2050</v>
       </c>
-      <c r="E163">
-        <v>0.2</v>
-      </c>
-      <c r="F163">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>25</v>
-      </c>
-      <c r="B164" t="s">
-        <v>40</v>
-      </c>
-      <c r="C164" t="s">
-        <v>34</v>
-      </c>
-      <c r="D164">
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>25</v>
+      </c>
+      <c r="B170" t="s">
+        <v>33</v>
+      </c>
+      <c r="C170" t="s">
+        <v>34</v>
+      </c>
+      <c r="D170">
         <v>2070</v>
       </c>
-      <c r="E164">
-        <v>0.5</v>
-      </c>
-      <c r="F164">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>25</v>
-      </c>
-      <c r="B165" t="s">
-        <v>40</v>
-      </c>
-      <c r="C165" t="s">
-        <v>34</v>
-      </c>
-      <c r="D165">
-        <v>2100</v>
-      </c>
-      <c r="E165">
-        <v>0.9</v>
-      </c>
-      <c r="F165">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>25</v>
-      </c>
-      <c r="B166" t="s">
-        <v>40</v>
-      </c>
-      <c r="C166" t="s">
-        <v>41</v>
-      </c>
-      <c r="D166">
-        <v>2022</v>
-      </c>
-      <c r="E166">
-        <v>0</v>
-      </c>
-      <c r="F166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>25</v>
-      </c>
-      <c r="B167" t="s">
-        <v>40</v>
-      </c>
-      <c r="C167" t="s">
-        <v>41</v>
-      </c>
-      <c r="D167">
-        <v>2025</v>
-      </c>
-      <c r="E167">
-        <v>0</v>
-      </c>
-      <c r="F167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>25</v>
-      </c>
-      <c r="B168" t="s">
-        <v>40</v>
-      </c>
-      <c r="C168" t="s">
-        <v>41</v>
-      </c>
-      <c r="D168">
-        <v>2030</v>
-      </c>
-      <c r="E168">
-        <v>0</v>
-      </c>
-      <c r="F168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>25</v>
-      </c>
-      <c r="B169" t="s">
-        <v>40</v>
-      </c>
-      <c r="C169" t="s">
-        <v>41</v>
-      </c>
-      <c r="D169">
-        <v>2035</v>
-      </c>
-      <c r="E169">
-        <v>0.01</v>
-      </c>
-      <c r="F169">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>25</v>
-      </c>
-      <c r="B170" t="s">
-        <v>40</v>
-      </c>
-      <c r="C170" t="s">
-        <v>41</v>
-      </c>
-      <c r="D170">
-        <v>2040</v>
-      </c>
       <c r="E170">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>0.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -18183,22 +18032,22 @@
         <v>25</v>
       </c>
       <c r="B171" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C171" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D171">
-        <v>2050</v>
+        <v>2100</v>
       </c>
       <c r="E171">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F171">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>25</v>
       </c>
@@ -18206,19 +18055,19 @@
         <v>40</v>
       </c>
       <c r="C172" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D172">
-        <v>2070</v>
+        <v>2022</v>
       </c>
       <c r="E172">
-        <v>0.1</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F172">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>25</v>
       </c>
@@ -18226,113 +18075,113 @@
         <v>40</v>
       </c>
       <c r="C173" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D173">
-        <v>2100</v>
+        <v>2025</v>
       </c>
       <c r="E173">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F173">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>25</v>
+      </c>
+      <c r="B174" t="s">
+        <v>40</v>
+      </c>
+      <c r="C174" t="s">
+        <v>34</v>
+      </c>
+      <c r="D174">
+        <v>2030</v>
+      </c>
+      <c r="E174">
+        <v>0.01</v>
+      </c>
+      <c r="F174">
         <v>0.1</v>
       </c>
-      <c r="F173">
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>25</v>
+      </c>
+      <c r="B175" t="s">
+        <v>40</v>
+      </c>
+      <c r="C175" t="s">
+        <v>34</v>
+      </c>
+      <c r="D175">
+        <v>2035</v>
+      </c>
+      <c r="E175">
+        <v>0.05</v>
+      </c>
+      <c r="F175">
         <v>0.3</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>25</v>
-      </c>
-      <c r="B174" t="s">
-        <v>48</v>
-      </c>
-      <c r="C174" t="s">
-        <v>34</v>
-      </c>
-      <c r="D174">
-        <v>2022</v>
-      </c>
-      <c r="E174">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F174">
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>25</v>
-      </c>
-      <c r="B175" t="s">
-        <v>48</v>
-      </c>
-      <c r="C175" t="s">
-        <v>34</v>
-      </c>
-      <c r="D175">
-        <v>2025</v>
-      </c>
-      <c r="E175">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F175">
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>25</v>
       </c>
       <c r="B176" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C176" t="s">
         <v>34</v>
       </c>
       <c r="D176">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E176">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F176">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>25</v>
       </c>
       <c r="B177" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C177" t="s">
         <v>34</v>
       </c>
       <c r="D177">
-        <v>2035</v>
+        <v>2050</v>
       </c>
       <c r="E177">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F177">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>25</v>
+      </c>
+      <c r="B178" t="s">
+        <v>40</v>
+      </c>
+      <c r="C178" t="s">
+        <v>34</v>
+      </c>
+      <c r="D178">
+        <v>2070</v>
+      </c>
+      <c r="E178">
         <v>0.5</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>25</v>
-      </c>
-      <c r="B178" t="s">
-        <v>48</v>
-      </c>
-      <c r="C178" t="s">
-        <v>34</v>
-      </c>
-      <c r="D178">
-        <v>2040</v>
-      </c>
-      <c r="E178">
-        <v>0.2</v>
       </c>
       <c r="F178">
         <v>0.8</v>
@@ -18343,73 +18192,73 @@
         <v>25</v>
       </c>
       <c r="B179" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C179" t="s">
         <v>34</v>
       </c>
       <c r="D179">
-        <v>2050</v>
+        <v>2100</v>
       </c>
       <c r="E179">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>25</v>
       </c>
       <c r="B180" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C180" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D180">
-        <v>2070</v>
+        <v>2022</v>
       </c>
       <c r="E180">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>25</v>
       </c>
       <c r="B181" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C181" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D181">
-        <v>2100</v>
+        <v>2025</v>
       </c>
       <c r="E181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>25</v>
       </c>
       <c r="B182" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C182" t="s">
         <v>41</v>
       </c>
       <c r="D182">
-        <v>2022</v>
+        <v>2030</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -18418,84 +18267,84 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>25</v>
       </c>
       <c r="B183" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C183" t="s">
         <v>41</v>
       </c>
       <c r="D183">
-        <v>2025</v>
+        <v>2035</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>25</v>
       </c>
       <c r="B184" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C184" t="s">
         <v>41</v>
       </c>
       <c r="D184">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>25</v>
       </c>
       <c r="B185" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C185" t="s">
         <v>41</v>
       </c>
       <c r="D185">
-        <v>2035</v>
+        <v>2050</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>25</v>
       </c>
       <c r="B186" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C186" t="s">
         <v>41</v>
       </c>
       <c r="D186">
-        <v>2040</v>
+        <v>2070</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -18503,22 +18352,22 @@
         <v>25</v>
       </c>
       <c r="B187" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C187" t="s">
         <v>41</v>
       </c>
       <c r="D187">
-        <v>2050</v>
+        <v>2100</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>25</v>
       </c>
@@ -18526,19 +18375,19 @@
         <v>48</v>
       </c>
       <c r="C188" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D188">
-        <v>2070</v>
+        <v>2022</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>25</v>
       </c>
@@ -18546,113 +18395,113 @@
         <v>48</v>
       </c>
       <c r="C189" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D189">
-        <v>2100</v>
+        <v>2025</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>25</v>
       </c>
       <c r="B190" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C190" t="s">
         <v>34</v>
       </c>
       <c r="D190">
-        <v>2022</v>
+        <v>2030</v>
       </c>
       <c r="E190">
-        <v>1.1000000000000001E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F190">
-        <v>1.1000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>25</v>
       </c>
       <c r="B191" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C191" t="s">
         <v>34</v>
       </c>
       <c r="D191">
-        <v>2025</v>
+        <v>2035</v>
       </c>
       <c r="E191">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F191">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>25</v>
       </c>
       <c r="B192" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C192" t="s">
         <v>34</v>
       </c>
       <c r="D192">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E192">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F192">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>25</v>
       </c>
       <c r="B193" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C193" t="s">
         <v>34</v>
       </c>
       <c r="D193">
-        <v>2035</v>
+        <v>2050</v>
       </c>
       <c r="E193">
         <v>0.5</v>
       </c>
       <c r="F193">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>25</v>
       </c>
       <c r="B194" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C194" t="s">
         <v>34</v>
       </c>
       <c r="D194">
-        <v>2040</v>
+        <v>2070</v>
       </c>
       <c r="E194">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="F194">
         <v>1</v>
@@ -18663,13 +18512,13 @@
         <v>25</v>
       </c>
       <c r="B195" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C195" t="s">
         <v>34</v>
       </c>
       <c r="D195">
-        <v>2050</v>
+        <v>2100</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -18678,141 +18527,141 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>25</v>
       </c>
       <c r="B196" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C196" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D196">
+        <v>2022</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>25</v>
+      </c>
+      <c r="B197" t="s">
+        <v>48</v>
+      </c>
+      <c r="C197" t="s">
+        <v>41</v>
+      </c>
+      <c r="D197">
+        <v>2025</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>25</v>
+      </c>
+      <c r="B198" t="s">
+        <v>48</v>
+      </c>
+      <c r="C198" t="s">
+        <v>41</v>
+      </c>
+      <c r="D198">
+        <v>2030</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>25</v>
+      </c>
+      <c r="B199" t="s">
+        <v>48</v>
+      </c>
+      <c r="C199" t="s">
+        <v>41</v>
+      </c>
+      <c r="D199">
+        <v>2035</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>25</v>
+      </c>
+      <c r="B200" t="s">
+        <v>48</v>
+      </c>
+      <c r="C200" t="s">
+        <v>41</v>
+      </c>
+      <c r="D200">
+        <v>2040</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>25</v>
+      </c>
+      <c r="B201" t="s">
+        <v>48</v>
+      </c>
+      <c r="C201" t="s">
+        <v>41</v>
+      </c>
+      <c r="D201">
+        <v>2050</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>25</v>
+      </c>
+      <c r="B202" t="s">
+        <v>48</v>
+      </c>
+      <c r="C202" t="s">
+        <v>41</v>
+      </c>
+      <c r="D202">
         <v>2070</v>
       </c>
-      <c r="E196">
-        <v>1</v>
-      </c>
-      <c r="F196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
-        <v>25</v>
-      </c>
-      <c r="B197" t="s">
-        <v>50</v>
-      </c>
-      <c r="C197" t="s">
-        <v>34</v>
-      </c>
-      <c r="D197">
-        <v>2100</v>
-      </c>
-      <c r="E197">
-        <v>1</v>
-      </c>
-      <c r="F197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
-        <v>25</v>
-      </c>
-      <c r="B198" t="s">
-        <v>50</v>
-      </c>
-      <c r="C198" t="s">
-        <v>55</v>
-      </c>
-      <c r="D198">
-        <v>2022</v>
-      </c>
-      <c r="E198">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="F198">
-        <v>1.1000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
-        <v>25</v>
-      </c>
-      <c r="B199" t="s">
-        <v>50</v>
-      </c>
-      <c r="C199" t="s">
-        <v>55</v>
-      </c>
-      <c r="D199">
-        <v>2025</v>
-      </c>
-      <c r="E199">
-        <v>0.01</v>
-      </c>
-      <c r="F199">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
-        <v>25</v>
-      </c>
-      <c r="B200" t="s">
-        <v>50</v>
-      </c>
-      <c r="C200" t="s">
-        <v>55</v>
-      </c>
-      <c r="D200">
-        <v>2030</v>
-      </c>
-      <c r="E200">
-        <v>1.0000000000000002E-2</v>
-      </c>
-      <c r="F200">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
-        <v>25</v>
-      </c>
-      <c r="B201" t="s">
-        <v>50</v>
-      </c>
-      <c r="C201" t="s">
-        <v>55</v>
-      </c>
-      <c r="D201">
-        <v>2035</v>
-      </c>
-      <c r="E201">
-        <v>0.05</v>
-      </c>
-      <c r="F201">
-        <v>6.9999999999999993E-2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
-        <v>25</v>
-      </c>
-      <c r="B202" t="s">
-        <v>50</v>
-      </c>
-      <c r="C202" t="s">
-        <v>55</v>
-      </c>
-      <c r="D202">
-        <v>2040</v>
-      </c>
       <c r="E202">
-        <v>6.9999999999999993E-2</v>
+        <v>0</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -18823,13 +18672,13 @@
         <v>25</v>
       </c>
       <c r="B203" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C203" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D203">
-        <v>2050</v>
+        <v>2100</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -18838,7 +18687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>25</v>
       </c>
@@ -18846,19 +18695,19 @@
         <v>50</v>
       </c>
       <c r="C204" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D204">
-        <v>2070</v>
+        <v>2022</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>25</v>
       </c>
@@ -18866,16 +18715,16 @@
         <v>50</v>
       </c>
       <c r="C205" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D205">
-        <v>2100</v>
+        <v>2025</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -18883,19 +18732,19 @@
         <v>25</v>
       </c>
       <c r="B206" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C206" t="s">
         <v>34</v>
       </c>
       <c r="D206">
-        <v>2100</v>
+        <v>2030</v>
       </c>
       <c r="E206">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F206">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
@@ -18903,19 +18752,19 @@
         <v>25</v>
       </c>
       <c r="B207" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C207" t="s">
         <v>34</v>
       </c>
       <c r="D207">
-        <v>2070</v>
+        <v>2035</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -18923,16 +18772,16 @@
         <v>25</v>
       </c>
       <c r="B208" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C208" t="s">
         <v>34</v>
       </c>
       <c r="D208">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="E208">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F208">
         <v>1</v>
@@ -18943,13 +18792,13 @@
         <v>25</v>
       </c>
       <c r="B209" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C209" t="s">
         <v>34</v>
       </c>
       <c r="D209">
-        <v>2040</v>
+        <v>2050</v>
       </c>
       <c r="E209">
         <v>1</v>
@@ -18960,16 +18809,16 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B210" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C210" t="s">
         <v>34</v>
       </c>
       <c r="D210">
-        <v>2035</v>
+        <v>2070</v>
       </c>
       <c r="E210">
         <v>1</v>
@@ -18980,16 +18829,16 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B211" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C211" t="s">
         <v>34</v>
       </c>
       <c r="D211">
-        <v>2035</v>
+        <v>2100</v>
       </c>
       <c r="E211">
         <v>1</v>
@@ -19000,42 +18849,42 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B212" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C212" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D212">
-        <v>2035</v>
+        <v>2022</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B213" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C213" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D213">
-        <v>2035</v>
+        <v>2025</v>
       </c>
       <c r="E213">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="F213">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
@@ -19043,119 +18892,119 @@
         <v>25</v>
       </c>
       <c r="B214" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C214" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D214">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>1.0000000000000002E-2</v>
       </c>
       <c r="F214">
-        <v>1</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B215" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C215" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D215">
-        <v>2030</v>
+        <v>2035</v>
       </c>
       <c r="E215">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="F215">
-        <v>1</v>
+        <v>6.9999999999999993E-2</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B216" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C216" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D216">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E216">
-        <v>1</v>
+        <v>6.9999999999999993E-2</v>
       </c>
       <c r="F216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B217" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C217" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D217">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="E217">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B218" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C218" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D218">
-        <v>2030</v>
+        <v>2070</v>
       </c>
       <c r="E218">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C219" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D219">
-        <v>2030</v>
+        <v>2100</v>
       </c>
       <c r="E219">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="F219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
@@ -19169,10 +19018,10 @@
         <v>34</v>
       </c>
       <c r="D220">
-        <v>2030</v>
+        <v>2100</v>
       </c>
       <c r="E220">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F220">
         <v>1</v>
@@ -19180,7 +19029,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B221" t="s">
         <v>33</v>
@@ -19189,18 +19038,18 @@
         <v>34</v>
       </c>
       <c r="D221">
-        <v>2025</v>
+        <v>2070</v>
       </c>
       <c r="E221">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="F221">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B222" t="s">
         <v>33</v>
@@ -19209,18 +19058,18 @@
         <v>34</v>
       </c>
       <c r="D222">
-        <v>2025</v>
+        <v>2050</v>
       </c>
       <c r="E222">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="F222">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B223" t="s">
         <v>33</v>
@@ -19229,18 +19078,18 @@
         <v>34</v>
       </c>
       <c r="D223">
-        <v>2025</v>
+        <v>2040</v>
       </c>
       <c r="E223">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="F223">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B224" t="s">
         <v>33</v>
@@ -19249,18 +19098,18 @@
         <v>34</v>
       </c>
       <c r="D224">
-        <v>2025</v>
+        <v>2035</v>
       </c>
       <c r="E224">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="F224">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B225" t="s">
         <v>33</v>
@@ -19269,13 +19118,13 @@
         <v>34</v>
       </c>
       <c r="D225">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="E225">
         <v>0.5</v>
       </c>
       <c r="F225">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
@@ -19318,74 +19167,26 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
-        <v>39</v>
-      </c>
-      <c r="B228" t="s">
-        <v>33</v>
-      </c>
-      <c r="C228" t="s">
-        <v>34</v>
-      </c>
-      <c r="D228">
-        <v>2021</v>
-      </c>
-      <c r="E228">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="F228">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
-        <v>7</v>
-      </c>
-      <c r="B229" t="s">
-        <v>33</v>
-      </c>
-      <c r="C229" t="s">
-        <v>34</v>
-      </c>
-      <c r="D229">
-        <v>2021</v>
-      </c>
-      <c r="E229">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="F229">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F205" xr:uid="{09EB2682-BE80-4949-AB75-59FF57965C53}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="2050"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F187">
-      <sortCondition ref="A2:A187"/>
-      <sortCondition ref="B2:B187"/>
-      <sortCondition ref="C2:C187"/>
-      <sortCondition ref="D2:D187"/>
+  <autoFilter ref="A1:F227" xr:uid="{09EB2682-BE80-4949-AB75-59FF57965C53}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F227">
+      <sortCondition ref="A1:A227"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F187">
-    <sortCondition ref="B2:B187"/>
-    <sortCondition ref="C2:C187"/>
-    <sortCondition ref="D2:D187"/>
-    <sortCondition ref="A2:A187"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F185">
+    <sortCondition ref="B2:B185"/>
+    <sortCondition ref="C2:C185"/>
+    <sortCondition ref="D2:D185"/>
+    <sortCondition ref="A2:A185"/>
   </sortState>
   <conditionalFormatting sqref="B1">
-    <cfRule type="containsText" dxfId="165" priority="133" operator="containsText" text="ldv">
+    <cfRule type="containsText" dxfId="144" priority="133" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="134" operator="containsText" text="bus">
+    <cfRule type="containsText" dxfId="143" priority="134" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="135" operator="containsText" text="2w">
+    <cfRule type="containsText" dxfId="142" priority="135" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",B1)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="136">
@@ -19399,393 +19200,320 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B149">
-    <cfRule type="containsText" dxfId="162" priority="153" operator="containsText" text="bus">
+  <conditionalFormatting sqref="B2:B147">
+    <cfRule type="containsText" dxfId="141" priority="151" operator="containsText" text="ht">
+      <formula>NOT(ISERROR(SEARCH("ht",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="140" priority="152" operator="containsText" text="ldv">
+      <formula>NOT(ISERROR(SEARCH("ldv",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="139" priority="153" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="152" operator="containsText" text="ldv">
-      <formula>NOT(ISERROR(SEARCH("ldv",B2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="151" operator="containsText" text="ht">
-      <formula>NOT(ISERROR(SEARCH("ht",B2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="154" operator="containsText" text="2w">
+    <cfRule type="containsText" dxfId="138" priority="154" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B143:B149">
-    <cfRule type="containsText" dxfId="158" priority="144" operator="containsText" text="bus">
-      <formula>NOT(ISERROR(SEARCH("bus",B143)))</formula>
+  <conditionalFormatting sqref="B141:B147">
+    <cfRule type="containsText" dxfId="137" priority="142" operator="containsText" text="ht">
+      <formula>NOT(ISERROR(SEARCH("ht",B141)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="142" operator="containsText" text="ht">
-      <formula>NOT(ISERROR(SEARCH("ht",B143)))</formula>
+    <cfRule type="containsText" dxfId="136" priority="143" operator="containsText" text="ldv">
+      <formula>NOT(ISERROR(SEARCH("ldv",B141)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="143" operator="containsText" text="ldv">
-      <formula>NOT(ISERROR(SEARCH("ldv",B143)))</formula>
+    <cfRule type="containsText" dxfId="135" priority="144" operator="containsText" text="bus">
+      <formula>NOT(ISERROR(SEARCH("bus",B141)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="145" operator="containsText" text="2w">
-      <formula>NOT(ISERROR(SEARCH("2w",B143)))</formula>
+    <cfRule type="containsText" dxfId="134" priority="145" operator="containsText" text="2w">
+      <formula>NOT(ISERROR(SEARCH("2w",B141)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B155:B157">
-    <cfRule type="containsText" dxfId="154" priority="50" operator="containsText" text="bus">
-      <formula>NOT(ISERROR(SEARCH("bus",B155)))</formula>
+  <conditionalFormatting sqref="B153:B155 I2:I73 P2:P64">
+    <cfRule type="containsText" dxfId="133" priority="49" operator="containsText" text="ldv">
+      <formula>NOT(ISERROR(SEARCH("ldv",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="49" operator="containsText" text="ldv">
-      <formula>NOT(ISERROR(SEARCH("ldv",B155)))</formula>
+    <cfRule type="containsText" dxfId="132" priority="50" operator="containsText" text="bus">
+      <formula>NOT(ISERROR(SEARCH("bus",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="51" operator="containsText" text="2w">
-      <formula>NOT(ISERROR(SEARCH("2w",B155)))</formula>
+    <cfRule type="containsText" dxfId="131" priority="51" operator="containsText" text="2w">
+      <formula>NOT(ISERROR(SEARCH("2w",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1">
-    <cfRule type="containsText" dxfId="151" priority="130" operator="containsText" text="Drivephev">
+  <conditionalFormatting sqref="B204:B215 B217:B224">
+    <cfRule type="containsText" dxfId="130" priority="6" operator="containsText" text="ldv">
+      <formula>NOT(ISERROR(SEARCH("ldv",B204)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="129" priority="7" operator="containsText" text="bus">
+      <formula>NOT(ISERROR(SEARCH("bus",B204)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="128" priority="8" operator="containsText" text="2w">
+      <formula>NOT(ISERROR(SEARCH("2w",B204)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C147 J2:J73 Q2:Q64">
+    <cfRule type="containsText" dxfId="127" priority="128" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="126" priority="129" operator="containsText" text="phev">
+      <formula>NOT(ISERROR(SEARCH("phev",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="125" priority="130" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="129" operator="containsText" text="phev">
-      <formula>NOT(ISERROR(SEARCH("phev",C1)))</formula>
+    <cfRule type="containsText" dxfId="124" priority="131" operator="containsText" text="ice">
+      <formula>NOT(ISERROR(SEARCH("ice",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="132" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="123" priority="132" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="131" operator="containsText" text="ice">
-      <formula>NOT(ISERROR(SEARCH("ice",C1)))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C141:C147">
+    <cfRule type="containsText" dxfId="122" priority="137" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",C141)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="128" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",C1)))</formula>
+    <cfRule type="containsText" dxfId="121" priority="138" operator="containsText" text="phev">
+      <formula>NOT(ISERROR(SEARCH("phev",C141)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="120" priority="139" operator="containsText" text="Drivephev">
+      <formula>NOT(ISERROR(SEARCH("Drivephev",C141)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="119" priority="140" operator="containsText" text="ice">
+      <formula>NOT(ISERROR(SEARCH("ice",C141)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="118" priority="141" operator="containsText" text="bev">
+      <formula>NOT(ISERROR(SEARCH("bev",C141)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C149">
-    <cfRule type="containsText" dxfId="146" priority="146" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",C2)))</formula>
+  <conditionalFormatting sqref="C153:C155">
+    <cfRule type="containsText" dxfId="117" priority="44" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",C153)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="150" operator="containsText" text="bev">
-      <formula>NOT(ISERROR(SEARCH("bev",C2)))</formula>
+    <cfRule type="containsText" dxfId="116" priority="45" operator="containsText" text="phev">
+      <formula>NOT(ISERROR(SEARCH("phev",C153)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="149" operator="containsText" text="ice">
-      <formula>NOT(ISERROR(SEARCH("ice",C2)))</formula>
+    <cfRule type="containsText" dxfId="115" priority="46" operator="containsText" text="Drivephev">
+      <formula>NOT(ISERROR(SEARCH("Drivephev",C153)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="147" operator="containsText" text="phev">
-      <formula>NOT(ISERROR(SEARCH("phev",C2)))</formula>
+    <cfRule type="containsText" dxfId="114" priority="47" operator="containsText" text="ice">
+      <formula>NOT(ISERROR(SEARCH("ice",C153)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="148" operator="containsText" text="Drivephev">
-      <formula>NOT(ISERROR(SEARCH("Drivephev",C2)))</formula>
+    <cfRule type="containsText" dxfId="113" priority="48" operator="containsText" text="bev">
+      <formula>NOT(ISERROR(SEARCH("bev",C153)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C143:C149">
-    <cfRule type="containsText" dxfId="141" priority="141" operator="containsText" text="bev">
-      <formula>NOT(ISERROR(SEARCH("bev",C143)))</formula>
+  <conditionalFormatting sqref="C161:C171">
+    <cfRule type="containsText" dxfId="112" priority="34" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",C161)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="139" operator="containsText" text="Drivephev">
-      <formula>NOT(ISERROR(SEARCH("Drivephev",C143)))</formula>
+    <cfRule type="containsText" dxfId="111" priority="35" operator="containsText" text="phev">
+      <formula>NOT(ISERROR(SEARCH("phev",C161)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="138" operator="containsText" text="phev">
-      <formula>NOT(ISERROR(SEARCH("phev",C143)))</formula>
+    <cfRule type="containsText" dxfId="110" priority="36" operator="containsText" text="Drivephev">
+      <formula>NOT(ISERROR(SEARCH("Drivephev",C161)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="137" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",C143)))</formula>
+    <cfRule type="containsText" dxfId="109" priority="37" operator="containsText" text="ice">
+      <formula>NOT(ISERROR(SEARCH("ice",C161)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="140" operator="containsText" text="ice">
-      <formula>NOT(ISERROR(SEARCH("ice",C143)))</formula>
+    <cfRule type="containsText" dxfId="108" priority="38" operator="containsText" text="bev">
+      <formula>NOT(ISERROR(SEARCH("bev",C161)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C155:C157">
-    <cfRule type="containsText" dxfId="136" priority="48" operator="containsText" text="bev">
-      <formula>NOT(ISERROR(SEARCH("bev",C155)))</formula>
+  <conditionalFormatting sqref="C164:C171">
+    <cfRule type="containsText" dxfId="107" priority="29" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",C164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="47" operator="containsText" text="ice">
-      <formula>NOT(ISERROR(SEARCH("ice",C155)))</formula>
+    <cfRule type="containsText" dxfId="106" priority="30" operator="containsText" text="phev">
+      <formula>NOT(ISERROR(SEARCH("phev",C164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="44" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",C155)))</formula>
+    <cfRule type="containsText" dxfId="105" priority="31" operator="containsText" text="Drivephev">
+      <formula>NOT(ISERROR(SEARCH("Drivephev",C164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="46" operator="containsText" text="Drivephev">
-      <formula>NOT(ISERROR(SEARCH("Drivephev",C155)))</formula>
+    <cfRule type="containsText" dxfId="104" priority="32" operator="containsText" text="ice">
+      <formula>NOT(ISERROR(SEARCH("ice",C164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="45" operator="containsText" text="phev">
-      <formula>NOT(ISERROR(SEARCH("phev",C155)))</formula>
+    <cfRule type="containsText" dxfId="103" priority="33" operator="containsText" text="bev">
+      <formula>NOT(ISERROR(SEARCH("bev",C164)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C163:C173">
-    <cfRule type="containsText" dxfId="131" priority="38" operator="containsText" text="bev">
-      <formula>NOT(ISERROR(SEARCH("bev",C163)))</formula>
+  <conditionalFormatting sqref="C177:C187">
+    <cfRule type="containsText" dxfId="102" priority="19" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",C177)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="36" operator="containsText" text="Drivephev">
-      <formula>NOT(ISERROR(SEARCH("Drivephev",C163)))</formula>
+    <cfRule type="containsText" dxfId="101" priority="20" operator="containsText" text="phev">
+      <formula>NOT(ISERROR(SEARCH("phev",C177)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="35" operator="containsText" text="phev">
-      <formula>NOT(ISERROR(SEARCH("phev",C163)))</formula>
+    <cfRule type="containsText" dxfId="100" priority="21" operator="containsText" text="Drivephev">
+      <formula>NOT(ISERROR(SEARCH("Drivephev",C177)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="34" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",C163)))</formula>
+    <cfRule type="containsText" dxfId="99" priority="22" operator="containsText" text="ice">
+      <formula>NOT(ISERROR(SEARCH("ice",C177)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="37" operator="containsText" text="ice">
-      <formula>NOT(ISERROR(SEARCH("ice",C163)))</formula>
+    <cfRule type="containsText" dxfId="98" priority="23" operator="containsText" text="bev">
+      <formula>NOT(ISERROR(SEARCH("bev",C177)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C166:C173">
-    <cfRule type="containsText" dxfId="126" priority="29" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",C166)))</formula>
+  <conditionalFormatting sqref="C180:C187">
+    <cfRule type="containsText" dxfId="97" priority="14" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",C180)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="33" operator="containsText" text="bev">
-      <formula>NOT(ISERROR(SEARCH("bev",C166)))</formula>
+    <cfRule type="containsText" dxfId="96" priority="15" operator="containsText" text="phev">
+      <formula>NOT(ISERROR(SEARCH("phev",C180)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="32" operator="containsText" text="ice">
-      <formula>NOT(ISERROR(SEARCH("ice",C166)))</formula>
+    <cfRule type="containsText" dxfId="95" priority="16" operator="containsText" text="Drivephev">
+      <formula>NOT(ISERROR(SEARCH("Drivephev",C180)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="31" operator="containsText" text="Drivephev">
-      <formula>NOT(ISERROR(SEARCH("Drivephev",C166)))</formula>
+    <cfRule type="containsText" dxfId="94" priority="17" operator="containsText" text="ice">
+      <formula>NOT(ISERROR(SEARCH("ice",C180)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="30" operator="containsText" text="phev">
-      <formula>NOT(ISERROR(SEARCH("phev",C166)))</formula>
+    <cfRule type="containsText" dxfId="93" priority="18" operator="containsText" text="bev">
+      <formula>NOT(ISERROR(SEARCH("bev",C180)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C179:C189">
-    <cfRule type="containsText" dxfId="121" priority="19" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",C179)))</formula>
+  <conditionalFormatting sqref="C193:C195">
+    <cfRule type="containsText" dxfId="92" priority="9" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",C193)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="20" operator="containsText" text="phev">
-      <formula>NOT(ISERROR(SEARCH("phev",C179)))</formula>
+    <cfRule type="containsText" dxfId="91" priority="10" operator="containsText" text="phev">
+      <formula>NOT(ISERROR(SEARCH("phev",C193)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="21" operator="containsText" text="Drivephev">
-      <formula>NOT(ISERROR(SEARCH("Drivephev",C179)))</formula>
+    <cfRule type="containsText" dxfId="90" priority="11" operator="containsText" text="Drivephev">
+      <formula>NOT(ISERROR(SEARCH("Drivephev",C193)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="22" operator="containsText" text="ice">
-      <formula>NOT(ISERROR(SEARCH("ice",C179)))</formula>
+    <cfRule type="containsText" dxfId="89" priority="12" operator="containsText" text="ice">
+      <formula>NOT(ISERROR(SEARCH("ice",C193)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="23" operator="containsText" text="bev">
-      <formula>NOT(ISERROR(SEARCH("bev",C179)))</formula>
+    <cfRule type="containsText" dxfId="88" priority="13" operator="containsText" text="bev">
+      <formula>NOT(ISERROR(SEARCH("bev",C193)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C182:C189">
-    <cfRule type="containsText" dxfId="116" priority="14" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",C182)))</formula>
+  <conditionalFormatting sqref="C204:C215 C217:C224">
+    <cfRule type="containsText" dxfId="87" priority="1" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",C204)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="15" operator="containsText" text="phev">
-      <formula>NOT(ISERROR(SEARCH("phev",C182)))</formula>
+    <cfRule type="containsText" dxfId="86" priority="2" operator="containsText" text="phev">
+      <formula>NOT(ISERROR(SEARCH("phev",C204)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="17" operator="containsText" text="ice">
-      <formula>NOT(ISERROR(SEARCH("ice",C182)))</formula>
+    <cfRule type="containsText" dxfId="85" priority="3" operator="containsText" text="Drivephev">
+      <formula>NOT(ISERROR(SEARCH("Drivephev",C204)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="18" operator="containsText" text="bev">
-      <formula>NOT(ISERROR(SEARCH("bev",C182)))</formula>
+    <cfRule type="containsText" dxfId="84" priority="4" operator="containsText" text="ice">
+      <formula>NOT(ISERROR(SEARCH("ice",C204)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="16" operator="containsText" text="Drivephev">
-      <formula>NOT(ISERROR(SEARCH("Drivephev",C182)))</formula>
+    <cfRule type="containsText" dxfId="83" priority="5" operator="containsText" text="bev">
+      <formula>NOT(ISERROR(SEARCH("bev",C204)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C195:C197">
-    <cfRule type="containsText" dxfId="111" priority="10" operator="containsText" text="phev">
-      <formula>NOT(ISERROR(SEARCH("phev",C195)))</formula>
+  <conditionalFormatting sqref="I153:I155">
+    <cfRule type="containsText" dxfId="82" priority="125" operator="containsText" text="ldv">
+      <formula>NOT(ISERROR(SEARCH("ldv",I153)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="11" operator="containsText" text="Drivephev">
-      <formula>NOT(ISERROR(SEARCH("Drivephev",C195)))</formula>
+    <cfRule type="containsText" dxfId="81" priority="126" operator="containsText" text="bus">
+      <formula>NOT(ISERROR(SEARCH("bus",I153)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="12" operator="containsText" text="ice">
-      <formula>NOT(ISERROR(SEARCH("ice",C195)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="13" operator="containsText" text="bev">
-      <formula>NOT(ISERROR(SEARCH("bev",C195)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="9" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",C195)))</formula>
+    <cfRule type="containsText" dxfId="80" priority="127" operator="containsText" text="2w">
+      <formula>NOT(ISERROR(SEARCH("2w",I153)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I75">
-    <cfRule type="containsText" dxfId="106" priority="180" operator="containsText" text="2w">
-      <formula>NOT(ISERROR(SEARCH("2w",I2)))</formula>
+  <conditionalFormatting sqref="J153:J155">
+    <cfRule type="containsText" dxfId="79" priority="120" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",J153)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="178" operator="containsText" text="ldv">
-      <formula>NOT(ISERROR(SEARCH("ldv",I2)))</formula>
+    <cfRule type="containsText" dxfId="78" priority="121" operator="containsText" text="phev">
+      <formula>NOT(ISERROR(SEARCH("phev",J153)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="179" operator="containsText" text="bus">
-      <formula>NOT(ISERROR(SEARCH("bus",I2)))</formula>
+    <cfRule type="containsText" dxfId="77" priority="122" operator="containsText" text="Drivephev">
+      <formula>NOT(ISERROR(SEARCH("Drivephev",J153)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="123" operator="containsText" text="ice">
+      <formula>NOT(ISERROR(SEARCH("ice",J153)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="75" priority="124" operator="containsText" text="bev">
+      <formula>NOT(ISERROR(SEARCH("bev",J153)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I155:I157">
-    <cfRule type="containsText" dxfId="103" priority="125" operator="containsText" text="ldv">
-      <formula>NOT(ISERROR(SEARCH("ldv",I155)))</formula>
+  <conditionalFormatting sqref="J161:J171">
+    <cfRule type="containsText" dxfId="74" priority="102" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",J161)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="126" operator="containsText" text="bus">
-      <formula>NOT(ISERROR(SEARCH("bus",I155)))</formula>
+    <cfRule type="containsText" dxfId="73" priority="103" operator="containsText" text="phev">
+      <formula>NOT(ISERROR(SEARCH("phev",J161)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="127" operator="containsText" text="2w">
-      <formula>NOT(ISERROR(SEARCH("2w",I155)))</formula>
+    <cfRule type="containsText" dxfId="72" priority="104" operator="containsText" text="Drivephev">
+      <formula>NOT(ISERROR(SEARCH("Drivephev",J161)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="71" priority="105" operator="containsText" text="ice">
+      <formula>NOT(ISERROR(SEARCH("ice",J161)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="106" operator="containsText" text="bev">
+      <formula>NOT(ISERROR(SEARCH("bev",J161)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J75">
-    <cfRule type="containsText" dxfId="100" priority="175" operator="containsText" text="Drivephev">
-      <formula>NOT(ISERROR(SEARCH("Drivephev",J2)))</formula>
+  <conditionalFormatting sqref="J164:J171">
+    <cfRule type="containsText" dxfId="69" priority="97" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",J164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="173" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",J2)))</formula>
+    <cfRule type="containsText" dxfId="68" priority="98" operator="containsText" text="phev">
+      <formula>NOT(ISERROR(SEARCH("phev",J164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="174" operator="containsText" text="phev">
-      <formula>NOT(ISERROR(SEARCH("phev",J2)))</formula>
+    <cfRule type="containsText" dxfId="67" priority="99" operator="containsText" text="Drivephev">
+      <formula>NOT(ISERROR(SEARCH("Drivephev",J164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="176" operator="containsText" text="ice">
-      <formula>NOT(ISERROR(SEARCH("ice",J2)))</formula>
+    <cfRule type="containsText" dxfId="66" priority="100" operator="containsText" text="ice">
+      <formula>NOT(ISERROR(SEARCH("ice",J164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="177" operator="containsText" text="bev">
-      <formula>NOT(ISERROR(SEARCH("bev",J2)))</formula>
+    <cfRule type="containsText" dxfId="65" priority="101" operator="containsText" text="bev">
+      <formula>NOT(ISERROR(SEARCH("bev",J164)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J155:J157">
-    <cfRule type="containsText" dxfId="95" priority="120" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",J155)))</formula>
+  <conditionalFormatting sqref="J177:J187">
+    <cfRule type="containsText" dxfId="64" priority="67" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",J177)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="121" operator="containsText" text="phev">
-      <formula>NOT(ISERROR(SEARCH("phev",J155)))</formula>
+    <cfRule type="containsText" dxfId="63" priority="68" operator="containsText" text="phev">
+      <formula>NOT(ISERROR(SEARCH("phev",J177)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="122" operator="containsText" text="Drivephev">
-      <formula>NOT(ISERROR(SEARCH("Drivephev",J155)))</formula>
+    <cfRule type="containsText" dxfId="62" priority="69" operator="containsText" text="Drivephev">
+      <formula>NOT(ISERROR(SEARCH("Drivephev",J177)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="123" operator="containsText" text="ice">
-      <formula>NOT(ISERROR(SEARCH("ice",J155)))</formula>
+    <cfRule type="containsText" dxfId="61" priority="70" operator="containsText" text="ice">
+      <formula>NOT(ISERROR(SEARCH("ice",J177)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="124" operator="containsText" text="bev">
-      <formula>NOT(ISERROR(SEARCH("bev",J155)))</formula>
+    <cfRule type="containsText" dxfId="60" priority="71" operator="containsText" text="bev">
+      <formula>NOT(ISERROR(SEARCH("bev",J177)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J163:J173">
-    <cfRule type="containsText" dxfId="90" priority="102" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",J163)))</formula>
+  <conditionalFormatting sqref="J180:J187">
+    <cfRule type="containsText" dxfId="59" priority="62" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",J180)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="106" operator="containsText" text="bev">
-      <formula>NOT(ISERROR(SEARCH("bev",J163)))</formula>
+    <cfRule type="containsText" dxfId="58" priority="63" operator="containsText" text="phev">
+      <formula>NOT(ISERROR(SEARCH("phev",J180)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="105" operator="containsText" text="ice">
-      <formula>NOT(ISERROR(SEARCH("ice",J163)))</formula>
+    <cfRule type="containsText" dxfId="57" priority="64" operator="containsText" text="Drivephev">
+      <formula>NOT(ISERROR(SEARCH("Drivephev",J180)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="104" operator="containsText" text="Drivephev">
-      <formula>NOT(ISERROR(SEARCH("Drivephev",J163)))</formula>
+    <cfRule type="containsText" dxfId="56" priority="65" operator="containsText" text="ice">
+      <formula>NOT(ISERROR(SEARCH("ice",J180)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="103" operator="containsText" text="phev">
-      <formula>NOT(ISERROR(SEARCH("phev",J163)))</formula>
+    <cfRule type="containsText" dxfId="55" priority="66" operator="containsText" text="bev">
+      <formula>NOT(ISERROR(SEARCH("bev",J180)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J166:J173">
-    <cfRule type="containsText" dxfId="85" priority="101" operator="containsText" text="bev">
-      <formula>NOT(ISERROR(SEARCH("bev",J166)))</formula>
+  <conditionalFormatting sqref="J193:J195">
+    <cfRule type="containsText" dxfId="54" priority="57" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",J193)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="100" operator="containsText" text="ice">
-      <formula>NOT(ISERROR(SEARCH("ice",J166)))</formula>
+    <cfRule type="containsText" dxfId="53" priority="58" operator="containsText" text="phev">
+      <formula>NOT(ISERROR(SEARCH("phev",J193)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="99" operator="containsText" text="Drivephev">
-      <formula>NOT(ISERROR(SEARCH("Drivephev",J166)))</formula>
+    <cfRule type="containsText" dxfId="52" priority="59" operator="containsText" text="Drivephev">
+      <formula>NOT(ISERROR(SEARCH("Drivephev",J193)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="98" operator="containsText" text="phev">
-      <formula>NOT(ISERROR(SEARCH("phev",J166)))</formula>
+    <cfRule type="containsText" dxfId="51" priority="60" operator="containsText" text="ice">
+      <formula>NOT(ISERROR(SEARCH("ice",J193)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="97" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",J166)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J179:J189">
-    <cfRule type="containsText" dxfId="80" priority="71" operator="containsText" text="bev">
-      <formula>NOT(ISERROR(SEARCH("bev",J179)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="70" operator="containsText" text="ice">
-      <formula>NOT(ISERROR(SEARCH("ice",J179)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="69" operator="containsText" text="Drivephev">
-      <formula>NOT(ISERROR(SEARCH("Drivephev",J179)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="68" operator="containsText" text="phev">
-      <formula>NOT(ISERROR(SEARCH("phev",J179)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="67" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",J179)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J182:J189">
-    <cfRule type="containsText" dxfId="75" priority="62" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",J182)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="65" operator="containsText" text="ice">
-      <formula>NOT(ISERROR(SEARCH("ice",J182)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="66" operator="containsText" text="bev">
-      <formula>NOT(ISERROR(SEARCH("bev",J182)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="64" operator="containsText" text="Drivephev">
-      <formula>NOT(ISERROR(SEARCH("Drivephev",J182)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="63" operator="containsText" text="phev">
-      <formula>NOT(ISERROR(SEARCH("phev",J182)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J195:J197">
-    <cfRule type="containsText" dxfId="70" priority="60" operator="containsText" text="ice">
-      <formula>NOT(ISERROR(SEARCH("ice",J195)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="61" operator="containsText" text="bev">
-      <formula>NOT(ISERROR(SEARCH("bev",J195)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="57" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",J195)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="58" operator="containsText" text="phev">
-      <formula>NOT(ISERROR(SEARCH("phev",J195)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="59" operator="containsText" text="Drivephev">
-      <formula>NOT(ISERROR(SEARCH("Drivephev",J195)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P66">
-    <cfRule type="containsText" dxfId="65" priority="171" operator="containsText" text="bus">
-      <formula>NOT(ISERROR(SEARCH("bus",P2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="172" operator="containsText" text="2w">
-      <formula>NOT(ISERROR(SEARCH("2w",P2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="170" operator="containsText" text="ldv">
-      <formula>NOT(ISERROR(SEARCH("ldv",P2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q66">
-    <cfRule type="containsText" dxfId="62" priority="168" operator="containsText" text="ice">
-      <formula>NOT(ISERROR(SEARCH("ice",Q2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="169" operator="containsText" text="bev">
-      <formula>NOT(ISERROR(SEARCH("bev",Q2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="165" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",Q2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="166" operator="containsText" text="phev">
-      <formula>NOT(ISERROR(SEARCH("phev",Q2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="167" operator="containsText" text="Drivephev">
-      <formula>NOT(ISERROR(SEARCH("Drivephev",Q2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B219:B226 B206:B217">
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="ldv">
-      <formula>NOT(ISERROR(SEARCH("ldv",B206)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="bus">
-      <formula>NOT(ISERROR(SEARCH("bus",B206)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="2w">
-      <formula>NOT(ISERROR(SEARCH("2w",B206)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C219:C226 C206:C217">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",C206)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="phev">
-      <formula>NOT(ISERROR(SEARCH("phev",C206)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Drivephev">
-      <formula>NOT(ISERROR(SEARCH("Drivephev",C206)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="ice">
-      <formula>NOT(ISERROR(SEARCH("ice",C206)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="bev">
-      <formula>NOT(ISERROR(SEARCH("bev",C206)))</formula>
+    <cfRule type="containsText" dxfId="50" priority="61" operator="containsText" text="bev">
+      <formula>NOT(ISERROR(SEARCH("bev",J193)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19797,8 +19525,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F386"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27552,174 +27280,174 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B234">
-    <cfRule type="containsText" dxfId="57" priority="7" operator="containsText" text="ldv">
+    <cfRule type="containsText" dxfId="49" priority="6" operator="containsText" text="ht">
+      <formula>NOT(ISERROR(SEARCH("ht",B1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="7" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="6" operator="containsText" text="ht">
-      <formula>NOT(ISERROR(SEARCH("ht",B1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="8" operator="containsText" text="bus">
+    <cfRule type="containsText" dxfId="47" priority="8" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="9" operator="containsText" text="2w">
+    <cfRule type="containsText" dxfId="46" priority="9" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B235:B1048576">
-    <cfRule type="containsText" dxfId="53" priority="51" operator="containsText" text="ldv">
+    <cfRule type="containsText" dxfId="45" priority="50" operator="containsText" text="ht">
+      <formula>NOT(ISERROR(SEARCH("ht",B235)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="51" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",B235)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="50" operator="containsText" text="ht">
-      <formula>NOT(ISERROR(SEARCH("ht",B235)))</formula>
+    <cfRule type="containsText" dxfId="43" priority="52" operator="containsText" text="bus">
+      <formula>NOT(ISERROR(SEARCH("bus",B235)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="53" operator="containsText" text="2w">
+    <cfRule type="containsText" dxfId="42" priority="53" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",B235)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="bus">
-      <formula>NOT(ISERROR(SEARCH("bus",B235)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B312:B386">
-    <cfRule type="containsText" dxfId="49" priority="26" operator="containsText" text="bus">
+    <cfRule type="containsText" dxfId="41" priority="24" operator="containsText" text="ht">
+      <formula>NOT(ISERROR(SEARCH("ht",B312)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="25" operator="containsText" text="ldv">
+      <formula>NOT(ISERROR(SEARCH("ldv",B312)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="26" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",B312)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="27" operator="containsText" text="2w">
+    <cfRule type="containsText" dxfId="38" priority="27" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",B312)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="24" operator="containsText" text="ht">
-      <formula>NOT(ISERROR(SEARCH("ht",B312)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="25" operator="containsText" text="ldv">
-      <formula>NOT(ISERROR(SEARCH("ldv",B312)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C234">
-    <cfRule type="containsText" dxfId="45" priority="2" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="2" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="3" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="4" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="34" priority="4" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="5" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",C1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C235:C1048576">
-    <cfRule type="containsText" dxfId="40" priority="47" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="32" priority="45" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",C235)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="46" operator="containsText" text="phev">
+      <formula>NOT(ISERROR(SEARCH("phev",C235)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="47" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",C235)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="49" operator="containsText" text="bev">
-      <formula>NOT(ISERROR(SEARCH("bev",C235)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="48" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="29" priority="48" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",C235)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="45" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",C235)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="46" operator="containsText" text="phev">
-      <formula>NOT(ISERROR(SEARCH("phev",C235)))</formula>
+    <cfRule type="containsText" dxfId="28" priority="49" operator="containsText" text="bev">
+      <formula>NOT(ISERROR(SEARCH("bev",C235)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C312:C386">
-    <cfRule type="containsText" dxfId="35" priority="22" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="27" priority="19" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",C312)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="20" operator="containsText" text="phev">
+      <formula>NOT(ISERROR(SEARCH("phev",C312)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="21" operator="containsText" text="Drivephev">
+      <formula>NOT(ISERROR(SEARCH("Drivephev",C312)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="22" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",C312)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="23" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",C312)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="20" operator="containsText" text="phev">
-      <formula>NOT(ISERROR(SEARCH("phev",C312)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="21" operator="containsText" text="Drivephev">
-      <formula>NOT(ISERROR(SEARCH("Drivephev",C312)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="19" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",C312)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:I42">
-    <cfRule type="containsText" dxfId="30" priority="37" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="22" priority="37" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",I40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="38" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="21" priority="38" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",I40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="40" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="20" priority="39" operator="containsText" text="Drivephev">
+      <formula>NOT(ISERROR(SEARCH("Drivephev",I40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="40" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",I40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="41" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="18" priority="41" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",I40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="39" operator="containsText" text="Drivephev">
-      <formula>NOT(ISERROR(SEARCH("Drivephev",I40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77:I114 I122:I152">
-    <cfRule type="containsText" dxfId="25" priority="33" operator="containsText" text="ht">
+    <cfRule type="containsText" dxfId="17" priority="33" operator="containsText" text="ht">
       <formula>NOT(ISERROR(SEARCH("ht",I77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="34" operator="containsText" text="ldv">
+    <cfRule type="containsText" dxfId="16" priority="34" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",I77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="35" operator="containsText" text="bus">
+    <cfRule type="containsText" dxfId="15" priority="35" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",I77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="36" operator="containsText" text="2w">
+    <cfRule type="containsText" dxfId="14" priority="36" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",I77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I229:I234">
-    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="ht">
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="ht">
       <formula>NOT(ISERROR(SEARCH("ht",I229)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="ldv">
+    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",I229)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="2w">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="bus">
+      <formula>NOT(ISERROR(SEARCH("bus",I229)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="18" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",I229)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="bus">
-      <formula>NOT(ISERROR(SEARCH("bus",I229)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J77:J114 J122:J152">
-    <cfRule type="containsText" dxfId="17" priority="31" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="9" priority="28" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",J77)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="29" operator="containsText" text="phev">
+      <formula>NOT(ISERROR(SEARCH("phev",J77)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="30" operator="containsText" text="Drivephev">
+      <formula>NOT(ISERROR(SEARCH("Drivephev",J77)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="31" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",J77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="32" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="5" priority="32" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",J77)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="28" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",J77)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="phev">
-      <formula>NOT(ISERROR(SEARCH("phev",J77)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="30" operator="containsText" text="Drivephev">
-      <formula>NOT(ISERROR(SEARCH("Drivephev",J77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J229:J234">
-    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="4" priority="10" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",J229)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="3" priority="11" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",J229)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="2" priority="12" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",J229)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="1" priority="13" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",J229)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="14" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="0" priority="14" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",J229)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/input_data/vehicle_sales_share_inputs.xlsx
+++ b/input_data/vehicle_sales_share_inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\APERC\transport_model_9th_edition\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAA6A0D-1366-4E6B-8A3F-0D470DB1B4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6141DE3C-753B-45E7-A6AC-59260092017D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -313,18 +313,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -377,7 +371,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -27460,10 +27454,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27472,7 +27466,7 @@
     <col min="3" max="3" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -27489,7 +27483,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -27506,7 +27500,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -27523,7 +27517,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -27540,7 +27534,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -27557,7 +27551,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -27574,92 +27568,97 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E10" s="3">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E11" s="3">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>45</v>
       </c>
@@ -27675,8 +27674,9 @@
       <c r="E12" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>45</v>
       </c>
@@ -27692,281 +27692,298 @@
       <c r="E13" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>1.01</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E16" s="3">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E17" s="3">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="3">
         <v>1.01</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E19">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="E25" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E20">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="E26" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E21">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E23">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" t="s">
-        <v>47</v>
-      </c>
       <c r="E29" s="3">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -27981,9 +27998,10 @@
       <c r="E30" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -27998,93 +28016,99 @@
       <c r="E31" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="3">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E34" s="3">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E35" s="3">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E36">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -28097,8 +28121,8 @@
       <c r="D37" t="s">
         <v>46</v>
       </c>
-      <c r="E37">
-        <v>1.1000000000000001</v>
+      <c r="E37" s="3">
+        <v>1.05</v>
       </c>
     </row>
   </sheetData>

--- a/input_data/vehicle_sales_share_inputs.xlsx
+++ b/input_data/vehicle_sales_share_inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\APERC\transport_model_9th_edition\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152A1D4E-5E27-4BCF-B2AE-0F7D4CA97A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AEEDAA-E105-4D09-9A6B-5E594853B4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
     <author>Finbar Barton MAUNSELL</author>
   </authors>
   <commentList>
-    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{227CCC3C-2854-48AD-AE06-1AAA8A0C6BB0}">
+    <comment ref="A31" authorId="0" shapeId="0" xr:uid="{227CCC3C-2854-48AD-AE06-1AAA8A0C6BB0}">
       <text>
         <r>
           <rPr>
@@ -76,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{E5D08FE9-74F3-4263-B613-55AC7A34A9E0}">
+    <comment ref="A69" authorId="0" shapeId="0" xr:uid="{E5D08FE9-74F3-4263-B613-55AC7A34A9E0}">
       <text>
         <r>
           <rPr>
@@ -10625,11 +10625,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337C5599-DB15-4FEA-8C44-5AEC0C459BB0}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10657,7 +10656,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -10680,7 +10679,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -10703,7 +10702,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -10726,7 +10725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -10749,7 +10748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -10772,7 +10771,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -10795,7 +10794,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -10818,7 +10817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -10841,7 +10840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -10864,7 +10863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -10887,7 +10886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -10910,7 +10909,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -10933,7 +10932,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -10956,7 +10955,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -10979,7 +10978,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -11002,7 +11001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -11025,7 +11024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -11048,7 +11047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -11071,7 +11070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -11094,7 +11093,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -11117,7 +11116,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -11140,7 +11139,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -11163,7 +11162,7 @@
         <v>0.55999999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -11186,7 +11185,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -11209,7 +11208,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -11232,7 +11231,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -11255,7 +11254,7 @@
         <v>0.48999999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -11278,7 +11277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -11301,7 +11300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -11324,7 +11323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -11347,7 +11346,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -11370,7 +11369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -11393,7 +11392,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -11416,7 +11415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -11439,7 +11438,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -11462,7 +11461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -11485,7 +11484,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -11508,7 +11507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -11531,7 +11530,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -11554,7 +11553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -11945,7 +11944,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -11968,7 +11967,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>2</v>
       </c>
@@ -11991,7 +11990,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -12014,7 +12013,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -12037,7 +12036,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -12060,7 +12059,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -12083,7 +12082,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -12106,7 +12105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -12129,7 +12128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -12152,7 +12151,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -12175,7 +12174,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -12198,7 +12197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -12221,7 +12220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -12244,7 +12243,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -12267,7 +12266,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -12290,7 +12289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>2</v>
       </c>
@@ -12313,7 +12312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -12336,7 +12335,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -12359,7 +12358,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -12382,7 +12381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -12405,7 +12404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -12428,7 +12427,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -12451,7 +12450,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -12474,7 +12473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -12497,7 +12496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -12520,7 +12519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -12543,7 +12542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -12566,7 +12565,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -12589,7 +12588,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -12612,7 +12611,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -12635,7 +12634,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -12658,7 +12657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -12681,7 +12680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -12704,7 +12703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -12727,7 +12726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -12750,7 +12749,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -12773,7 +12772,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -12796,7 +12795,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>5</v>
       </c>
@@ -12819,7 +12818,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -12842,7 +12841,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -12865,7 +12864,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -12888,7 +12887,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -12911,7 +12910,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -12934,7 +12933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -12957,7 +12956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -12980,7 +12979,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -13003,7 +13002,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -13026,7 +13025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -13049,7 +13048,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -13072,7 +13071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -13095,7 +13094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -13118,7 +13117,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -13141,7 +13140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -13164,7 +13163,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -13187,7 +13186,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -13210,7 +13209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -13233,7 +13232,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -13256,7 +13255,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -13279,7 +13278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -13302,7 +13301,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -13693,7 +13692,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>5</v>
       </c>
@@ -13716,7 +13715,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>5</v>
       </c>
@@ -13739,7 +13738,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -13762,7 +13761,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -13785,7 +13784,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>5</v>
       </c>
@@ -13808,7 +13807,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>5</v>
       </c>
@@ -13831,7 +13830,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -13854,7 +13853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -13877,7 +13876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -13900,7 +13899,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>5</v>
       </c>
@@ -13923,7 +13922,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>5</v>
       </c>
@@ -13946,7 +13945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>5</v>
       </c>
@@ -13969,7 +13968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>5</v>
       </c>
@@ -13992,7 +13991,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -14015,7 +14014,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>5</v>
       </c>
@@ -14038,7 +14037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>5</v>
       </c>
@@ -14061,7 +14060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>39</v>
       </c>
@@ -14084,7 +14083,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>39</v>
       </c>
@@ -14107,7 +14106,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>39</v>
       </c>
@@ -14130,7 +14129,7 @@
         <v>0.64000000000000012</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>39</v>
       </c>
@@ -14153,7 +14152,7 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>39</v>
       </c>
@@ -14176,7 +14175,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>39</v>
       </c>
@@ -14199,7 +14198,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>39</v>
       </c>
@@ -14222,7 +14221,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>39</v>
       </c>
@@ -14245,7 +14244,7 @@
         <v>0.55999999999999994</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>39</v>
       </c>
@@ -14268,7 +14267,7 @@
         <v>0.27999999999999997</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>39</v>
       </c>
@@ -14291,7 +14290,7 @@
         <v>2.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>39</v>
       </c>
@@ -14314,7 +14313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>39</v>
       </c>
@@ -14337,7 +14336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>39</v>
       </c>
@@ -14360,7 +14359,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>39</v>
       </c>
@@ -14383,7 +14382,7 @@
         <v>0.44000000000000006</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>39</v>
       </c>
@@ -14406,7 +14405,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>39</v>
       </c>
@@ -14429,7 +14428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>39</v>
       </c>
@@ -14452,7 +14451,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>39</v>
       </c>
@@ -14475,7 +14474,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>39</v>
       </c>
@@ -14498,7 +14497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>39</v>
       </c>
@@ -14521,7 +14520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>39</v>
       </c>
@@ -14544,7 +14543,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>39</v>
       </c>
@@ -14567,7 +14566,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>39</v>
       </c>
@@ -14590,7 +14589,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>39</v>
       </c>
@@ -14613,7 +14612,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>39</v>
       </c>
@@ -14636,7 +14635,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>39</v>
       </c>
@@ -14659,7 +14658,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>39</v>
       </c>
@@ -14682,7 +14681,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>39</v>
       </c>
@@ -14705,7 +14704,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>39</v>
       </c>
@@ -14728,7 +14727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>39</v>
       </c>
@@ -14751,7 +14750,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>39</v>
       </c>
@@ -14774,7 +14773,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>7</v>
       </c>
@@ -14797,7 +14796,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -14820,7 +14819,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>7</v>
       </c>
@@ -14843,7 +14842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>7</v>
       </c>
@@ -14866,7 +14865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>7</v>
       </c>
@@ -14889,7 +14888,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>7</v>
       </c>
@@ -14912,7 +14911,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>7</v>
       </c>
@@ -14935,7 +14934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -14958,7 +14957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -14981,7 +14980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>7</v>
       </c>
@@ -15004,7 +15003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>7</v>
       </c>
@@ -15027,7 +15026,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -15050,7 +15049,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>7</v>
       </c>
@@ -15073,7 +15072,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>7</v>
       </c>
@@ -15096,7 +15095,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>7</v>
       </c>
@@ -15119,7 +15118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>7</v>
       </c>
@@ -15142,7 +15141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>7</v>
       </c>
@@ -15165,7 +15164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>7</v>
       </c>
@@ -15188,7 +15187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>7</v>
       </c>
@@ -15211,7 +15210,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>7</v>
       </c>
@@ -15234,7 +15233,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>7</v>
       </c>
@@ -15257,7 +15256,7 @@
         <v>0.55999999999999994</v>
       </c>
     </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>7</v>
       </c>
@@ -15280,7 +15279,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -15303,7 +15302,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>7</v>
       </c>
@@ -15326,7 +15325,7 @@
         <v>5.6000000000000008E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>7</v>
       </c>
@@ -15349,7 +15348,7 @@
         <v>2.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>7</v>
       </c>
@@ -15372,7 +15371,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>7</v>
       </c>
@@ -15395,7 +15394,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>7</v>
       </c>
@@ -15418,7 +15417,7 @@
         <v>0.48999999999999994</v>
       </c>
     </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>7</v>
       </c>
@@ -15441,7 +15440,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>7</v>
       </c>
@@ -15464,7 +15463,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>7</v>
       </c>
@@ -15487,7 +15486,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>7</v>
       </c>
@@ -15510,7 +15509,7 @@
         <v>2.4500000000000001E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>7</v>
       </c>
@@ -15533,7 +15532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>7</v>
       </c>
@@ -15556,7 +15555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>7</v>
       </c>
@@ -15579,7 +15578,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>7</v>
       </c>
@@ -15602,7 +15601,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>7</v>
       </c>
@@ -15625,7 +15624,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>7</v>
       </c>
@@ -15648,7 +15647,7 @@
         <v>7.7000000000000013E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>7</v>
       </c>
@@ -15671,7 +15670,7 @@
         <v>3.8500000000000006E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>7</v>
       </c>
@@ -15694,7 +15693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>7</v>
       </c>
@@ -15717,7 +15716,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>7</v>
       </c>
@@ -15740,7 +15739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>7</v>
       </c>
@@ -15763,7 +15762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>7</v>
       </c>
@@ -15786,7 +15785,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -15809,7 +15808,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>7</v>
       </c>
@@ -15832,7 +15831,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>7</v>
       </c>
@@ -15855,7 +15854,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>7</v>
       </c>
@@ -15878,7 +15877,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>7</v>
       </c>
@@ -15901,7 +15900,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>7</v>
       </c>
@@ -15924,7 +15923,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>7</v>
       </c>
@@ -15947,7 +15946,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>7</v>
       </c>
@@ -15970,7 +15969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>7</v>
       </c>
@@ -15993,7 +15992,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>7</v>
       </c>
@@ -16384,7 +16383,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>7</v>
       </c>
@@ -16407,7 +16406,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>7</v>
       </c>
@@ -16430,7 +16429,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>7</v>
       </c>
@@ -16453,7 +16452,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>7</v>
       </c>
@@ -16476,7 +16475,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>7</v>
       </c>
@@ -16499,7 +16498,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>7</v>
       </c>
@@ -16522,7 +16521,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>7</v>
       </c>
@@ -16545,7 +16544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>7</v>
       </c>
@@ -16568,7 +16567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>7</v>
       </c>
@@ -16591,7 +16590,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>7</v>
       </c>
@@ -16614,7 +16613,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>7</v>
       </c>
@@ -16637,7 +16636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>7</v>
       </c>
@@ -16660,7 +16659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>7</v>
       </c>
@@ -16683,7 +16682,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>7</v>
       </c>
@@ -16706,7 +16705,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>7</v>
       </c>
@@ -16729,7 +16728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>7</v>
       </c>
@@ -16752,7 +16751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>15</v>
       </c>
@@ -16775,7 +16774,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>15</v>
       </c>
@@ -16798,7 +16797,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>15</v>
       </c>
@@ -16821,7 +16820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>15</v>
       </c>
@@ -16844,7 +16843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>15</v>
       </c>
@@ -16867,7 +16866,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>15</v>
       </c>
@@ -16890,7 +16889,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>15</v>
       </c>
@@ -16913,7 +16912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>15</v>
       </c>
@@ -16936,7 +16935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>15</v>
       </c>
@@ -16959,7 +16958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>15</v>
       </c>
@@ -16982,7 +16981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>15</v>
       </c>
@@ -17005,7 +17004,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>15</v>
       </c>
@@ -17028,7 +17027,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>15</v>
       </c>
@@ -17051,7 +17050,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>15</v>
       </c>
@@ -17074,7 +17073,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>15</v>
       </c>
@@ -17097,7 +17096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>15</v>
       </c>
@@ -17120,7 +17119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>15</v>
       </c>
@@ -17143,7 +17142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>15</v>
       </c>
@@ -17166,7 +17165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>15</v>
       </c>
@@ -17189,7 +17188,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>15</v>
       </c>
@@ -17212,7 +17211,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>15</v>
       </c>
@@ -17235,7 +17234,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>15</v>
       </c>
@@ -17258,7 +17257,7 @@
         <v>0.55999999999999994</v>
       </c>
     </row>
-    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>15</v>
       </c>
@@ -17281,7 +17280,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>15</v>
       </c>
@@ -17304,7 +17303,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>15</v>
       </c>
@@ -17327,7 +17326,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>15</v>
       </c>
@@ -17350,7 +17349,7 @@
         <v>0.48999999999999994</v>
       </c>
     </row>
-    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>15</v>
       </c>
@@ -17373,7 +17372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>15</v>
       </c>
@@ -17396,7 +17395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>15</v>
       </c>
@@ -17419,7 +17418,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>15</v>
       </c>
@@ -17442,7 +17441,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>15</v>
       </c>
@@ -17465,7 +17464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>15</v>
       </c>
@@ -17488,7 +17487,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>15</v>
       </c>
@@ -17511,7 +17510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>15</v>
       </c>
@@ -17534,7 +17533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>15</v>
       </c>
@@ -17557,7 +17556,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>15</v>
       </c>
@@ -17580,7 +17579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>15</v>
       </c>
@@ -17603,7 +17602,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>15</v>
       </c>
@@ -17626,7 +17625,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>15</v>
       </c>
@@ -17649,7 +17648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>15</v>
       </c>
@@ -17672,7 +17671,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>15</v>
       </c>
@@ -17695,7 +17694,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>15</v>
       </c>
@@ -17718,7 +17717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>15</v>
       </c>
@@ -17741,7 +17740,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>15</v>
       </c>
@@ -18132,7 +18131,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>15</v>
       </c>
@@ -18155,7 +18154,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>15</v>
       </c>
@@ -18178,7 +18177,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="329" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>15</v>
       </c>
@@ -18201,7 +18200,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="330" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>15</v>
       </c>
@@ -18224,7 +18223,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="331" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>15</v>
       </c>
@@ -18247,7 +18246,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>15</v>
       </c>
@@ -18270,7 +18269,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="333" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>15</v>
       </c>
@@ -18293,7 +18292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>15</v>
       </c>
@@ -18316,7 +18315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>15</v>
       </c>
@@ -18339,7 +18338,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>15</v>
       </c>
@@ -18362,7 +18361,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>15</v>
       </c>
@@ -18385,7 +18384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>15</v>
       </c>
@@ -18408,7 +18407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>15</v>
       </c>
@@ -18431,7 +18430,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>15</v>
       </c>
@@ -18454,7 +18453,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>15</v>
       </c>
@@ -18477,7 +18476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>15</v>
       </c>
@@ -18500,7 +18499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>25</v>
       </c>
@@ -18523,7 +18522,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>25</v>
       </c>
@@ -18546,7 +18545,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>25</v>
       </c>
@@ -18569,7 +18568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>25</v>
       </c>
@@ -18592,7 +18591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>25</v>
       </c>
@@ -18615,7 +18614,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="348" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>25</v>
       </c>
@@ -18638,7 +18637,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>25</v>
       </c>
@@ -18661,7 +18660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>25</v>
       </c>
@@ -18684,7 +18683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>25</v>
       </c>
@@ -18707,7 +18706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>25</v>
       </c>
@@ -18730,7 +18729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>25</v>
       </c>
@@ -18753,7 +18752,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>25</v>
       </c>
@@ -18776,7 +18775,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>25</v>
       </c>
@@ -18799,7 +18798,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>25</v>
       </c>
@@ -18822,7 +18821,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>25</v>
       </c>
@@ -18845,7 +18844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>25</v>
       </c>
@@ -18868,7 +18867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>25</v>
       </c>
@@ -18891,7 +18890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>25</v>
       </c>
@@ -18914,7 +18913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>25</v>
       </c>
@@ -18937,7 +18936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>25</v>
       </c>
@@ -18960,7 +18959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>25</v>
       </c>
@@ -18983,7 +18982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>25</v>
       </c>
@@ -19006,7 +19005,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>25</v>
       </c>
@@ -19029,7 +19028,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>25</v>
       </c>
@@ -19052,7 +19051,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>25</v>
       </c>
@@ -19075,7 +19074,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>25</v>
       </c>
@@ -19098,7 +19097,7 @@
         <v>9.8999999999999999E-4</v>
       </c>
     </row>
-    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>25</v>
       </c>
@@ -19121,7 +19120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>25</v>
       </c>
@@ -19144,7 +19143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>25</v>
       </c>
@@ -19167,7 +19166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>25</v>
       </c>
@@ -19190,7 +19189,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>25</v>
       </c>
@@ -19213,7 +19212,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>25</v>
       </c>
@@ -19236,7 +19235,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>25</v>
       </c>
@@ -19259,7 +19258,7 @@
         <v>6.9999999999999993E-2</v>
       </c>
     </row>
-    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>25</v>
       </c>
@@ -19282,7 +19281,7 @@
         <v>7.6999999999999996E-4</v>
       </c>
     </row>
-    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>25</v>
       </c>
@@ -19305,7 +19304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>25</v>
       </c>
@@ -19328,7 +19327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>25</v>
       </c>
@@ -19351,7 +19350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>25</v>
       </c>
@@ -19374,7 +19373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>25</v>
       </c>
@@ -19397,7 +19396,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>25</v>
       </c>
@@ -19420,7 +19419,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>25</v>
       </c>
@@ -19443,7 +19442,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>25</v>
       </c>
@@ -19466,7 +19465,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>25</v>
       </c>
@@ -19489,7 +19488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>25</v>
       </c>
@@ -19512,7 +19511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>25</v>
       </c>
@@ -19535,7 +19534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>25</v>
       </c>
@@ -19558,7 +19557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>25</v>
       </c>
@@ -19581,7 +19580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>25</v>
       </c>
@@ -19604,7 +19603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>25</v>
       </c>
@@ -19627,7 +19626,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>25</v>
       </c>
@@ -19650,7 +19649,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>25</v>
       </c>
@@ -19673,7 +19672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>25</v>
       </c>
@@ -19696,7 +19695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>25</v>
       </c>
@@ -19719,7 +19718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>25</v>
       </c>
@@ -19742,7 +19741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>25</v>
       </c>
@@ -19765,7 +19764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>25</v>
       </c>
@@ -19788,7 +19787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>25</v>
       </c>
@@ -19811,7 +19810,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="400" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>25</v>
       </c>
@@ -19834,7 +19833,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>25</v>
       </c>
@@ -19857,7 +19856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>25</v>
       </c>
@@ -19880,7 +19879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>25</v>
       </c>
@@ -19903,7 +19902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>25</v>
       </c>
@@ -19926,7 +19925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>25</v>
       </c>
@@ -19949,7 +19948,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>25</v>
       </c>
@@ -19972,7 +19971,7 @@
         <v>2.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>25</v>
       </c>
@@ -19995,7 +19994,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="408" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>25</v>
       </c>
@@ -20018,7 +20017,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>25</v>
       </c>
@@ -20041,7 +20040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>25</v>
       </c>
@@ -20064,7 +20063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>25</v>
       </c>
@@ -20087,7 +20086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>25</v>
       </c>
@@ -20110,7 +20109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>25</v>
       </c>
@@ -20133,7 +20132,7 @@
         <v>4.8999999999999995E-2</v>
       </c>
     </row>
-    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>25</v>
       </c>
@@ -20156,7 +20155,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>25</v>
       </c>
@@ -20179,7 +20178,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>25</v>
       </c>
@@ -20202,7 +20201,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>25</v>
       </c>
@@ -20225,7 +20224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>25</v>
       </c>
@@ -20248,7 +20247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>25</v>
       </c>
@@ -20271,7 +20270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>25</v>
       </c>
@@ -20294,7 +20293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>25</v>
       </c>
@@ -20317,7 +20316,7 @@
         <v>6.9999999999999993E-2</v>
       </c>
     </row>
-    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>25</v>
       </c>
@@ -20340,7 +20339,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>25</v>
       </c>
@@ -20363,7 +20362,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>25</v>
       </c>
@@ -20754,7 +20753,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>25</v>
       </c>
@@ -20777,7 +20776,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="442" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>25</v>
       </c>
@@ -20800,7 +20799,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>25</v>
       </c>
@@ -20823,7 +20822,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>25</v>
       </c>
@@ -20846,7 +20845,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>25</v>
       </c>
@@ -20869,7 +20868,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="446" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>25</v>
       </c>
@@ -20892,7 +20891,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>25</v>
       </c>
@@ -20915,7 +20914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>25</v>
       </c>
@@ -20938,7 +20937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>25</v>
       </c>
@@ -20961,7 +20960,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>25</v>
       </c>
@@ -20984,7 +20983,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="451" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>25</v>
       </c>
@@ -21007,7 +21006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>25</v>
       </c>
@@ -21030,7 +21029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>25</v>
       </c>
@@ -21053,7 +21052,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="454" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>25</v>
       </c>
@@ -21076,7 +21075,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="455" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>25</v>
       </c>
@@ -21099,7 +21098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>25</v>
       </c>
@@ -21122,7 +21121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>39</v>
       </c>
@@ -21145,7 +21144,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="458" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>39</v>
       </c>
@@ -21168,7 +21167,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="459" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>39</v>
       </c>
@@ -21191,7 +21190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>39</v>
       </c>
@@ -21214,7 +21213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>39</v>
       </c>
@@ -21237,7 +21236,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="462" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>39</v>
       </c>
@@ -21260,7 +21259,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="463" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>39</v>
       </c>
@@ -21283,7 +21282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>39</v>
       </c>
@@ -21306,7 +21305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>39</v>
       </c>
@@ -21329,7 +21328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>39</v>
       </c>
@@ -21352,7 +21351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>39</v>
       </c>
@@ -21375,7 +21374,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="468" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>39</v>
       </c>
@@ -21398,7 +21397,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="469" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>39</v>
       </c>
@@ -21421,7 +21420,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="470" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>39</v>
       </c>
@@ -21444,7 +21443,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="471" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>39</v>
       </c>
@@ -21467,7 +21466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>39</v>
       </c>
@@ -21490,7 +21489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>39</v>
       </c>
@@ -21513,7 +21512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>39</v>
       </c>
@@ -21904,7 +21903,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="491" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>39</v>
       </c>
@@ -21927,7 +21926,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="492" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>39</v>
       </c>
@@ -21950,7 +21949,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="493" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>39</v>
       </c>
@@ -21973,7 +21972,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>39</v>
       </c>
@@ -21996,7 +21995,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>39</v>
       </c>
@@ -22019,7 +22018,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="496" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>39</v>
       </c>
@@ -22042,7 +22041,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>39</v>
       </c>
@@ -22065,7 +22064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>39</v>
       </c>
@@ -22088,7 +22087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>39</v>
       </c>
@@ -22111,7 +22110,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="500" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>39</v>
       </c>
@@ -22134,7 +22133,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="501" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>39</v>
       </c>
@@ -22157,7 +22156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>39</v>
       </c>
@@ -22180,7 +22179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>39</v>
       </c>
@@ -22203,7 +22202,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>39</v>
       </c>
@@ -22226,7 +22225,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>39</v>
       </c>
@@ -22249,7 +22248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>39</v>
       </c>
@@ -22274,11 +22273,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G506" xr:uid="{337C5599-DB15-4FEA-8C44-5AEC0C459BB0}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="rail"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G456">
       <sortCondition ref="A1:A456"/>
     </sortState>
@@ -41703,7 +41697,7 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41741,36 +41735,36 @@
         <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
         <v>47</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
         <v>47</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -41778,39 +41772,39 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -41827,7 +41821,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -41835,10 +41829,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>66</v>
@@ -41847,7 +41841,7 @@
         <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -41858,7 +41852,7 @@
         <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>66</v>
@@ -41875,7 +41869,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
@@ -41935,10 +41929,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
         <v>67</v>
@@ -41955,10 +41949,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
         <v>67</v>
@@ -41978,16 +41972,16 @@
         <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
         <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -41998,16 +41992,16 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
         <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -42015,19 +42009,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
         <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -42035,19 +42029,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
         <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -42061,16 +42055,16 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -42081,16 +42075,16 @@
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19">
-        <v>1.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -42098,16 +42092,16 @@
         <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -42118,53 +42112,53 @@
         <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F21">
-        <v>1.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
         <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E22" t="s">
         <v>47</v>
       </c>
       <c r="F22">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
         <v>47</v>
@@ -42175,16 +42169,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E24" t="s">
         <v>47</v>
@@ -42195,7 +42189,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
@@ -42204,13 +42198,13 @@
         <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F25">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -42224,13 +42218,13 @@
         <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F26">
-        <v>0.99</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -42238,19 +42232,19 @@
         <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
         <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F27">
-        <v>1.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -42264,10 +42258,10 @@
         <v>65</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -42278,13 +42272,13 @@
         <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
         <v>65</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E29" t="s">
         <v>47</v>
@@ -42295,7 +42289,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
         <v>32</v>
@@ -42304,27 +42298,27 @@
         <v>65</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E30" t="s">
         <v>47</v>
       </c>
       <c r="F30">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
         <v>65</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E31" t="s">
         <v>47</v>
@@ -42335,7 +42329,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
@@ -42355,22 +42349,22 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
         <v>65</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F33">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -42378,13 +42372,13 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
         <v>65</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="E34" t="s">
         <v>46</v>
@@ -42404,13 +42398,13 @@
         <v>65</v>
       </c>
       <c r="D35" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F35">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -42418,19 +42412,19 @@
         <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C36" t="s">
         <v>65</v>
       </c>
       <c r="D36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -42444,13 +42438,13 @@
         <v>65</v>
       </c>
       <c r="D37" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E37" t="s">
         <v>46</v>
       </c>
       <c r="F37">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -42458,7 +42452,7 @@
         <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
         <v>65</v>
@@ -42487,10 +42481,10 @@
         <v>33</v>
       </c>
       <c r="E39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F39">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -42498,19 +42492,19 @@
         <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C40" t="s">
         <v>65</v>
       </c>
       <c r="D40" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F40">
-        <v>1.01</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -42524,13 +42518,13 @@
         <v>65</v>
       </c>
       <c r="D41" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E41" t="s">
         <v>46</v>
       </c>
       <c r="F41">
-        <v>1.05</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -42538,19 +42532,19 @@
         <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C42" t="s">
         <v>65</v>
       </c>
       <c r="D42" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="E42" t="s">
         <v>46</v>
       </c>
       <c r="F42">
-        <v>1.05</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -42561,70 +42555,70 @@
         <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D43" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F43">
-        <v>1.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B44" t="s">
         <v>32</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F44">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D45" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E45" t="s">
         <v>46</v>
       </c>
       <c r="F45">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B46" t="s">
         <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D46" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E46" t="s">
         <v>46</v>
@@ -42635,42 +42629,42 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D47" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E47" t="s">
         <v>46</v>
       </c>
       <c r="F47">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D48" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E48" t="s">
         <v>46</v>
       </c>
       <c r="F48">
-        <v>1.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -42681,16 +42675,16 @@
         <v>32</v>
       </c>
       <c r="C49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D49" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E49" t="s">
         <v>46</v>
       </c>
       <c r="F49">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -42701,16 +42695,16 @@
         <v>32</v>
       </c>
       <c r="C50" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D50" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E50" t="s">
         <v>46</v>
       </c>
       <c r="F50">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -42718,19 +42712,19 @@
         <v>25</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D51" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F51">
-        <v>1.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -42738,19 +42732,19 @@
         <v>25</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D52" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F52">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -42761,24 +42755,24 @@
         <v>32</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D53" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F53">
-        <v>1.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C54" t="s">
         <v>68</v>
@@ -42795,7 +42789,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B55" t="s">
         <v>31</v>
@@ -42807,7 +42801,7 @@
         <v>45</v>
       </c>
       <c r="E55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -42827,7 +42821,7 @@
         <v>45</v>
       </c>
       <c r="E56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -42838,7 +42832,7 @@
         <v>25</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C57" t="s">
         <v>68</v>
@@ -42847,7 +42841,7 @@
         <v>45</v>
       </c>
       <c r="E57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -42855,7 +42849,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B58" t="s">
         <v>32</v>
@@ -42867,7 +42861,7 @@
         <v>45</v>
       </c>
       <c r="E58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -42875,13 +42869,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D59" t="s">
         <v>45</v>
@@ -42898,10 +42892,10 @@
         <v>25</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D60" t="s">
         <v>45</v>
@@ -42921,7 +42915,7 @@
         <v>32</v>
       </c>
       <c r="C61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D61" t="s">
         <v>45</v>
@@ -42935,19 +42929,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D62" t="s">
         <v>45</v>
       </c>
       <c r="E62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -42955,22 +42949,22 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B63" t="s">
         <v>31</v>
       </c>
       <c r="C63" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D63" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E63" t="s">
         <v>46</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -42978,19 +42972,19 @@
         <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C64" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D64" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E64" t="s">
         <v>46</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -43001,53 +42995,53 @@
         <v>31</v>
       </c>
       <c r="C65" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D65" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E65" t="s">
         <v>46</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B66" t="s">
         <v>32</v>
       </c>
       <c r="C66" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D66" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E66" t="s">
         <v>46</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C67" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D67" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -43061,13 +43055,13 @@
         <v>32</v>
       </c>
       <c r="C68" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D68" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -43078,16 +43072,16 @@
         <v>25</v>
       </c>
       <c r="B69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C69" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D69" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -43095,16 +43089,16 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C70" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D70" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E70" t="s">
         <v>47</v>
@@ -43121,16 +43115,16 @@
         <v>31</v>
       </c>
       <c r="C71" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D71" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -43138,59 +43132,59 @@
         <v>25</v>
       </c>
       <c r="B72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C72" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D72" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C73" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D73" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E73" t="s">
         <v>47</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B74" t="s">
         <v>32</v>
       </c>
       <c r="C74" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D74" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E74" t="s">
         <v>47</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -43198,19 +43192,19 @@
         <v>25</v>
       </c>
       <c r="B75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C75" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D75" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -43221,22 +43215,22 @@
         <v>32</v>
       </c>
       <c r="C76" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D76" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F61" xr:uid="{00000000-0001-0000-0400-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F61">
-      <sortCondition ref="C1:C61"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F76">
+      <sortCondition ref="A1:A61"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F19">
@@ -43252,7 +43246,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/input_data/vehicle_sales_share_inputs.xlsx
+++ b/input_data/vehicle_sales_share_inputs.xlsx
@@ -8,9 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APERC\transport_model_9th_edition\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4EA537-F6F3-44EC-B86A-94F07F22B36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12ED4CD3-19FC-49A9-B672-3DA79A43C4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="889" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27045" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="889" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1755" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{78AE0BA8-0BAB-408C-B627-F0D0B6A6CF4A}"/>
   </bookViews>
   <sheets>
     <sheet name="regions_passenger" sheetId="1" r:id="rId1"/>
@@ -492,7 +493,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -533,21 +534,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="6"/>
       </font>
     </dxf>
@@ -565,9 +551,14 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -578,6 +569,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -643,6 +644,11 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
     </dxf>
@@ -659,6 +665,66 @@
     <dxf>
       <font>
         <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
       </font>
     </dxf>
     <dxf>
@@ -698,7 +764,272 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
       </font>
     </dxf>
     <dxf>
@@ -738,6 +1069,246 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="7"/>
       </font>
       <fill>
@@ -759,6 +1330,96 @@
     <dxf>
       <font>
         <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
       </font>
     </dxf>
     <dxf>
@@ -883,11 +1544,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -903,541 +1564,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1468,136 +1599,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2321,6 +2322,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -2512,6 +2514,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -2704,6 +2707,7 @@
     <sheetView topLeftCell="A277" workbookViewId="0">
       <selection sqref="A1:F393"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -10656,11 +10660,16 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G512"/>
   <sheetViews>
-    <sheetView topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="F199" sqref="F199"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="O242" sqref="O242"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="30.90625" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
@@ -14865,10 +14874,10 @@
         <v>2070</v>
       </c>
       <c r="F183">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G183">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.35">
@@ -14934,10 +14943,10 @@
         <v>2070</v>
       </c>
       <c r="F186">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G186">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.35">
@@ -15210,13 +15219,13 @@
         <v>2070</v>
       </c>
       <c r="F198">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="G198">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
         <v>7</v>
       </c>
@@ -15279,10 +15288,10 @@
         <v>2070</v>
       </c>
       <c r="F201" s="6">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="G201">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -15446,7 +15455,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
         <v>7</v>
       </c>
@@ -15676,7 +15685,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
         <v>7</v>
       </c>
@@ -16133,7 +16142,7 @@
         <v>0.05</v>
       </c>
       <c r="G238">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.35">
@@ -16202,7 +16211,7 @@
         <v>0.05</v>
       </c>
       <c r="G241">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.35">
@@ -16274,7 +16283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>7</v>
       </c>
@@ -16297,7 +16306,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>7</v>
       </c>
@@ -16320,7 +16329,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>7</v>
       </c>
@@ -16343,7 +16352,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>7</v>
       </c>
@@ -16366,7 +16375,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>7</v>
       </c>
@@ -16389,7 +16398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>7</v>
       </c>
@@ -16412,7 +16421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>7</v>
       </c>
@@ -16435,7 +16444,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>7</v>
       </c>
@@ -16458,7 +16467,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>7</v>
       </c>
@@ -16481,7 +16490,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>7</v>
       </c>
@@ -16504,7 +16513,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>7</v>
       </c>
@@ -16527,7 +16536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>7</v>
       </c>
@@ -16751,10 +16760,10 @@
         <v>2050</v>
       </c>
       <c r="F265">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G265">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.35">
@@ -16797,10 +16806,10 @@
         <v>2050</v>
       </c>
       <c r="F267">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G267">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.35">
@@ -22445,11 +22454,33 @@
         <filter val="North America"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="4">
+    <filterColumn colId="3">
       <filters>
-        <filter val="2050"/>
-        <filter val="2070"/>
-        <filter val="2100"/>
+        <filter val="air_av_gas"/>
+        <filter val="air_diesel"/>
+        <filter val="air_electric"/>
+        <filter val="air_fuel_oil"/>
+        <filter val="air_gasoline"/>
+        <filter val="air_hydrogen"/>
+        <filter val="air_jet_fuel"/>
+        <filter val="air_kerosene"/>
+        <filter val="air_lpg"/>
+        <filter val="rail_coal"/>
+        <filter val="rail_diesel"/>
+        <filter val="rail_electricity"/>
+        <filter val="rail_fuel_oil"/>
+        <filter val="rail_gasoline"/>
+        <filter val="rail_kerosene"/>
+        <filter val="rail_lpg"/>
+        <filter val="rail_natural_gas"/>
+        <filter val="ship_ammonia"/>
+        <filter val="ship_diesel"/>
+        <filter val="ship_electric"/>
+        <filter val="ship_fuel_oil"/>
+        <filter val="ship_gasoline"/>
+        <filter val="ship_kerosene"/>
+        <filter val="ship_lpg"/>
+        <filter val="ship_other_petroleum_products"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A181:G272">
@@ -22565,10 +22596,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09EB2682-BE80-4949-AB75-59FF57965C53}">
-  <dimension ref="A1:M477"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G477"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22:I22"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="1">
+      <selection activeCell="J480" sqref="J480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22600,7 +22635,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -22623,7 +22658,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -22646,7 +22681,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -22669,7 +22704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -22692,7 +22727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -22715,7 +22750,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -22738,7 +22773,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -22761,7 +22796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -22784,7 +22819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -22807,7 +22842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -22830,7 +22865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -22853,7 +22888,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -22876,7 +22911,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -22899,7 +22934,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -22922,7 +22957,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -22945,7 +22980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -22968,7 +23003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -22991,7 +23026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -23014,7 +23049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -23037,7 +23072,7 @@
         <v>0.72000000000000008</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -23060,7 +23095,7 @@
         <v>0.72000000000000008</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -23083,7 +23118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -23106,7 +23141,7 @@
         <v>0.22399999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -23129,7 +23164,7 @@
         <v>0.41600000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -23152,7 +23187,7 @@
         <v>0.48000000000000009</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -23175,7 +23210,7 @@
         <v>0.51200000000000012</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -23198,7 +23233,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -23221,7 +23256,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -23244,7 +23279,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -23267,7 +23302,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -23290,7 +23325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -23313,7 +23348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -23336,7 +23371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -23359,7 +23394,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -23382,7 +23417,7 @@
         <v>0.71500000000000008</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -23405,7 +23440,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -23428,7 +23463,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -23451,7 +23486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -23474,7 +23509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -23497,7 +23532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -23520,7 +23555,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -23543,7 +23578,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -23566,7 +23601,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -23589,7 +23624,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -23612,7 +23647,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -23635,7 +23670,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -23658,7 +23693,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -23681,7 +23716,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -23704,7 +23739,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -23727,7 +23762,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -23750,7 +23785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -23773,7 +23808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -23796,7 +23831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -23819,7 +23854,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -23842,7 +23877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -23865,7 +23900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -23888,7 +23923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -23911,7 +23946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -23934,7 +23969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -23957,7 +23992,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -23980,7 +24015,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -24003,7 +24038,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -24026,7 +24061,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -24049,7 +24084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -24072,7 +24107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -24095,7 +24130,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -24118,7 +24153,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -24141,7 +24176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -24164,7 +24199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -24187,7 +24222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -24210,7 +24245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -24233,7 +24268,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -24256,7 +24291,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -24279,7 +24314,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -24302,7 +24337,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -24325,7 +24360,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -24348,7 +24383,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -24371,7 +24406,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -24394,7 +24429,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -24417,7 +24452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -24440,7 +24475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -24463,7 +24498,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -24486,7 +24521,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -24509,7 +24544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -24532,7 +24567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -24555,7 +24590,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -24578,7 +24613,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -24601,7 +24636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -24624,7 +24659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>39</v>
       </c>
@@ -24647,7 +24682,7 @@
         <v>0.57600000000000007</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>39</v>
       </c>
@@ -24670,7 +24705,7 @@
         <v>0.57600000000000007</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>39</v>
       </c>
@@ -24693,7 +24728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>39</v>
       </c>
@@ -24716,7 +24751,7 @@
         <v>0.1792</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>39</v>
       </c>
@@ -24739,7 +24774,7 @@
         <v>0.33280000000000004</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>39</v>
       </c>
@@ -24762,7 +24797,7 @@
         <v>0.38400000000000012</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>39</v>
       </c>
@@ -24785,7 +24820,7 @@
         <v>0.40960000000000013</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>39</v>
       </c>
@@ -24808,7 +24843,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>39</v>
       </c>
@@ -24831,7 +24866,7 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>39</v>
       </c>
@@ -24854,7 +24889,7 @@
         <v>0.55999999999999994</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>39</v>
       </c>
@@ -24877,7 +24912,7 @@
         <v>0.72000000000000008</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>39</v>
       </c>
@@ -24900,7 +24935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>39</v>
       </c>
@@ -24923,7 +24958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>39</v>
       </c>
@@ -24946,7 +24981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>39</v>
       </c>
@@ -24969,7 +25004,7 @@
         <v>0.30800000000000005</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>39</v>
       </c>
@@ -24992,7 +25027,7 @@
         <v>0.57200000000000006</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>39</v>
       </c>
@@ -25015,7 +25050,7 @@
         <v>0.66000000000000014</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>39</v>
       </c>
@@ -25038,7 +25073,7 @@
         <v>0.70400000000000018</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>39</v>
       </c>
@@ -25061,7 +25096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>39</v>
       </c>
@@ -25084,7 +25119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>39</v>
       </c>
@@ -25107,7 +25142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>39</v>
       </c>
@@ -25130,7 +25165,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>39</v>
       </c>
@@ -25153,7 +25188,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>39</v>
       </c>
@@ -25176,7 +25211,7 @@
         <v>4.0000000000000008E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>39</v>
       </c>
@@ -25199,7 +25234,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>39</v>
       </c>
@@ -25222,7 +25257,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>39</v>
       </c>
@@ -25245,7 +25280,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>39</v>
       </c>
@@ -25268,7 +25303,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>39</v>
       </c>
@@ -25291,7 +25326,7 @@
         <v>4.0000000000000008E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>39</v>
       </c>
@@ -25314,7 +25349,7 @@
         <v>8.0000000000000016E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>39</v>
       </c>
@@ -25337,7 +25372,7 @@
         <v>0.16000000000000003</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>39</v>
       </c>
@@ -25360,7 +25395,7 @@
         <v>0.16000000000000003</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>39</v>
       </c>
@@ -25383,7 +25418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>39</v>
       </c>
@@ -25406,7 +25441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>39</v>
       </c>
@@ -25429,7 +25464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>39</v>
       </c>
@@ -25452,7 +25487,7 @@
         <v>8.0000000000000016E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>39</v>
       </c>
@@ -25475,7 +25510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>39</v>
       </c>
@@ -25498,7 +25533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>39</v>
       </c>
@@ -25535,7 +25570,7 @@
         <v>57</v>
       </c>
       <c r="E129">
-        <v>2050</v>
+        <v>2070</v>
       </c>
       <c r="F129" t="s">
         <v>71</v>
@@ -25555,16 +25590,16 @@
         <v>45</v>
       </c>
       <c r="D130" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E130">
         <v>2070</v>
       </c>
-      <c r="F130" t="s">
-        <v>71</v>
-      </c>
-      <c r="G130" t="s">
-        <v>71</v>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
@@ -25578,16 +25613,16 @@
         <v>45</v>
       </c>
       <c r="D131" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E131">
-        <v>2050</v>
+        <v>2070</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
@@ -25601,7 +25636,7 @@
         <v>45</v>
       </c>
       <c r="D132" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E132">
         <v>2070</v>
@@ -25624,16 +25659,16 @@
         <v>45</v>
       </c>
       <c r="D133" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E133">
-        <v>2050</v>
+        <v>2070</v>
       </c>
       <c r="F133">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="G133">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
@@ -25647,16 +25682,16 @@
         <v>45</v>
       </c>
       <c r="D134" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E134">
         <v>2070</v>
       </c>
       <c r="F134">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G134">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
@@ -25670,16 +25705,16 @@
         <v>45</v>
       </c>
       <c r="D135" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E135">
-        <v>2050</v>
-      </c>
-      <c r="F135">
-        <v>0</v>
-      </c>
-      <c r="G135">
-        <v>0</v>
+        <v>2070</v>
+      </c>
+      <c r="F135" t="s">
+        <v>71</v>
+      </c>
+      <c r="G135" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
@@ -25693,7 +25728,7 @@
         <v>45</v>
       </c>
       <c r="D136" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E136">
         <v>2070</v>
@@ -25716,10 +25751,10 @@
         <v>45</v>
       </c>
       <c r="D137" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E137">
-        <v>2050</v>
+        <v>2070</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -25733,13 +25768,13 @@
         <v>7</v>
       </c>
       <c r="B138" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C138" t="s">
         <v>45</v>
       </c>
       <c r="D138" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E138">
         <v>2070</v>
@@ -25756,22 +25791,22 @@
         <v>7</v>
       </c>
       <c r="B139" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C139" t="s">
         <v>45</v>
       </c>
       <c r="D139" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E139">
-        <v>2050</v>
-      </c>
-      <c r="F139">
-        <v>0.05</v>
-      </c>
-      <c r="G139">
-        <v>0.05</v>
+        <v>2070</v>
+      </c>
+      <c r="F139" t="s">
+        <v>71</v>
+      </c>
+      <c r="G139" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
@@ -25779,22 +25814,22 @@
         <v>7</v>
       </c>
       <c r="B140" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C140" t="s">
         <v>45</v>
       </c>
       <c r="D140" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E140">
         <v>2070</v>
       </c>
       <c r="F140">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="G140">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
@@ -25802,22 +25837,22 @@
         <v>7</v>
       </c>
       <c r="B141" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C141" t="s">
         <v>45</v>
       </c>
       <c r="D141" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E141">
-        <v>2050</v>
-      </c>
-      <c r="F141" t="s">
-        <v>71</v>
-      </c>
-      <c r="G141" t="s">
-        <v>71</v>
+        <v>2070</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
@@ -25825,13 +25860,13 @@
         <v>7</v>
       </c>
       <c r="B142" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C142" t="s">
         <v>45</v>
       </c>
       <c r="D142" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E142">
         <v>2070</v>
@@ -25848,16 +25883,16 @@
         <v>7</v>
       </c>
       <c r="B143" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C143" t="s">
         <v>45</v>
       </c>
       <c r="D143" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E143">
-        <v>2050</v>
+        <v>2070</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -25871,13 +25906,13 @@
         <v>7</v>
       </c>
       <c r="B144" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C144" t="s">
         <v>45</v>
       </c>
       <c r="D144" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E144">
         <v>2070</v>
@@ -25894,22 +25929,22 @@
         <v>7</v>
       </c>
       <c r="B145" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C145" t="s">
         <v>45</v>
       </c>
       <c r="D145" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E145">
-        <v>2050</v>
-      </c>
-      <c r="F145">
-        <v>0</v>
-      </c>
-      <c r="G145">
-        <v>0</v>
+        <v>2070</v>
+      </c>
+      <c r="F145" t="s">
+        <v>71</v>
+      </c>
+      <c r="G145" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
@@ -25917,25 +25952,25 @@
         <v>7</v>
       </c>
       <c r="B146" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C146" t="s">
         <v>45</v>
       </c>
       <c r="D146" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E146">
         <v>2070</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="G146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -25958,7 +25993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -25981,7 +26016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -26004,7 +26039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -26027,7 +26062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -26050,7 +26085,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -26073,7 +26108,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -26096,7 +26131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -26119,7 +26154,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -26142,7 +26177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -26165,7 +26200,7 @@
         <v>0.51200000000000012</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -26188,7 +26223,7 @@
         <v>0.48000000000000009</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -26211,7 +26246,7 @@
         <v>0.41600000000000004</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -26234,7 +26269,7 @@
         <v>0.22399999999999998</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>7</v>
       </c>
@@ -26257,7 +26292,7 @@
         <v>0.12800000000000003</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -26280,7 +26315,7 @@
         <v>6.4000000000000005E-4</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>7</v>
       </c>
@@ -26303,7 +26338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>7</v>
       </c>
@@ -26326,7 +26361,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>7</v>
       </c>
@@ -26349,7 +26384,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -26372,7 +26407,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -26395,7 +26430,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -26418,7 +26453,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>7</v>
       </c>
@@ -26441,7 +26476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -26464,7 +26499,7 @@
         <v>0.88000000000000012</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>7</v>
       </c>
@@ -26487,7 +26522,7 @@
         <v>0.82500000000000007</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>7</v>
       </c>
@@ -26510,7 +26545,7 @@
         <v>0.71500000000000008</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>7</v>
       </c>
@@ -26533,7 +26568,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>7</v>
       </c>
@@ -26556,7 +26591,7 @@
         <v>0.22000000000000003</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>7</v>
       </c>
@@ -26579,7 +26614,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>7</v>
       </c>
@@ -26602,7 +26637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>7</v>
       </c>
@@ -26625,7 +26660,7 @@
         <v>8.0000000000000016E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>7</v>
       </c>
@@ -26648,7 +26683,7 @@
         <v>4.0000000000000008E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>7</v>
       </c>
@@ -26671,7 +26706,7 @@
         <v>4.0000000000000008E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>7</v>
       </c>
@@ -26694,7 +26729,7 @@
         <v>4.0000000000000008E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>7</v>
       </c>
@@ -26717,7 +26752,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>7</v>
       </c>
@@ -26740,7 +26775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -26763,7 +26798,7 @@
         <v>8.0000000000000016E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>7</v>
       </c>
@@ -26786,7 +26821,7 @@
         <v>4.0000000000000008E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>7</v>
       </c>
@@ -26809,7 +26844,7 @@
         <v>4.0000000000000008E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>7</v>
       </c>
@@ -26832,7 +26867,7 @@
         <v>4.0000000000000008E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>7</v>
       </c>
@@ -26855,7 +26890,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>7</v>
       </c>
@@ -26878,7 +26913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -26901,7 +26936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -26924,7 +26959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>7</v>
       </c>
@@ -26947,7 +26982,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>7</v>
       </c>
@@ -26970,7 +27005,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -26993,7 +27028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>7</v>
       </c>
@@ -27016,50 +27051,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
         <v>7</v>
       </c>
       <c r="B194" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C194" t="s">
         <v>45</v>
       </c>
       <c r="D194" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E194">
-        <v>2050</v>
-      </c>
-      <c r="F194">
-        <v>0</v>
-      </c>
-      <c r="G194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2070</v>
+      </c>
+      <c r="F194" t="s">
+        <v>71</v>
+      </c>
+      <c r="G194" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
         <v>7</v>
       </c>
       <c r="B195" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C195" t="s">
         <v>45</v>
       </c>
       <c r="D195" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="E195">
         <v>2070</v>
       </c>
-      <c r="F195">
-        <v>0</v>
+      <c r="F195" s="6">
+        <v>0.2</v>
       </c>
       <c r="G195">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.35">
@@ -27067,22 +27102,22 @@
         <v>7</v>
       </c>
       <c r="B196" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C196" t="s">
         <v>45</v>
       </c>
       <c r="D196" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E196">
-        <v>2050</v>
-      </c>
-      <c r="F196" t="s">
-        <v>71</v>
-      </c>
-      <c r="G196" t="s">
-        <v>71</v>
+        <v>2070</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.35">
@@ -27090,13 +27125,13 @@
         <v>7</v>
       </c>
       <c r="B197" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C197" t="s">
         <v>45</v>
       </c>
       <c r="D197" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E197">
         <v>2070</v>
@@ -27113,22 +27148,22 @@
         <v>7</v>
       </c>
       <c r="B198" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C198" t="s">
         <v>45</v>
       </c>
       <c r="D198" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E198">
-        <v>2050</v>
+        <v>2070</v>
       </c>
       <c r="F198">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="G198">
-        <v>0.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.35">
@@ -27136,22 +27171,22 @@
         <v>7</v>
       </c>
       <c r="B199" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C199" t="s">
         <v>45</v>
       </c>
       <c r="D199" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="E199">
         <v>2070</v>
       </c>
-      <c r="F199">
-        <v>0.9</v>
-      </c>
-      <c r="G199">
-        <v>0.9</v>
+      <c r="F199" t="s">
+        <v>71</v>
+      </c>
+      <c r="G199" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.35">
@@ -27159,16 +27194,16 @@
         <v>7</v>
       </c>
       <c r="B200" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C200" t="s">
         <v>45</v>
       </c>
       <c r="D200" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E200">
-        <v>2050</v>
+        <v>2070</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -27182,22 +27217,22 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C201" t="s">
         <v>45</v>
       </c>
       <c r="D201" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E201">
-        <v>2070</v>
-      </c>
-      <c r="F201">
-        <v>0</v>
-      </c>
-      <c r="G201">
-        <v>0</v>
+        <v>2050</v>
+      </c>
+      <c r="F201" t="s">
+        <v>71</v>
+      </c>
+      <c r="G201" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.35">
@@ -27205,22 +27240,22 @@
         <v>7</v>
       </c>
       <c r="B202" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C202" t="s">
         <v>45</v>
       </c>
       <c r="D202" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="E202">
         <v>2050</v>
       </c>
-      <c r="F202" t="s">
-        <v>71</v>
-      </c>
-      <c r="G202" t="s">
-        <v>71</v>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.35">
@@ -27228,22 +27263,22 @@
         <v>7</v>
       </c>
       <c r="B203" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C203" t="s">
         <v>45</v>
       </c>
       <c r="D203" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E203">
-        <v>2070</v>
-      </c>
-      <c r="F203" t="s">
-        <v>71</v>
-      </c>
-      <c r="G203" t="s">
-        <v>71</v>
+        <v>2050</v>
+      </c>
+      <c r="F203">
+        <v>0.05</v>
+      </c>
+      <c r="G203">
+        <v>0.1</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.35">
@@ -27251,13 +27286,13 @@
         <v>7</v>
       </c>
       <c r="B204" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C204" t="s">
         <v>45</v>
       </c>
       <c r="D204" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E204">
         <v>2050</v>
@@ -27274,16 +27309,16 @@
         <v>7</v>
       </c>
       <c r="B205" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C205" t="s">
         <v>45</v>
       </c>
       <c r="D205" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E205">
-        <v>2070</v>
+        <v>2050</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -27297,22 +27332,22 @@
         <v>7</v>
       </c>
       <c r="B206" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C206" t="s">
         <v>45</v>
       </c>
       <c r="D206" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E206">
         <v>2050</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="G206">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.35">
@@ -27320,22 +27355,22 @@
         <v>7</v>
       </c>
       <c r="B207" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C207" t="s">
         <v>45</v>
       </c>
       <c r="D207" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="E207">
-        <v>2070</v>
-      </c>
-      <c r="F207">
-        <v>0</v>
-      </c>
-      <c r="G207">
-        <v>0</v>
+        <v>2050</v>
+      </c>
+      <c r="F207" t="s">
+        <v>71</v>
+      </c>
+      <c r="G207" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
@@ -27343,22 +27378,22 @@
         <v>7</v>
       </c>
       <c r="B208" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C208" t="s">
         <v>45</v>
       </c>
       <c r="D208" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="E208">
         <v>2050</v>
       </c>
-      <c r="F208" t="s">
-        <v>71</v>
-      </c>
-      <c r="G208" t="s">
-        <v>71</v>
+      <c r="F208">
+        <v>0</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.35">
@@ -27366,22 +27401,22 @@
         <v>7</v>
       </c>
       <c r="B209" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C209" t="s">
         <v>45</v>
       </c>
       <c r="D209" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E209">
-        <v>2070</v>
-      </c>
-      <c r="F209" t="s">
-        <v>71</v>
-      </c>
-      <c r="G209" t="s">
-        <v>71</v>
+        <v>2050</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.35">
@@ -27389,22 +27424,22 @@
         <v>7</v>
       </c>
       <c r="B210" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C210" t="s">
         <v>45</v>
       </c>
       <c r="D210" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E210">
         <v>2050</v>
       </c>
       <c r="F210">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G210">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
@@ -27412,22 +27447,22 @@
         <v>7</v>
       </c>
       <c r="B211" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C211" t="s">
         <v>45</v>
       </c>
       <c r="D211" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E211">
-        <v>2070</v>
-      </c>
-      <c r="F211">
-        <v>0.2</v>
-      </c>
-      <c r="G211">
-        <v>0.2</v>
+        <v>2050</v>
+      </c>
+      <c r="F211" t="s">
+        <v>71</v>
+      </c>
+      <c r="G211" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.35">
@@ -27435,22 +27470,22 @@
         <v>7</v>
       </c>
       <c r="B212" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C212" t="s">
         <v>45</v>
       </c>
       <c r="D212" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E212">
         <v>2050</v>
       </c>
-      <c r="F212" t="s">
-        <v>71</v>
-      </c>
-      <c r="G212" t="s">
-        <v>71</v>
+      <c r="F212">
+        <v>0.7</v>
+      </c>
+      <c r="G212">
+        <v>0.7</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.35">
@@ -27458,22 +27493,22 @@
         <v>7</v>
       </c>
       <c r="B213" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C213" t="s">
         <v>45</v>
       </c>
       <c r="D213" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E213">
-        <v>2070</v>
-      </c>
-      <c r="F213" t="s">
-        <v>71</v>
-      </c>
-      <c r="G213" t="s">
-        <v>71</v>
+        <v>2050</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.35">
@@ -27481,22 +27516,22 @@
         <v>7</v>
       </c>
       <c r="B214" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C214" t="s">
         <v>45</v>
       </c>
       <c r="D214" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E214">
         <v>2050</v>
       </c>
-      <c r="F214">
-        <v>0.1</v>
-      </c>
-      <c r="G214">
-        <v>0.1</v>
+      <c r="F214" t="s">
+        <v>71</v>
+      </c>
+      <c r="G214" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.35">
@@ -27504,22 +27539,22 @@
         <v>7</v>
       </c>
       <c r="B215" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C215" t="s">
         <v>45</v>
       </c>
       <c r="D215" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E215">
-        <v>2070</v>
+        <v>2050</v>
       </c>
       <c r="F215">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G215">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.35">
@@ -27527,13 +27562,13 @@
         <v>7</v>
       </c>
       <c r="B216" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C216" t="s">
         <v>45</v>
       </c>
       <c r="D216" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E216">
         <v>2050</v>
@@ -27550,22 +27585,22 @@
         <v>7</v>
       </c>
       <c r="B217" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C217" t="s">
         <v>45</v>
       </c>
       <c r="D217" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E217">
-        <v>2070</v>
-      </c>
-      <c r="F217">
-        <v>0</v>
-      </c>
-      <c r="G217">
-        <v>0</v>
+        <v>2050</v>
+      </c>
+      <c r="F217" t="s">
+        <v>71</v>
+      </c>
+      <c r="G217" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.35">
@@ -27579,16 +27614,16 @@
         <v>45</v>
       </c>
       <c r="D218" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E218">
         <v>2050</v>
       </c>
-      <c r="F218" t="s">
-        <v>71</v>
-      </c>
-      <c r="G218" t="s">
-        <v>71</v>
+      <c r="F218">
+        <v>0.01</v>
+      </c>
+      <c r="G218">
+        <v>0.2</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.35">
@@ -27602,10 +27637,10 @@
         <v>45</v>
       </c>
       <c r="D219" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E219">
-        <v>2070</v>
+        <v>2050</v>
       </c>
       <c r="F219" t="s">
         <v>71</v>
@@ -27625,16 +27660,16 @@
         <v>45</v>
       </c>
       <c r="D220" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E220">
         <v>2050</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G220">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.35">
@@ -27648,10 +27683,10 @@
         <v>45</v>
       </c>
       <c r="D221" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E221">
-        <v>2070</v>
+        <v>2050</v>
       </c>
       <c r="F221">
         <v>0</v>
@@ -27671,7 +27706,7 @@
         <v>45</v>
       </c>
       <c r="D222" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E222">
         <v>2050</v>
@@ -27694,16 +27729,16 @@
         <v>45</v>
       </c>
       <c r="D223" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E223">
-        <v>2070</v>
-      </c>
-      <c r="F223" t="s">
-        <v>71</v>
-      </c>
-      <c r="G223" t="s">
-        <v>71</v>
+        <v>2050</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.35">
@@ -27717,16 +27752,16 @@
         <v>45</v>
       </c>
       <c r="D224" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E224">
         <v>2050</v>
       </c>
-      <c r="F224">
-        <v>0</v>
-      </c>
-      <c r="G224">
-        <v>0</v>
+      <c r="F224" t="s">
+        <v>71</v>
+      </c>
+      <c r="G224" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.35">
@@ -27743,7 +27778,7 @@
         <v>86</v>
       </c>
       <c r="E225">
-        <v>2070</v>
+        <v>2050</v>
       </c>
       <c r="F225">
         <v>0</v>
@@ -27752,7 +27787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>15</v>
       </c>
@@ -27775,7 +27810,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>15</v>
       </c>
@@ -27798,7 +27833,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>15</v>
       </c>
@@ -27821,7 +27856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>15</v>
       </c>
@@ -27844,7 +27879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>15</v>
       </c>
@@ -27867,7 +27902,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>15</v>
       </c>
@@ -27890,7 +27925,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>15</v>
       </c>
@@ -27913,7 +27948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>15</v>
       </c>
@@ -27936,7 +27971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>15</v>
       </c>
@@ -27959,7 +27994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>15</v>
       </c>
@@ -27982,7 +28017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>15</v>
       </c>
@@ -28005,7 +28040,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>15</v>
       </c>
@@ -28028,7 +28063,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>15</v>
       </c>
@@ -28051,7 +28086,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>15</v>
       </c>
@@ -28074,7 +28109,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>15</v>
       </c>
@@ -28097,7 +28132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>15</v>
       </c>
@@ -28120,7 +28155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>15</v>
       </c>
@@ -28143,7 +28178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>15</v>
       </c>
@@ -28166,7 +28201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>15</v>
       </c>
@@ -28189,7 +28224,7 @@
         <v>0.57600000000000007</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>15</v>
       </c>
@@ -28212,7 +28247,7 @@
         <v>0.57600000000000007</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>15</v>
       </c>
@@ -28235,7 +28270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>15</v>
       </c>
@@ -28258,7 +28293,7 @@
         <v>0.1792</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>15</v>
       </c>
@@ -28281,7 +28316,7 @@
         <v>0.33280000000000004</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>15</v>
       </c>
@@ -28304,7 +28339,7 @@
         <v>0.38400000000000012</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>15</v>
       </c>
@@ -28327,7 +28362,7 @@
         <v>0.40960000000000013</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>15</v>
       </c>
@@ -28350,7 +28385,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>15</v>
       </c>
@@ -28373,7 +28408,7 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>15</v>
       </c>
@@ -28396,7 +28431,7 @@
         <v>0.55999999999999994</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>15</v>
       </c>
@@ -28419,7 +28454,7 @@
         <v>0.72000000000000008</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>15</v>
       </c>
@@ -28442,7 +28477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>15</v>
       </c>
@@ -28465,7 +28500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>15</v>
       </c>
@@ -28488,7 +28523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>15</v>
       </c>
@@ -28511,7 +28546,7 @@
         <v>0.30800000000000005</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>15</v>
       </c>
@@ -28534,7 +28569,7 @@
         <v>0.57200000000000006</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>15</v>
       </c>
@@ -28557,7 +28592,7 @@
         <v>0.66000000000000014</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>15</v>
       </c>
@@ -28580,7 +28615,7 @@
         <v>0.70400000000000018</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>15</v>
       </c>
@@ -28603,7 +28638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>15</v>
       </c>
@@ -28626,7 +28661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>15</v>
       </c>
@@ -28649,7 +28684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>15</v>
       </c>
@@ -28672,7 +28707,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>15</v>
       </c>
@@ -28695,7 +28730,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>15</v>
       </c>
@@ -28718,7 +28753,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>15</v>
       </c>
@@ -28741,7 +28776,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>15</v>
       </c>
@@ -28764,7 +28799,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>15</v>
       </c>
@@ -28787,7 +28822,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>15</v>
       </c>
@@ -28810,7 +28845,7 @@
         <v>4.0000000000000008E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>15</v>
       </c>
@@ -28833,7 +28868,7 @@
         <v>8.0000000000000016E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>15</v>
       </c>
@@ -28856,7 +28891,7 @@
         <v>0.16000000000000003</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>15</v>
       </c>
@@ -28879,7 +28914,7 @@
         <v>0.16000000000000003</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>15</v>
       </c>
@@ -28902,7 +28937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>15</v>
       </c>
@@ -28925,7 +28960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>15</v>
       </c>
@@ -28948,7 +28983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>15</v>
       </c>
@@ -28971,7 +29006,7 @@
         <v>8.0000000000000016E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>15</v>
       </c>
@@ -28994,7 +29029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>15</v>
       </c>
@@ -29017,7 +29052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>15</v>
       </c>
@@ -29040,7 +29075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>15</v>
       </c>
@@ -29063,7 +29098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>15</v>
       </c>
@@ -29086,7 +29121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>15</v>
       </c>
@@ -29109,7 +29144,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>15</v>
       </c>
@@ -29132,7 +29167,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>15</v>
       </c>
@@ -29155,7 +29190,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>15</v>
       </c>
@@ -29178,7 +29213,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>15</v>
       </c>
@@ -29201,7 +29236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>15</v>
       </c>
@@ -29224,7 +29259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>15</v>
       </c>
@@ -29247,7 +29282,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>15</v>
       </c>
@@ -29270,7 +29305,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>15</v>
       </c>
@@ -29293,7 +29328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>15</v>
       </c>
@@ -29316,7 +29351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>15</v>
       </c>
@@ -29339,7 +29374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>15</v>
       </c>
@@ -29362,7 +29397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>15</v>
       </c>
@@ -29385,7 +29420,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>15</v>
       </c>
@@ -29408,7 +29443,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>15</v>
       </c>
@@ -29431,7 +29466,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>15</v>
       </c>
@@ -29454,7 +29489,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>15</v>
       </c>
@@ -29477,7 +29512,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>15</v>
       </c>
@@ -29500,7 +29535,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>15</v>
       </c>
@@ -29523,7 +29558,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>15</v>
       </c>
@@ -29546,7 +29581,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>15</v>
       </c>
@@ -29569,7 +29604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>15</v>
       </c>
@@ -29592,7 +29627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>15</v>
       </c>
@@ -29615,7 +29650,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>15</v>
       </c>
@@ -29638,7 +29673,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>15</v>
       </c>
@@ -29661,7 +29696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>15</v>
       </c>
@@ -29684,7 +29719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>15</v>
       </c>
@@ -29707,7 +29742,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>15</v>
       </c>
@@ -29730,7 +29765,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>15</v>
       </c>
@@ -29753,7 +29788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>15</v>
       </c>
@@ -29776,7 +29811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>25</v>
       </c>
@@ -29799,7 +29834,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>25</v>
       </c>
@@ -29822,7 +29857,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>25</v>
       </c>
@@ -29845,7 +29880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>25</v>
       </c>
@@ -29868,7 +29903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>25</v>
       </c>
@@ -29891,7 +29926,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>25</v>
       </c>
@@ -29914,7 +29949,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>25</v>
       </c>
@@ -29937,7 +29972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>25</v>
       </c>
@@ -29960,7 +29995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>25</v>
       </c>
@@ -29983,7 +30018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>25</v>
       </c>
@@ -30006,7 +30041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>25</v>
       </c>
@@ -30029,7 +30064,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>25</v>
       </c>
@@ -30052,7 +30087,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>25</v>
       </c>
@@ -30075,7 +30110,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>25</v>
       </c>
@@ -30098,7 +30133,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>25</v>
       </c>
@@ -30121,7 +30156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>25</v>
       </c>
@@ -30144,7 +30179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>25</v>
       </c>
@@ -30167,7 +30202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>25</v>
       </c>
@@ -30190,7 +30225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>25</v>
       </c>
@@ -30213,7 +30248,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>25</v>
       </c>
@@ -30236,7 +30271,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>25</v>
       </c>
@@ -30259,7 +30294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>25</v>
       </c>
@@ -30282,7 +30317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>25</v>
       </c>
@@ -30305,7 +30340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>25</v>
       </c>
@@ -30328,7 +30363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>25</v>
       </c>
@@ -30351,7 +30386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>25</v>
       </c>
@@ -30374,7 +30409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>25</v>
       </c>
@@ -30397,7 +30432,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>25</v>
       </c>
@@ -30420,7 +30455,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>25</v>
       </c>
@@ -30443,7 +30478,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>25</v>
       </c>
@@ -30466,7 +30501,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>25</v>
       </c>
@@ -30489,7 +30524,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>25</v>
       </c>
@@ -30512,7 +30547,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>25</v>
       </c>
@@ -30535,7 +30570,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>25</v>
       </c>
@@ -30558,7 +30593,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>25</v>
       </c>
@@ -30581,7 +30616,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>25</v>
       </c>
@@ -30604,7 +30639,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>25</v>
       </c>
@@ -30627,7 +30662,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>25</v>
       </c>
@@ -30650,7 +30685,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>25</v>
       </c>
@@ -30673,7 +30708,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>25</v>
       </c>
@@ -30696,7 +30731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>25</v>
       </c>
@@ -30719,7 +30754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>25</v>
       </c>
@@ -30742,7 +30777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>25</v>
       </c>
@@ -30765,7 +30800,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>25</v>
       </c>
@@ -30788,7 +30823,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>25</v>
       </c>
@@ -30811,7 +30846,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>25</v>
       </c>
@@ -30834,7 +30869,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>25</v>
       </c>
@@ -30857,7 +30892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>25</v>
       </c>
@@ -30880,7 +30915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>25</v>
       </c>
@@ -30903,7 +30938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>25</v>
       </c>
@@ -30926,7 +30961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>25</v>
       </c>
@@ -30949,7 +30984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>25</v>
       </c>
@@ -30972,7 +31007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>25</v>
       </c>
@@ -30995,7 +31030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>25</v>
       </c>
@@ -31018,7 +31053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>25</v>
       </c>
@@ -31041,7 +31076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>25</v>
       </c>
@@ -31064,7 +31099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>25</v>
       </c>
@@ -31087,7 +31122,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>25</v>
       </c>
@@ -31110,7 +31145,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>25</v>
       </c>
@@ -31133,7 +31168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>25</v>
       </c>
@@ -31156,7 +31191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>25</v>
       </c>
@@ -31179,7 +31214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>25</v>
       </c>
@@ -31202,7 +31237,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>25</v>
       </c>
@@ -31225,7 +31260,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>25</v>
       </c>
@@ -31248,7 +31283,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>25</v>
       </c>
@@ -31271,7 +31306,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>25</v>
       </c>
@@ -31294,7 +31329,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>25</v>
       </c>
@@ -31317,7 +31352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>25</v>
       </c>
@@ -31340,7 +31375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>25</v>
       </c>
@@ -31363,7 +31398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>25</v>
       </c>
@@ -31386,7 +31421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>25</v>
       </c>
@@ -31409,7 +31444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>25</v>
       </c>
@@ -31432,7 +31467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>25</v>
       </c>
@@ -31455,7 +31490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>25</v>
       </c>
@@ -31478,7 +31513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>25</v>
       </c>
@@ -31501,7 +31536,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>25</v>
       </c>
@@ -31524,7 +31559,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>25</v>
       </c>
@@ -31547,7 +31582,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>25</v>
       </c>
@@ -31570,7 +31605,7 @@
         <v>6.9999999999999993E-2</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>25</v>
       </c>
@@ -31593,7 +31628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>25</v>
       </c>
@@ -31616,7 +31651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>25</v>
       </c>
@@ -31639,7 +31674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>25</v>
       </c>
@@ -31662,7 +31697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>25</v>
       </c>
@@ -31685,7 +31720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>25</v>
       </c>
@@ -31708,7 +31743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>25</v>
       </c>
@@ -31731,7 +31766,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>25</v>
       </c>
@@ -31754,7 +31789,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>25</v>
       </c>
@@ -31777,7 +31812,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>25</v>
       </c>
@@ -31800,7 +31835,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>25</v>
       </c>
@@ -31823,7 +31858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>25</v>
       </c>
@@ -31846,7 +31881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>25</v>
       </c>
@@ -31869,7 +31904,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>25</v>
       </c>
@@ -31892,7 +31927,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>25</v>
       </c>
@@ -31915,7 +31950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>25</v>
       </c>
@@ -31938,7 +31973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>25</v>
       </c>
@@ -31961,7 +31996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>25</v>
       </c>
@@ -31984,7 +32019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>25</v>
       </c>
@@ -32007,7 +32042,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>25</v>
       </c>
@@ -32030,7 +32065,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>25</v>
       </c>
@@ -32053,7 +32088,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>25</v>
       </c>
@@ -32076,7 +32111,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>25</v>
       </c>
@@ -32099,7 +32134,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>25</v>
       </c>
@@ -32122,7 +32157,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>25</v>
       </c>
@@ -32145,7 +32180,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>25</v>
       </c>
@@ -32168,7 +32203,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>25</v>
       </c>
@@ -32191,7 +32226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>25</v>
       </c>
@@ -32214,7 +32249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>25</v>
       </c>
@@ -32237,7 +32272,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>25</v>
       </c>
@@ -32260,7 +32295,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>25</v>
       </c>
@@ -32283,7 +32318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>25</v>
       </c>
@@ -32306,7 +32341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>25</v>
       </c>
@@ -32329,7 +32364,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>25</v>
       </c>
@@ -32352,7 +32387,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>25</v>
       </c>
@@ -32375,7 +32410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>25</v>
       </c>
@@ -32398,7 +32433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>39</v>
       </c>
@@ -32421,7 +32456,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>39</v>
       </c>
@@ -32444,7 +32479,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>39</v>
       </c>
@@ -32467,7 +32502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>39</v>
       </c>
@@ -32490,7 +32525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>39</v>
       </c>
@@ -32513,7 +32548,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>39</v>
       </c>
@@ -32536,7 +32571,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>39</v>
       </c>
@@ -32559,7 +32594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>39</v>
       </c>
@@ -32582,7 +32617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>39</v>
       </c>
@@ -32605,7 +32640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>39</v>
       </c>
@@ -32628,7 +32663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>39</v>
       </c>
@@ -32651,7 +32686,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>39</v>
       </c>
@@ -32674,7 +32709,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>39</v>
       </c>
@@ -32697,7 +32732,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>39</v>
       </c>
@@ -32720,7 +32755,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>39</v>
       </c>
@@ -32743,7 +32778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>39</v>
       </c>
@@ -32766,7 +32801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>39</v>
       </c>
@@ -32789,7 +32824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>39</v>
       </c>
@@ -32812,7 +32847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>39</v>
       </c>
@@ -32835,7 +32870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>39</v>
       </c>
@@ -32858,7 +32893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>39</v>
       </c>
@@ -32881,7 +32916,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>39</v>
       </c>
@@ -32904,7 +32939,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>39</v>
       </c>
@@ -32927,7 +32962,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>39</v>
       </c>
@@ -32950,7 +32985,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>39</v>
       </c>
@@ -32973,7 +33008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>39</v>
       </c>
@@ -32996,7 +33031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>39</v>
       </c>
@@ -33019,7 +33054,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>39</v>
       </c>
@@ -33042,7 +33077,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>39</v>
       </c>
@@ -33065,7 +33100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>39</v>
       </c>
@@ -33088,7 +33123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>39</v>
       </c>
@@ -33111,7 +33146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>39</v>
       </c>
@@ -33134,7 +33169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>39</v>
       </c>
@@ -33157,7 +33192,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>39</v>
       </c>
@@ -33180,7 +33215,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>39</v>
       </c>
@@ -33203,7 +33238,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>39</v>
       </c>
@@ -33226,7 +33261,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>39</v>
       </c>
@@ -33249,7 +33284,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>39</v>
       </c>
@@ -33272,7 +33307,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>39</v>
       </c>
@@ -33295,7 +33330,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>39</v>
       </c>
@@ -33318,7 +33353,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>39</v>
       </c>
@@ -33341,7 +33376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>39</v>
       </c>
@@ -33364,7 +33399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>39</v>
       </c>
@@ -33387,7 +33422,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>39</v>
       </c>
@@ -33410,7 +33445,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>39</v>
       </c>
@@ -33433,7 +33468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>39</v>
       </c>
@@ -33456,7 +33491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>39</v>
       </c>
@@ -33479,7 +33514,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>39</v>
       </c>
@@ -33502,7 +33537,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>39</v>
       </c>
@@ -33525,7 +33560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>39</v>
       </c>
@@ -33550,8 +33585,42 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G477" xr:uid="{09EB2682-BE80-4949-AB75-59FF57965C53}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A147:G193">
-      <sortCondition ref="D1:D477"/>
+    <filterColumn colId="0">
+      <filters>
+        <filter val="North America"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="air_av_gas"/>
+        <filter val="air_diesel"/>
+        <filter val="air_electric"/>
+        <filter val="air_fuel_oil"/>
+        <filter val="air_gasoline"/>
+        <filter val="air_hydrogen"/>
+        <filter val="air_jet_fuel"/>
+        <filter val="air_kerosene"/>
+        <filter val="air_lpg"/>
+        <filter val="rail_coal"/>
+        <filter val="rail_diesel"/>
+        <filter val="rail_electricity"/>
+        <filter val="rail_fuel_oil"/>
+        <filter val="rail_gasoline"/>
+        <filter val="rail_kerosene"/>
+        <filter val="rail_lpg"/>
+        <filter val="rail_natural_gas"/>
+        <filter val="ship_ammonia"/>
+        <filter val="ship_diesel"/>
+        <filter val="ship_electric"/>
+        <filter val="ship_fuel_oil"/>
+        <filter val="ship_gasoline"/>
+        <filter val="ship_kerosene"/>
+        <filter val="ship_lpg"/>
+        <filter val="ship_other_petroleum_products"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A129:G225">
+      <sortCondition descending="1" ref="E1:E477"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G185">
@@ -33561,14 +33630,14 @@
     <sortCondition ref="A2:A185"/>
   </sortState>
   <conditionalFormatting sqref="C1">
-    <cfRule type="containsText" dxfId="153" priority="142" operator="containsText" text="ldv">
-      <formula>NOT(ISERROR(SEARCH("ldv",C1)))</formula>
+    <cfRule type="containsText" dxfId="153" priority="144" operator="containsText" text="2w">
+      <formula>NOT(ISERROR(SEARCH("2w",C1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="152" priority="143" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="144" operator="containsText" text="2w">
-      <formula>NOT(ISERROR(SEARCH("2w",C1)))</formula>
+    <cfRule type="containsText" dxfId="151" priority="142" operator="containsText" text="ldv">
+      <formula>NOT(ISERROR(SEARCH("ldv",C1)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="145">
       <colorScale>
@@ -33582,31 +33651,31 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C147">
-    <cfRule type="containsText" dxfId="150" priority="160" operator="containsText" text="ht">
-      <formula>NOT(ISERROR(SEARCH("ht",C2)))</formula>
+    <cfRule type="containsText" dxfId="150" priority="163" operator="containsText" text="2w">
+      <formula>NOT(ISERROR(SEARCH("2w",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="161" operator="containsText" text="ldv">
+    <cfRule type="containsText" dxfId="149" priority="162" operator="containsText" text="bus">
+      <formula>NOT(ISERROR(SEARCH("bus",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="148" priority="161" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="162" operator="containsText" text="bus">
-      <formula>NOT(ISERROR(SEARCH("bus",C2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="163" operator="containsText" text="2w">
-      <formula>NOT(ISERROR(SEARCH("2w",C2)))</formula>
+    <cfRule type="containsText" dxfId="147" priority="160" operator="containsText" text="ht">
+      <formula>NOT(ISERROR(SEARCH("ht",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C141:C147">
-    <cfRule type="containsText" dxfId="146" priority="151" operator="containsText" text="ht">
+    <cfRule type="containsText" dxfId="146" priority="152" operator="containsText" text="ldv">
+      <formula>NOT(ISERROR(SEARCH("ldv",C141)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="145" priority="151" operator="containsText" text="ht">
       <formula>NOT(ISERROR(SEARCH("ht",C141)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="152" operator="containsText" text="ldv">
-      <formula>NOT(ISERROR(SEARCH("ldv",C141)))</formula>
+    <cfRule type="containsText" dxfId="144" priority="154" operator="containsText" text="2w">
+      <formula>NOT(ISERROR(SEARCH("2w",C141)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="153" operator="containsText" text="bus">
+    <cfRule type="containsText" dxfId="143" priority="153" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",C141)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="154" operator="containsText" text="2w">
-      <formula>NOT(ISERROR(SEARCH("2w",C141)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C204:C215 C217:C224">
@@ -33635,37 +33704,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D147 R2:R64 K2:K73">
-    <cfRule type="containsText" dxfId="135" priority="137" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",D1)))</formula>
+    <cfRule type="containsText" dxfId="135" priority="139" operator="containsText" text="Drivephev">
+      <formula>NOT(ISERROR(SEARCH("Drivephev",D1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="134" priority="138" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="139" operator="containsText" text="Drivephev">
-      <formula>NOT(ISERROR(SEARCH("Drivephev",D1)))</formula>
+    <cfRule type="containsText" dxfId="133" priority="137" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="140" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="132" priority="141" operator="containsText" text="bev">
+      <formula>NOT(ISERROR(SEARCH("bev",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="131" priority="140" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="141" operator="containsText" text="bev">
-      <formula>NOT(ISERROR(SEARCH("bev",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D141:D147">
     <cfRule type="containsText" dxfId="130" priority="146" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",D141)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="147" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="129" priority="150" operator="containsText" text="bev">
+      <formula>NOT(ISERROR(SEARCH("bev",D141)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="128" priority="147" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",D141)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="148" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="127" priority="148" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",D141)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="149" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="126" priority="149" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",D141)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="150" operator="containsText" text="bev">
-      <formula>NOT(ISERROR(SEARCH("bev",D141)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D153:D155">
@@ -33675,14 +33744,14 @@
     <cfRule type="containsText" dxfId="124" priority="54" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",D153)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="55" operator="containsText" text="Drivephev">
-      <formula>NOT(ISERROR(SEARCH("Drivephev",D153)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="56" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="123" priority="56" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",D153)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="57" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="122" priority="57" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",D153)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="121" priority="55" operator="containsText" text="Drivephev">
+      <formula>NOT(ISERROR(SEARCH("Drivephev",D153)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:D171">
@@ -33703,54 +33772,54 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D164:D171">
-    <cfRule type="containsText" dxfId="115" priority="38" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",D164)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="39" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="115" priority="39" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",D164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="40" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="114" priority="40" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",D164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="41" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="113" priority="41" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",D164)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="112" priority="38" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",D164)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="111" priority="42" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",D164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D177:D187">
-    <cfRule type="containsText" dxfId="110" priority="28" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="110" priority="29" operator="containsText" text="phev">
+      <formula>NOT(ISERROR(SEARCH("phev",D177)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="109" priority="28" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",D177)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="29" operator="containsText" text="phev">
-      <formula>NOT(ISERROR(SEARCH("phev",D177)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="30" operator="containsText" text="Drivephev">
-      <formula>NOT(ISERROR(SEARCH("Drivephev",D177)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="31" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="108" priority="31" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",D177)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="32" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="107" priority="32" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",D177)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="30" operator="containsText" text="Drivephev">
+      <formula>NOT(ISERROR(SEARCH("Drivephev",D177)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D180:D187">
-    <cfRule type="containsText" dxfId="105" priority="23" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="105" priority="27" operator="containsText" text="bev">
+      <formula>NOT(ISERROR(SEARCH("bev",D180)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="104" priority="23" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",D180)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="24" operator="containsText" text="phev">
-      <formula>NOT(ISERROR(SEARCH("phev",D180)))</formula>
+    <cfRule type="containsText" dxfId="103" priority="26" operator="containsText" text="ice">
+      <formula>NOT(ISERROR(SEARCH("ice",D180)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="25" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="102" priority="25" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",D180)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="26" operator="containsText" text="ice">
-      <formula>NOT(ISERROR(SEARCH("ice",D180)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="27" operator="containsText" text="bev">
-      <formula>NOT(ISERROR(SEARCH("bev",D180)))</formula>
+    <cfRule type="containsText" dxfId="101" priority="24" operator="containsText" text="phev">
+      <formula>NOT(ISERROR(SEARCH("phev",D180)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D193:D195">
@@ -33763,45 +33832,45 @@
     <cfRule type="containsText" dxfId="98" priority="20" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",D193)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="21" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="97" priority="22" operator="containsText" text="bev">
+      <formula>NOT(ISERROR(SEARCH("bev",D193)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="96" priority="21" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",D193)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="22" operator="containsText" text="bev">
-      <formula>NOT(ISERROR(SEARCH("bev",D193)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D204:D215 D217:D224">
-    <cfRule type="containsText" dxfId="95" priority="10" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",D204)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="11" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="95" priority="11" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",D204)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="12" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="94" priority="12" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",D204)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="13" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="93" priority="13" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",D204)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="14" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="92" priority="14" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",D204)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="91" priority="10" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",D204)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D428:D445">
-    <cfRule type="containsText" dxfId="90" priority="1" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="90" priority="4" operator="containsText" text="ice">
+      <formula>NOT(ISERROR(SEARCH("ice",D428)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="89" priority="5" operator="containsText" text="bev">
+      <formula>NOT(ISERROR(SEARCH("bev",D428)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="1" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",D428)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="2" operator="containsText" text="phev">
-      <formula>NOT(ISERROR(SEARCH("phev",D428)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="3" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="87" priority="3" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",D428)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="4" operator="containsText" text="ice">
-      <formula>NOT(ISERROR(SEARCH("ice",D428)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="5" operator="containsText" text="bev">
-      <formula>NOT(ISERROR(SEARCH("bev",D428)))</formula>
+    <cfRule type="containsText" dxfId="86" priority="2" operator="containsText" text="phev">
+      <formula>NOT(ISERROR(SEARCH("phev",D428)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J153:J155">
@@ -33816,17 +33885,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K153:K155">
-    <cfRule type="containsText" dxfId="82" priority="129" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="82" priority="132" operator="containsText" text="ice">
+      <formula>NOT(ISERROR(SEARCH("ice",K153)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="81" priority="129" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",K153)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="130" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="80" priority="130" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",K153)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="131" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="79" priority="131" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",K153)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="132" operator="containsText" text="ice">
-      <formula>NOT(ISERROR(SEARCH("ice",K153)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="78" priority="133" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",K153)))</formula>
@@ -33850,37 +33919,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K164:K171">
-    <cfRule type="containsText" dxfId="72" priority="106" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",K164)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="107" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="72" priority="107" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",K164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="108" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="71" priority="108" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",K164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="109" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="70" priority="109" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",K164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="110" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="69" priority="110" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",K164)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="106" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",K164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K177:K187">
-    <cfRule type="containsText" dxfId="67" priority="76" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="67" priority="80" operator="containsText" text="bev">
+      <formula>NOT(ISERROR(SEARCH("bev",K177)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="76" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",K177)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="77" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="65" priority="77" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",K177)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="78" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="64" priority="78" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",K177)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="79" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="63" priority="79" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",K177)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="80" operator="containsText" text="bev">
-      <formula>NOT(ISERROR(SEARCH("bev",K177)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K180:K187">
@@ -33904,25 +33973,25 @@
     <cfRule type="containsText" dxfId="57" priority="66" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",K193)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="67" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="56" priority="69" operator="containsText" text="ice">
+      <formula>NOT(ISERROR(SEARCH("ice",K193)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="55" priority="70" operator="containsText" text="bev">
+      <formula>NOT(ISERROR(SEARCH("bev",K193)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="67" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",K193)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="68" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="53" priority="68" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",K193)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="69" operator="containsText" text="ice">
-      <formula>NOT(ISERROR(SEARCH("ice",K193)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="70" operator="containsText" text="bev">
-      <formula>NOT(ISERROR(SEARCH("bev",K193)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q64 J2:J73 C153:C155">
-    <cfRule type="containsText" dxfId="52" priority="58" operator="containsText" text="ldv">
+    <cfRule type="containsText" dxfId="52" priority="59" operator="containsText" text="bus">
+      <formula>NOT(ISERROR(SEARCH("bus",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="58" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",C2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="59" operator="containsText" text="bus">
-      <formula>NOT(ISERROR(SEARCH("bus",C2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="50" priority="60" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",C2)))</formula>
@@ -33941,6 +34010,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -41693,11 +41763,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B234">
-    <cfRule type="containsText" dxfId="49" priority="6" operator="containsText" text="ht">
+    <cfRule type="containsText" dxfId="49" priority="7" operator="containsText" text="ldv">
+      <formula>NOT(ISERROR(SEARCH("ldv",B1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="6" operator="containsText" text="ht">
       <formula>NOT(ISERROR(SEARCH("ht",B1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="7" operator="containsText" text="ldv">
-      <formula>NOT(ISERROR(SEARCH("ldv",B1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="47" priority="8" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",B1)))</formula>
@@ -41707,82 +41777,82 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B235:B1048576">
-    <cfRule type="containsText" dxfId="45" priority="50" operator="containsText" text="ht">
+    <cfRule type="containsText" dxfId="45" priority="51" operator="containsText" text="ldv">
+      <formula>NOT(ISERROR(SEARCH("ldv",B235)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="50" operator="containsText" text="ht">
       <formula>NOT(ISERROR(SEARCH("ht",B235)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="51" operator="containsText" text="ldv">
-      <formula>NOT(ISERROR(SEARCH("ldv",B235)))</formula>
+    <cfRule type="containsText" dxfId="43" priority="53" operator="containsText" text="2w">
+      <formula>NOT(ISERROR(SEARCH("2w",B235)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="52" operator="containsText" text="bus">
+    <cfRule type="containsText" dxfId="42" priority="52" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",B235)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="53" operator="containsText" text="2w">
-      <formula>NOT(ISERROR(SEARCH("2w",B235)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B312:B386">
-    <cfRule type="containsText" dxfId="41" priority="24" operator="containsText" text="ht">
+    <cfRule type="containsText" dxfId="41" priority="26" operator="containsText" text="bus">
+      <formula>NOT(ISERROR(SEARCH("bus",B312)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="27" operator="containsText" text="2w">
+      <formula>NOT(ISERROR(SEARCH("2w",B312)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="24" operator="containsText" text="ht">
       <formula>NOT(ISERROR(SEARCH("ht",B312)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="25" operator="containsText" text="ldv">
+    <cfRule type="containsText" dxfId="38" priority="25" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",B312)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="26" operator="containsText" text="bus">
-      <formula>NOT(ISERROR(SEARCH("bus",B312)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="27" operator="containsText" text="2w">
-      <formula>NOT(ISERROR(SEARCH("2w",B312)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C234">
-    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",C1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="2" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="37" priority="2" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="36" priority="3" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="4" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="35" priority="4" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="1" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C235:C1048576">
-    <cfRule type="containsText" dxfId="32" priority="45" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="32" priority="47" operator="containsText" text="Drivephev">
+      <formula>NOT(ISERROR(SEARCH("Drivephev",C235)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="49" operator="containsText" text="bev">
+      <formula>NOT(ISERROR(SEARCH("bev",C235)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="48" operator="containsText" text="ice">
+      <formula>NOT(ISERROR(SEARCH("ice",C235)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="45" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",C235)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="46" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="28" priority="46" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",C235)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="47" operator="containsText" text="Drivephev">
-      <formula>NOT(ISERROR(SEARCH("Drivephev",C235)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="48" operator="containsText" text="ice">
-      <formula>NOT(ISERROR(SEARCH("ice",C235)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="49" operator="containsText" text="bev">
-      <formula>NOT(ISERROR(SEARCH("bev",C235)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C312:C386">
-    <cfRule type="containsText" dxfId="27" priority="19" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",C312)))</formula>
+    <cfRule type="containsText" dxfId="27" priority="22" operator="containsText" text="ice">
+      <formula>NOT(ISERROR(SEARCH("ice",C312)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="20" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="26" priority="23" operator="containsText" text="bev">
+      <formula>NOT(ISERROR(SEARCH("bev",C312)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="20" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",C312)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="21" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",C312)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="22" operator="containsText" text="ice">
-      <formula>NOT(ISERROR(SEARCH("ice",C312)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="bev">
-      <formula>NOT(ISERROR(SEARCH("bev",C312)))</formula>
+    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",C312)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:I42">
@@ -41792,14 +41862,14 @@
     <cfRule type="containsText" dxfId="21" priority="38" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",I40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="39" operator="containsText" text="Drivephev">
-      <formula>NOT(ISERROR(SEARCH("Drivephev",I40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="40" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="20" priority="40" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",I40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="41" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="19" priority="41" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",I40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="39" operator="containsText" text="Drivephev">
+      <formula>NOT(ISERROR(SEARCH("Drivephev",I40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77:I114 I122:I152">
@@ -41823,28 +41893,28 @@
     <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",I229)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="bus">
+    <cfRule type="containsText" dxfId="11" priority="18" operator="containsText" text="2w">
+      <formula>NOT(ISERROR(SEARCH("2w",I229)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",I229)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="18" operator="containsText" text="2w">
-      <formula>NOT(ISERROR(SEARCH("2w",I229)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J77:J114 J122:J152">
-    <cfRule type="containsText" dxfId="9" priority="28" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="9" priority="31" operator="containsText" text="ice">
+      <formula>NOT(ISERROR(SEARCH("ice",J77)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="32" operator="containsText" text="bev">
+      <formula>NOT(ISERROR(SEARCH("bev",J77)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="28" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",J77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="29" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="6" priority="29" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",J77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="30" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="5" priority="30" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",J77)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="31" operator="containsText" text="ice">
-      <formula>NOT(ISERROR(SEARCH("ice",J77)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="32" operator="containsText" text="bev">
-      <formula>NOT(ISERROR(SEARCH("bev",J77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J229:J234">
@@ -41874,9 +41944,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -43426,6 +43497,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>

--- a/input_data/vehicle_sales_share_inputs.xlsx
+++ b/input_data/vehicle_sales_share_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APERC\transport_model_9th_edition\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12ED4CD3-19FC-49A9-B672-3DA79A43C4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2440BE-8390-498B-9D5E-1F7A7B221D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27045" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="889" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1755" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="889" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
     <workbookView xWindow="1755" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{78AE0BA8-0BAB-408C-B627-F0D0B6A6CF4A}"/>
   </bookViews>
   <sheets>
@@ -28,7 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">freight_drive_shares_old!$A$1:$F$386</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">passenger_drive_shares!$A$1:$G$512</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">passenger_drive_shares_old!$A$1:$F$393</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">vehicle_type_growth!$A$1:$F$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">vehicle_type_growth!$A$1:$F$73</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,66 +47,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Finbar Barton MAUNSELL</author>
-  </authors>
-  <commentList>
-    <comment ref="A31" authorId="0" shapeId="0" xr:uid="{227CCC3C-2854-48AD-AE06-1AAA8A0C6BB0}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Finbar Barton MAUNSELL:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-trying to counteract its value being so high compared to otehrs</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A69" authorId="0" shapeId="0" xr:uid="{E5D08FE9-74F3-4263-B613-55AC7A34A9E0}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Finbar Barton MAUNSELL:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-trying to counteract its value being so high compared to otehrs</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7170" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7095" uniqueCount="88">
   <si>
     <t>Region</t>
   </si>
@@ -376,7 +318,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,19 +335,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -490,10 +419,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -534,6 +463,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="6"/>
       </font>
     </dxf>
@@ -551,14 +495,9 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
       <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -569,16 +508,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -644,11 +573,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
     </dxf>
@@ -665,66 +589,6 @@
     <dxf>
       <font>
         <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
       </font>
     </dxf>
     <dxf>
@@ -764,272 +628,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
       </font>
     </dxf>
     <dxf>
@@ -1069,246 +668,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="7"/>
       </font>
       <fill>
@@ -1330,96 +689,6 @@
     <dxf>
       <font>
         <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
       </font>
     </dxf>
     <dxf>
@@ -1544,6 +813,566 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1574,6 +1403,46 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1599,6 +1468,66 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10660,7 +10589,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G512"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+    <sheetView topLeftCell="A195" workbookViewId="0">
       <selection activeCell="O242" sqref="O242"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
@@ -33630,14 +33559,14 @@
     <sortCondition ref="A2:A185"/>
   </sortState>
   <conditionalFormatting sqref="C1">
-    <cfRule type="containsText" dxfId="153" priority="144" operator="containsText" text="2w">
-      <formula>NOT(ISERROR(SEARCH("2w",C1)))</formula>
+    <cfRule type="containsText" dxfId="153" priority="142" operator="containsText" text="ldv">
+      <formula>NOT(ISERROR(SEARCH("ldv",C1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="152" priority="143" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="142" operator="containsText" text="ldv">
-      <formula>NOT(ISERROR(SEARCH("ldv",C1)))</formula>
+    <cfRule type="containsText" dxfId="151" priority="144" operator="containsText" text="2w">
+      <formula>NOT(ISERROR(SEARCH("2w",C1)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="145">
       <colorScale>
@@ -33651,31 +33580,31 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C147">
-    <cfRule type="containsText" dxfId="150" priority="163" operator="containsText" text="2w">
-      <formula>NOT(ISERROR(SEARCH("2w",C2)))</formula>
+    <cfRule type="containsText" dxfId="150" priority="160" operator="containsText" text="ht">
+      <formula>NOT(ISERROR(SEARCH("ht",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="162" operator="containsText" text="bus">
+    <cfRule type="containsText" dxfId="149" priority="161" operator="containsText" text="ldv">
+      <formula>NOT(ISERROR(SEARCH("ldv",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="148" priority="162" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="161" operator="containsText" text="ldv">
-      <formula>NOT(ISERROR(SEARCH("ldv",C2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="160" operator="containsText" text="ht">
-      <formula>NOT(ISERROR(SEARCH("ht",C2)))</formula>
+    <cfRule type="containsText" dxfId="147" priority="163" operator="containsText" text="2w">
+      <formula>NOT(ISERROR(SEARCH("2w",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C141:C147">
-    <cfRule type="containsText" dxfId="146" priority="152" operator="containsText" text="ldv">
+    <cfRule type="containsText" dxfId="146" priority="151" operator="containsText" text="ht">
+      <formula>NOT(ISERROR(SEARCH("ht",C141)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="145" priority="152" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",C141)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="151" operator="containsText" text="ht">
-      <formula>NOT(ISERROR(SEARCH("ht",C141)))</formula>
+    <cfRule type="containsText" dxfId="144" priority="153" operator="containsText" text="bus">
+      <formula>NOT(ISERROR(SEARCH("bus",C141)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="154" operator="containsText" text="2w">
+    <cfRule type="containsText" dxfId="143" priority="154" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",C141)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="153" operator="containsText" text="bus">
-      <formula>NOT(ISERROR(SEARCH("bus",C141)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C204:C215 C217:C224">
@@ -33704,37 +33633,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D147 R2:R64 K2:K73">
-    <cfRule type="containsText" dxfId="135" priority="139" operator="containsText" text="Drivephev">
-      <formula>NOT(ISERROR(SEARCH("Drivephev",D1)))</formula>
+    <cfRule type="containsText" dxfId="135" priority="137" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",D1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="134" priority="138" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="137" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",D1)))</formula>
+    <cfRule type="containsText" dxfId="133" priority="139" operator="containsText" text="Drivephev">
+      <formula>NOT(ISERROR(SEARCH("Drivephev",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="141" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="132" priority="140" operator="containsText" text="ice">
+      <formula>NOT(ISERROR(SEARCH("ice",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="131" priority="141" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="140" operator="containsText" text="ice">
-      <formula>NOT(ISERROR(SEARCH("ice",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D141:D147">
     <cfRule type="containsText" dxfId="130" priority="146" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",D141)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="150" operator="containsText" text="bev">
-      <formula>NOT(ISERROR(SEARCH("bev",D141)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="147" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="129" priority="147" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",D141)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="148" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="128" priority="148" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",D141)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="149" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="127" priority="149" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",D141)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="126" priority="150" operator="containsText" text="bev">
+      <formula>NOT(ISERROR(SEARCH("bev",D141)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D153:D155">
@@ -33744,14 +33673,14 @@
     <cfRule type="containsText" dxfId="124" priority="54" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",D153)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="56" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="123" priority="55" operator="containsText" text="Drivephev">
+      <formula>NOT(ISERROR(SEARCH("Drivephev",D153)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="122" priority="56" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",D153)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="57" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="121" priority="57" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",D153)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="55" operator="containsText" text="Drivephev">
-      <formula>NOT(ISERROR(SEARCH("Drivephev",D153)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:D171">
@@ -33772,54 +33701,54 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D164:D171">
-    <cfRule type="containsText" dxfId="115" priority="39" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="115" priority="38" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",D164)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="114" priority="39" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",D164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="40" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="113" priority="40" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",D164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="41" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="112" priority="41" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",D164)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="38" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",D164)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="111" priority="42" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",D164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D177:D187">
-    <cfRule type="containsText" dxfId="110" priority="29" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="110" priority="28" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",D177)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="109" priority="29" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",D177)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="28" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",D177)))</formula>
+    <cfRule type="containsText" dxfId="108" priority="30" operator="containsText" text="Drivephev">
+      <formula>NOT(ISERROR(SEARCH("Drivephev",D177)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="31" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="107" priority="31" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",D177)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="32" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="106" priority="32" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",D177)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="30" operator="containsText" text="Drivephev">
-      <formula>NOT(ISERROR(SEARCH("Drivephev",D177)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D180:D187">
-    <cfRule type="containsText" dxfId="105" priority="27" operator="containsText" text="bev">
-      <formula>NOT(ISERROR(SEARCH("bev",D180)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="23" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="105" priority="23" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",D180)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="26" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="104" priority="24" operator="containsText" text="phev">
+      <formula>NOT(ISERROR(SEARCH("phev",D180)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="103" priority="25" operator="containsText" text="Drivephev">
+      <formula>NOT(ISERROR(SEARCH("Drivephev",D180)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="102" priority="26" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",D180)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="25" operator="containsText" text="Drivephev">
-      <formula>NOT(ISERROR(SEARCH("Drivephev",D180)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="24" operator="containsText" text="phev">
-      <formula>NOT(ISERROR(SEARCH("phev",D180)))</formula>
+    <cfRule type="containsText" dxfId="101" priority="27" operator="containsText" text="bev">
+      <formula>NOT(ISERROR(SEARCH("bev",D180)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D193:D195">
@@ -33832,45 +33761,45 @@
     <cfRule type="containsText" dxfId="98" priority="20" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",D193)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="22" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="97" priority="21" operator="containsText" text="ice">
+      <formula>NOT(ISERROR(SEARCH("ice",D193)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="96" priority="22" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",D193)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="21" operator="containsText" text="ice">
-      <formula>NOT(ISERROR(SEARCH("ice",D193)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D204:D215 D217:D224">
-    <cfRule type="containsText" dxfId="95" priority="11" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="95" priority="10" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",D204)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="11" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",D204)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="12" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="93" priority="12" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",D204)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="13" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="92" priority="13" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",D204)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="14" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="91" priority="14" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",D204)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="10" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",D204)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D428:D445">
-    <cfRule type="containsText" dxfId="90" priority="4" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="90" priority="1" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",D428)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="89" priority="2" operator="containsText" text="phev">
+      <formula>NOT(ISERROR(SEARCH("phev",D428)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="3" operator="containsText" text="Drivephev">
+      <formula>NOT(ISERROR(SEARCH("Drivephev",D428)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="87" priority="4" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",D428)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="5" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="86" priority="5" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",D428)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="1" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",D428)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="3" operator="containsText" text="Drivephev">
-      <formula>NOT(ISERROR(SEARCH("Drivephev",D428)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="2" operator="containsText" text="phev">
-      <formula>NOT(ISERROR(SEARCH("phev",D428)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J153:J155">
@@ -33885,17 +33814,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K153:K155">
-    <cfRule type="containsText" dxfId="82" priority="132" operator="containsText" text="ice">
-      <formula>NOT(ISERROR(SEARCH("ice",K153)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="129" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="82" priority="129" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",K153)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="130" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="81" priority="130" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",K153)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="131" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="80" priority="131" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",K153)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="132" operator="containsText" text="ice">
+      <formula>NOT(ISERROR(SEARCH("ice",K153)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="78" priority="133" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",K153)))</formula>
@@ -33919,37 +33848,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K164:K171">
-    <cfRule type="containsText" dxfId="72" priority="107" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="72" priority="106" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",K164)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="71" priority="107" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",K164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="108" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="70" priority="108" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",K164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="109" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="69" priority="109" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",K164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="110" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="68" priority="110" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",K164)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="106" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",K164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K177:K187">
-    <cfRule type="containsText" dxfId="67" priority="80" operator="containsText" text="bev">
-      <formula>NOT(ISERROR(SEARCH("bev",K177)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="76" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="67" priority="76" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",K177)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="77" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="66" priority="77" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",K177)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="78" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="65" priority="78" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",K177)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="79" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="64" priority="79" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",K177)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="80" operator="containsText" text="bev">
+      <formula>NOT(ISERROR(SEARCH("bev",K177)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K180:K187">
@@ -33973,25 +33902,25 @@
     <cfRule type="containsText" dxfId="57" priority="66" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",K193)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="69" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="56" priority="67" operator="containsText" text="phev">
+      <formula>NOT(ISERROR(SEARCH("phev",K193)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="55" priority="68" operator="containsText" text="Drivephev">
+      <formula>NOT(ISERROR(SEARCH("Drivephev",K193)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="69" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",K193)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="70" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="53" priority="70" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",K193)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="67" operator="containsText" text="phev">
-      <formula>NOT(ISERROR(SEARCH("phev",K193)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="68" operator="containsText" text="Drivephev">
-      <formula>NOT(ISERROR(SEARCH("Drivephev",K193)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q64 J2:J73 C153:C155">
-    <cfRule type="containsText" dxfId="52" priority="59" operator="containsText" text="bus">
+    <cfRule type="containsText" dxfId="52" priority="58" operator="containsText" text="ldv">
+      <formula>NOT(ISERROR(SEARCH("ldv",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="59" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",C2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="58" operator="containsText" text="ldv">
-      <formula>NOT(ISERROR(SEARCH("ldv",C2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="50" priority="60" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",C2)))</formula>
@@ -41763,11 +41692,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B234">
-    <cfRule type="containsText" dxfId="49" priority="7" operator="containsText" text="ldv">
+    <cfRule type="containsText" dxfId="49" priority="6" operator="containsText" text="ht">
+      <formula>NOT(ISERROR(SEARCH("ht",B1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="7" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",B1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="6" operator="containsText" text="ht">
-      <formula>NOT(ISERROR(SEARCH("ht",B1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="47" priority="8" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",B1)))</formula>
@@ -41777,82 +41706,82 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B235:B1048576">
-    <cfRule type="containsText" dxfId="45" priority="51" operator="containsText" text="ldv">
+    <cfRule type="containsText" dxfId="45" priority="50" operator="containsText" text="ht">
+      <formula>NOT(ISERROR(SEARCH("ht",B235)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="51" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",B235)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="50" operator="containsText" text="ht">
-      <formula>NOT(ISERROR(SEARCH("ht",B235)))</formula>
+    <cfRule type="containsText" dxfId="43" priority="52" operator="containsText" text="bus">
+      <formula>NOT(ISERROR(SEARCH("bus",B235)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="53" operator="containsText" text="2w">
+    <cfRule type="containsText" dxfId="42" priority="53" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",B235)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="52" operator="containsText" text="bus">
-      <formula>NOT(ISERROR(SEARCH("bus",B235)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B312:B386">
-    <cfRule type="containsText" dxfId="41" priority="26" operator="containsText" text="bus">
+    <cfRule type="containsText" dxfId="41" priority="24" operator="containsText" text="ht">
+      <formula>NOT(ISERROR(SEARCH("ht",B312)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="25" operator="containsText" text="ldv">
+      <formula>NOT(ISERROR(SEARCH("ldv",B312)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="26" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",B312)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="27" operator="containsText" text="2w">
+    <cfRule type="containsText" dxfId="38" priority="27" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",B312)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="24" operator="containsText" text="ht">
-      <formula>NOT(ISERROR(SEARCH("ht",B312)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="25" operator="containsText" text="ldv">
-      <formula>NOT(ISERROR(SEARCH("ldv",B312)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C234">
-    <cfRule type="containsText" dxfId="37" priority="2" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="2" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="3" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="4" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="34" priority="4" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",C1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="1" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C235:C1048576">
-    <cfRule type="containsText" dxfId="32" priority="47" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="32" priority="45" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",C235)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="46" operator="containsText" text="phev">
+      <formula>NOT(ISERROR(SEARCH("phev",C235)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="47" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",C235)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="49" operator="containsText" text="bev">
-      <formula>NOT(ISERROR(SEARCH("bev",C235)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="48" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="29" priority="48" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",C235)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="45" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",C235)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="46" operator="containsText" text="phev">
-      <formula>NOT(ISERROR(SEARCH("phev",C235)))</formula>
+    <cfRule type="containsText" dxfId="28" priority="49" operator="containsText" text="bev">
+      <formula>NOT(ISERROR(SEARCH("bev",C235)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C312:C386">
-    <cfRule type="containsText" dxfId="27" priority="22" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="27" priority="19" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",C312)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="20" operator="containsText" text="phev">
+      <formula>NOT(ISERROR(SEARCH("phev",C312)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="21" operator="containsText" text="Drivephev">
+      <formula>NOT(ISERROR(SEARCH("Drivephev",C312)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="22" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",C312)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="23" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",C312)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="20" operator="containsText" text="phev">
-      <formula>NOT(ISERROR(SEARCH("phev",C312)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="Drivephev">
-      <formula>NOT(ISERROR(SEARCH("Drivephev",C312)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",C312)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:I42">
@@ -41862,14 +41791,14 @@
     <cfRule type="containsText" dxfId="21" priority="38" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",I40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="40" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="20" priority="39" operator="containsText" text="Drivephev">
+      <formula>NOT(ISERROR(SEARCH("Drivephev",I40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="40" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",I40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="41" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="18" priority="41" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",I40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="39" operator="containsText" text="Drivephev">
-      <formula>NOT(ISERROR(SEARCH("Drivephev",I40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77:I114 I122:I152">
@@ -41893,28 +41822,28 @@
     <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",I229)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="18" operator="containsText" text="2w">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="bus">
+      <formula>NOT(ISERROR(SEARCH("bus",I229)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="18" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",I229)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="bus">
-      <formula>NOT(ISERROR(SEARCH("bus",I229)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J77:J114 J122:J152">
-    <cfRule type="containsText" dxfId="9" priority="31" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="9" priority="28" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",J77)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="29" operator="containsText" text="phev">
+      <formula>NOT(ISERROR(SEARCH("phev",J77)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="30" operator="containsText" text="Drivephev">
+      <formula>NOT(ISERROR(SEARCH("Drivephev",J77)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="31" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",J77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="32" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="5" priority="32" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",J77)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="28" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",J77)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="29" operator="containsText" text="phev">
-      <formula>NOT(ISERROR(SEARCH("phev",J77)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="30" operator="containsText" text="Drivephev">
-      <formula>NOT(ISERROR(SEARCH("Drivephev",J77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J229:J234">
@@ -41941,11 +41870,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -42161,7 +42090,7 @@
         <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
         <v>67</v>
@@ -42181,16 +42110,16 @@
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -42204,13 +42133,13 @@
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
         <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -42230,7 +42159,7 @@
         <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -42241,7 +42170,7 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
         <v>68</v>
@@ -42250,7 +42179,7 @@
         <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -42261,10 +42190,10 @@
         <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
         <v>45</v>
@@ -42284,7 +42213,7 @@
         <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
         <v>45</v>
@@ -42304,16 +42233,16 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
         <v>46</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -42321,19 +42250,19 @@
         <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
         <v>46</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -42341,13 +42270,13 @@
         <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
         <v>46</v>
@@ -42364,10 +42293,10 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E21" t="s">
         <v>46</v>
@@ -42384,16 +42313,16 @@
         <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s">
         <v>47</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -42404,16 +42333,16 @@
         <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E23" t="s">
         <v>47</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -42421,13 +42350,13 @@
         <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
         <v>47</v>
@@ -42441,19 +42370,19 @@
         <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
         <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F25">
-        <v>1.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -42461,19 +42390,19 @@
         <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
         <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
         <v>46</v>
       </c>
       <c r="F26">
-        <v>1.1000000000000001</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -42481,19 +42410,19 @@
         <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
         <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
         <v>46</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -42501,19 +42430,19 @@
         <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
         <v>65</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -42521,13 +42450,13 @@
         <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
         <v>65</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E29" t="s">
         <v>47</v>
@@ -42541,16 +42470,16 @@
         <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
         <v>65</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F30">
         <v>1.05</v>
@@ -42561,73 +42490,73 @@
         <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
         <v>65</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
         <v>65</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E32" t="s">
         <v>47</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
         <v>65</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="E33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F33">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
         <v>65</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="E34" t="s">
         <v>46</v>
@@ -42638,82 +42567,82 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
         <v>65</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F35">
-        <v>1.05</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D36" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E36" t="s">
         <v>47</v>
       </c>
       <c r="F36">
-        <v>1.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D37" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F37">
-        <v>1.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D38" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E38" t="s">
         <v>46</v>
       </c>
       <c r="F38">
-        <v>1.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -42721,19 +42650,19 @@
         <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F39">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -42741,19 +42670,19 @@
         <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F40">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -42761,19 +42690,19 @@
         <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C41" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D41" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E41" t="s">
         <v>46</v>
       </c>
       <c r="F41">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -42781,19 +42710,19 @@
         <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D42" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F42">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -42801,10 +42730,10 @@
         <v>25</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D43" t="s">
         <v>45</v>
@@ -42821,16 +42750,16 @@
         <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D44" t="s">
         <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -42841,10 +42770,10 @@
         <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C45" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D45" t="s">
         <v>45</v>
@@ -42861,16 +42790,16 @@
         <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D46" t="s">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -42881,7 +42810,7 @@
         <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C47" t="s">
         <v>67</v>
@@ -42890,7 +42819,7 @@
         <v>45</v>
       </c>
       <c r="E47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -42904,16 +42833,16 @@
         <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D48" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E48" t="s">
         <v>46</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -42924,16 +42853,16 @@
         <v>32</v>
       </c>
       <c r="C49" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D49" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E49" t="s">
         <v>46</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -42941,19 +42870,19 @@
         <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C50" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D50" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E50" t="s">
         <v>46</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -42961,19 +42890,19 @@
         <v>25</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C51" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D51" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
@@ -42984,10 +42913,10 @@
         <v>31</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D52" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E52" t="s">
         <v>47</v>
@@ -43004,10 +42933,10 @@
         <v>32</v>
       </c>
       <c r="C53" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D53" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E53" t="s">
         <v>47</v>
@@ -43021,13 +42950,13 @@
         <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C54" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D54" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E54" t="s">
         <v>47</v>
@@ -43041,16 +42970,16 @@
         <v>25</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D55" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -43064,16 +42993,16 @@
         <v>31</v>
       </c>
       <c r="C56" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D56" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E56" t="s">
         <v>46</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
@@ -43084,16 +43013,16 @@
         <v>32</v>
       </c>
       <c r="C57" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D57" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E57" t="s">
         <v>46</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
@@ -43101,19 +43030,19 @@
         <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C58" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -43121,19 +43050,19 @@
         <v>25</v>
       </c>
       <c r="B59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C59" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D59" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E59" t="s">
         <v>47</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
@@ -43144,16 +43073,16 @@
         <v>31</v>
       </c>
       <c r="C60" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D60" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
@@ -43164,329 +43093,32 @@
         <v>32</v>
       </c>
       <c r="C61" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D61" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>25</v>
-      </c>
-      <c r="B62" t="s">
-        <v>32</v>
-      </c>
-      <c r="C62" t="s">
-        <v>67</v>
-      </c>
-      <c r="D62" t="s">
-        <v>45</v>
-      </c>
-      <c r="E62" t="s">
-        <v>47</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>25</v>
-      </c>
-      <c r="B63" t="s">
-        <v>31</v>
-      </c>
-      <c r="C63" t="s">
-        <v>65</v>
-      </c>
-      <c r="D63" t="s">
-        <v>35</v>
-      </c>
-      <c r="E63" t="s">
-        <v>46</v>
-      </c>
-      <c r="F63">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>25</v>
-      </c>
-      <c r="B64" t="s">
-        <v>32</v>
-      </c>
-      <c r="C64" t="s">
-        <v>65</v>
-      </c>
-      <c r="D64" t="s">
-        <v>35</v>
-      </c>
-      <c r="E64" t="s">
-        <v>46</v>
-      </c>
-      <c r="F64">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>25</v>
-      </c>
-      <c r="B65" t="s">
-        <v>31</v>
-      </c>
-      <c r="C65" t="s">
-        <v>65</v>
-      </c>
-      <c r="D65" t="s">
-        <v>49</v>
-      </c>
-      <c r="E65" t="s">
-        <v>46</v>
-      </c>
-      <c r="F65">
         <v>1.05</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>25</v>
-      </c>
-      <c r="B66" t="s">
-        <v>32</v>
-      </c>
-      <c r="C66" t="s">
-        <v>65</v>
-      </c>
-      <c r="D66" t="s">
-        <v>49</v>
-      </c>
-      <c r="E66" t="s">
-        <v>46</v>
-      </c>
-      <c r="F66">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>25</v>
-      </c>
-      <c r="B67" t="s">
-        <v>31</v>
-      </c>
-      <c r="C67" t="s">
-        <v>65</v>
-      </c>
-      <c r="D67" t="s">
-        <v>40</v>
-      </c>
-      <c r="E67" t="s">
-        <v>47</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>25</v>
-      </c>
-      <c r="B68" t="s">
-        <v>32</v>
-      </c>
-      <c r="C68" t="s">
-        <v>65</v>
-      </c>
-      <c r="D68" t="s">
-        <v>40</v>
-      </c>
-      <c r="E68" t="s">
-        <v>47</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>25</v>
-      </c>
-      <c r="B69" t="s">
-        <v>31</v>
-      </c>
-      <c r="C69" t="s">
-        <v>65</v>
-      </c>
-      <c r="D69" t="s">
-        <v>50</v>
-      </c>
-      <c r="E69" t="s">
-        <v>47</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>25</v>
-      </c>
-      <c r="B70" t="s">
-        <v>32</v>
-      </c>
-      <c r="C70" t="s">
-        <v>65</v>
-      </c>
-      <c r="D70" t="s">
-        <v>50</v>
-      </c>
-      <c r="E70" t="s">
-        <v>47</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>25</v>
-      </c>
-      <c r="B71" t="s">
-        <v>31</v>
-      </c>
-      <c r="C71" t="s">
-        <v>65</v>
-      </c>
-      <c r="D71" t="s">
-        <v>56</v>
-      </c>
-      <c r="E71" t="s">
-        <v>46</v>
-      </c>
-      <c r="F71">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>25</v>
-      </c>
-      <c r="B72" t="s">
-        <v>32</v>
-      </c>
-      <c r="C72" t="s">
-        <v>65</v>
-      </c>
-      <c r="D72" t="s">
-        <v>56</v>
-      </c>
-      <c r="E72" t="s">
-        <v>46</v>
-      </c>
-      <c r="F72">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>25</v>
-      </c>
-      <c r="B73" t="s">
-        <v>31</v>
-      </c>
-      <c r="C73" t="s">
-        <v>65</v>
-      </c>
-      <c r="D73" t="s">
-        <v>48</v>
-      </c>
-      <c r="E73" t="s">
-        <v>47</v>
-      </c>
-      <c r="F73">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>25</v>
-      </c>
-      <c r="B74" t="s">
-        <v>32</v>
-      </c>
-      <c r="C74" t="s">
-        <v>65</v>
-      </c>
-      <c r="D74" t="s">
-        <v>48</v>
-      </c>
-      <c r="E74" t="s">
-        <v>47</v>
-      </c>
-      <c r="F74">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>25</v>
-      </c>
-      <c r="B75" t="s">
-        <v>31</v>
-      </c>
-      <c r="C75" t="s">
-        <v>65</v>
-      </c>
-      <c r="D75" t="s">
-        <v>51</v>
-      </c>
-      <c r="E75" t="s">
-        <v>46</v>
-      </c>
-      <c r="F75">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>25</v>
-      </c>
-      <c r="B76" t="s">
-        <v>32</v>
-      </c>
-      <c r="C76" t="s">
-        <v>65</v>
-      </c>
-      <c r="D76" t="s">
-        <v>51</v>
-      </c>
-      <c r="E76" t="s">
-        <v>46</v>
-      </c>
-      <c r="F76">
-        <v>1.05</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F61" xr:uid="{00000000-0001-0000-0400-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F76">
-      <sortCondition ref="A1:A61"/>
+  <autoFilter ref="A1:F73" xr:uid="{00000000-0001-0000-0400-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F73">
+      <sortCondition ref="A1:A73"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F19">
-    <sortCondition ref="D1:D19"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F73">
+    <sortCondition ref="D2:D73"/>
+    <sortCondition ref="A2:A73"/>
+    <sortCondition ref="B2:B73"/>
+    <sortCondition ref="C2:C73"/>
+    <sortCondition ref="E2:E73"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/input_data/vehicle_sales_share_inputs.xlsx
+++ b/input_data/vehicle_sales_share_inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\APERC\transport_model_9th_edition\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B00DA3-2043-459B-B3A8-4B125DE44CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA46147-6208-4F9E-AAF8-D94713906972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="889" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <sheet name="vehicle_type_growth_regions" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">freight_drive_shares!$A$1:$G$461</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">freight_drive_shares!$A$1:$G$460</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">freight_drive_shares_old!$A$1:$F$386</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">passenger_drive_shares!$A$1:$G$532</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">passenger_drive_shares_old!$A$1:$F$393</definedName>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7095" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7151" uniqueCount="87">
   <si>
     <t>Region</t>
   </si>
@@ -426,7 +426,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="162">
+  <dxfs count="178">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -441,21 +441,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -489,13 +474,18 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
+        <color theme="6"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -504,6 +494,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -569,11 +569,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
     </dxf>
@@ -590,66 +585,6 @@
     <dxf>
       <font>
         <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
       </font>
     </dxf>
     <dxf>
@@ -689,23 +624,68 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -724,6 +704,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -769,6 +759,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -784,6 +784,126 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -839,171 +959,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
     </dxf>
@@ -1029,21 +984,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="4"/>
       </font>
     </dxf>
@@ -1051,34 +991,39 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="6"/>
+        <color rgb="FF9C5700"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
+        <color rgb="FF006100"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
+        <color rgb="FF9C5700"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1119,7 +1064,17 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
       </font>
     </dxf>
     <dxf>
@@ -1129,7 +1084,42 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="6"/>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
       </font>
     </dxf>
     <dxf>
@@ -1144,12 +1134,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
+        <color theme="6"/>
       </font>
     </dxf>
     <dxf>
@@ -1159,7 +1144,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="6"/>
+        <color theme="4"/>
       </font>
     </dxf>
     <dxf>
@@ -1174,6 +1159,211 @@
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1249,21 +1439,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1276,6 +1466,36 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1309,103 +1529,8 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1460,11 +1585,6 @@
     <dxf>
       <font>
         <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
       </font>
     </dxf>
     <dxf>
@@ -10424,30 +10544,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="161" priority="31" operator="containsText" text="ldv">
+    <cfRule type="containsText" dxfId="177" priority="31" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="32" operator="containsText" text="bus">
+    <cfRule type="containsText" dxfId="176" priority="32" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="33" operator="containsText" text="2w">
+    <cfRule type="containsText" dxfId="175" priority="33" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576 I334">
-    <cfRule type="containsText" dxfId="158" priority="26" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="174" priority="26" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="27" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="173" priority="27" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="28" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="172" priority="28" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="29" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="171" priority="29" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="30" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="170" priority="30" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10459,10 +10579,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337C5599-DB15-4FEA-8C44-5AEC0C459BB0}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O551" sqref="O551"/>
+      <selection activeCell="A171" sqref="A171:G520"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10494,7 +10615,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -10517,7 +10638,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -10540,7 +10661,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -10563,7 +10684,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -10586,7 +10707,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -10609,7 +10730,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -10632,7 +10753,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -10655,7 +10776,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -10678,7 +10799,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -10701,7 +10822,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -10724,7 +10845,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -10747,7 +10868,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -10770,7 +10891,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -10793,7 +10914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -10816,7 +10937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -10839,7 +10960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -10862,7 +10983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -10885,7 +11006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -10908,7 +11029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -10931,7 +11052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -10954,7 +11075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -10977,7 +11098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -11000,7 +11121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -11023,7 +11144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -11046,7 +11167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -11069,7 +11190,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -11092,7 +11213,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -11115,7 +11236,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -11138,7 +11259,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -11161,7 +11282,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -11184,7 +11305,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -11207,7 +11328,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -11230,7 +11351,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -11253,7 +11374,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -11276,7 +11397,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -11299,7 +11420,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -11322,7 +11443,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -11345,7 +11466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -11368,7 +11489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -11391,7 +11512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -11414,7 +11535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -11437,7 +11558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -11460,7 +11581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -11483,7 +11604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -11506,7 +11627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>25</v>
       </c>
@@ -11529,7 +11650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>25</v>
       </c>
@@ -11552,7 +11673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>39</v>
       </c>
@@ -11575,7 +11696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>39</v>
       </c>
@@ -11598,7 +11719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -11621,7 +11742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -11644,7 +11765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -11667,7 +11788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -11690,7 +11811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -11713,7 +11834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -11736,7 +11857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -11759,7 +11880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -11782,7 +11903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>25</v>
       </c>
@@ -11805,7 +11926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>25</v>
       </c>
@@ -11828,7 +11949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>39</v>
       </c>
@@ -11851,7 +11972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>39</v>
       </c>
@@ -11874,7 +11995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -11897,7 +12018,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -11920,7 +12041,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -11943,7 +12064,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -11966,7 +12087,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -11989,7 +12110,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -12012,7 +12133,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>15</v>
       </c>
@@ -12035,7 +12156,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -12058,7 +12179,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>25</v>
       </c>
@@ -12081,7 +12202,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>25</v>
       </c>
@@ -12104,7 +12225,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>39</v>
       </c>
@@ -12127,7 +12248,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>39</v>
       </c>
@@ -12150,7 +12271,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>2</v>
       </c>
@@ -12173,7 +12294,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>2</v>
       </c>
@@ -12196,7 +12317,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -12219,7 +12340,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -12242,7 +12363,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -12265,7 +12386,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -12288,7 +12409,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>15</v>
       </c>
@@ -12311,7 +12432,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -12334,7 +12455,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>25</v>
       </c>
@@ -12357,7 +12478,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>25</v>
       </c>
@@ -12380,7 +12501,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>39</v>
       </c>
@@ -12403,7 +12524,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>39</v>
       </c>
@@ -12426,7 +12547,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>2</v>
       </c>
@@ -12449,7 +12570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>2</v>
       </c>
@@ -12472,7 +12593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -12495,7 +12616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -12518,7 +12639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -12541,7 +12662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -12564,7 +12685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>15</v>
       </c>
@@ -12587,7 +12708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>15</v>
       </c>
@@ -12610,7 +12731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>25</v>
       </c>
@@ -12633,7 +12754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>25</v>
       </c>
@@ -12656,7 +12777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>39</v>
       </c>
@@ -12679,7 +12800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>39</v>
       </c>
@@ -12702,7 +12823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>2</v>
       </c>
@@ -12725,7 +12846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>2</v>
       </c>
@@ -12748,7 +12869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -12771,7 +12892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -12794,7 +12915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -12817,7 +12938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -12840,7 +12961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>15</v>
       </c>
@@ -12863,7 +12984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>15</v>
       </c>
@@ -12886,7 +13007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>25</v>
       </c>
@@ -12909,7 +13030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>25</v>
       </c>
@@ -12932,7 +13053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>39</v>
       </c>
@@ -12955,7 +13076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>39</v>
       </c>
@@ -12978,7 +13099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>2</v>
       </c>
@@ -13001,7 +13122,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>2</v>
       </c>
@@ -13024,7 +13145,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>2</v>
       </c>
@@ -13047,7 +13168,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>2</v>
       </c>
@@ -13070,7 +13191,7 @@
         <v>0.55999999999999994</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>2</v>
       </c>
@@ -13093,7 +13214,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>2</v>
       </c>
@@ -13116,7 +13237,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>2</v>
       </c>
@@ -13139,7 +13260,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>2</v>
       </c>
@@ -13162,7 +13283,7 @@
         <v>0.48999999999999994</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>2</v>
       </c>
@@ -13185,7 +13306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>2</v>
       </c>
@@ -13208,7 +13329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>2</v>
       </c>
@@ -13231,7 +13352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>2</v>
       </c>
@@ -13254,7 +13375,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -13277,7 +13398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>2</v>
       </c>
@@ -13300,7 +13421,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>2</v>
       </c>
@@ -13323,7 +13444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>2</v>
       </c>
@@ -13346,7 +13467,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -13369,7 +13490,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -13392,7 +13513,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -13415,7 +13536,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>5</v>
       </c>
@@ -13438,7 +13559,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>5</v>
       </c>
@@ -13461,7 +13582,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>5</v>
       </c>
@@ -13484,7 +13605,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>5</v>
       </c>
@@ -13507,7 +13628,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>5</v>
       </c>
@@ -13530,7 +13651,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>5</v>
       </c>
@@ -13553,7 +13674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>5</v>
       </c>
@@ -13576,7 +13697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -13599,7 +13720,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -13622,7 +13743,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>5</v>
       </c>
@@ -13645,7 +13766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>5</v>
       </c>
@@ -13668,7 +13789,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -13691,7 +13812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -13714,7 +13835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -13737,7 +13858,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>39</v>
       </c>
@@ -13760,7 +13881,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>39</v>
       </c>
@@ -13783,7 +13904,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>39</v>
       </c>
@@ -13806,7 +13927,7 @@
         <v>0.64000000000000012</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>39</v>
       </c>
@@ -13829,7 +13950,7 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>39</v>
       </c>
@@ -13852,7 +13973,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>39</v>
       </c>
@@ -13875,7 +13996,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>39</v>
       </c>
@@ -13898,7 +14019,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>39</v>
       </c>
@@ -13921,7 +14042,7 @@
         <v>0.55999999999999994</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>39</v>
       </c>
@@ -13944,7 +14065,7 @@
         <v>0.27999999999999997</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>39</v>
       </c>
@@ -13967,7 +14088,7 @@
         <v>2.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>39</v>
       </c>
@@ -13990,7 +14111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>39</v>
       </c>
@@ -14013,7 +14134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>39</v>
       </c>
@@ -14036,7 +14157,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>39</v>
       </c>
@@ -14059,7 +14180,7 @@
         <v>0.44000000000000006</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>39</v>
       </c>
@@ -14082,7 +14203,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>39</v>
       </c>
@@ -14105,7 +14226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>39</v>
       </c>
@@ -14128,7 +14249,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>39</v>
       </c>
@@ -14151,7 +14272,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>39</v>
       </c>
@@ -14174,7 +14295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>39</v>
       </c>
@@ -14197,7 +14318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>39</v>
       </c>
@@ -14220,7 +14341,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>39</v>
       </c>
@@ -14243,7 +14364,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -14266,7 +14387,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -14289,7 +14410,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -14312,7 +14433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>7</v>
       </c>
@@ -14335,7 +14456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>25</v>
       </c>
@@ -14358,7 +14479,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>25</v>
       </c>
@@ -14412,10 +14533,10 @@
         <v>65</v>
       </c>
       <c r="C172" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D172" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E172">
         <v>2025</v>
@@ -14427,7 +14548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>25</v>
       </c>
@@ -14450,7 +14571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>25</v>
       </c>
@@ -14473,7 +14594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>25</v>
       </c>
@@ -14496,7 +14617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>25</v>
       </c>
@@ -14519,7 +14640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>25</v>
       </c>
@@ -14550,13 +14671,13 @@
         <v>65</v>
       </c>
       <c r="C178" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D178" t="s">
         <v>36</v>
       </c>
       <c r="E178">
-        <v>2070</v>
+        <v>2025</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -14573,13 +14694,13 @@
         <v>65</v>
       </c>
       <c r="C179" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D179" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E179">
-        <v>2070</v>
+        <v>2025</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -14588,7 +14709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>25</v>
       </c>
@@ -14611,7 +14732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>7</v>
       </c>
@@ -14634,7 +14755,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -14657,7 +14778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>25</v>
       </c>
@@ -14680,7 +14801,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>25</v>
       </c>
@@ -14711,7 +14832,7 @@
         <v>65</v>
       </c>
       <c r="C185" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D185" t="s">
         <v>36</v>
@@ -14734,7 +14855,7 @@
         <v>65</v>
       </c>
       <c r="C186" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D186" t="s">
         <v>37</v>
@@ -14749,7 +14870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>25</v>
       </c>
@@ -14772,7 +14893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>25</v>
       </c>
@@ -14795,7 +14916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>25</v>
       </c>
@@ -14818,7 +14939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>25</v>
       </c>
@@ -14841,7 +14962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>25</v>
       </c>
@@ -14875,10 +14996,10 @@
         <v>35</v>
       </c>
       <c r="D192" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E192">
-        <v>2070</v>
+        <v>2025</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -14895,13 +15016,13 @@
         <v>65</v>
       </c>
       <c r="C193" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D193" t="s">
         <v>37</v>
       </c>
       <c r="E193">
-        <v>2070</v>
+        <v>2025</v>
       </c>
       <c r="F193">
         <v>0</v>
@@ -14910,7 +15031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>25</v>
       </c>
@@ -14933,7 +15054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>15</v>
       </c>
@@ -14956,7 +15077,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>15</v>
       </c>
@@ -14979,7 +15100,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>15</v>
       </c>
@@ -15002,7 +15123,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>15</v>
       </c>
@@ -15025,7 +15146,7 @@
         <v>0.55999999999999994</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>15</v>
       </c>
@@ -15048,7 +15169,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>15</v>
       </c>
@@ -15071,7 +15192,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>15</v>
       </c>
@@ -15094,7 +15215,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>15</v>
       </c>
@@ -15117,7 +15238,7 @@
         <v>0.48999999999999994</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>15</v>
       </c>
@@ -15140,7 +15261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>15</v>
       </c>
@@ -15163,7 +15284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>15</v>
       </c>
@@ -15186,7 +15307,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>15</v>
       </c>
@@ -15209,7 +15330,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>15</v>
       </c>
@@ -15232,7 +15353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>15</v>
       </c>
@@ -15255,7 +15376,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>15</v>
       </c>
@@ -15278,7 +15399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>15</v>
       </c>
@@ -15301,7 +15422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>15</v>
       </c>
@@ -15324,7 +15445,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>7</v>
       </c>
@@ -15347,7 +15468,7 @@
         <v>3.8500000000000006E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>7</v>
       </c>
@@ -15370,7 +15491,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>7</v>
       </c>
@@ -15393,7 +15514,7 @@
         <v>7.7000000000000013E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>7</v>
       </c>
@@ -15416,7 +15537,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>7</v>
       </c>
@@ -15439,7 +15560,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>7</v>
       </c>
@@ -15462,7 +15583,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>7</v>
       </c>
@@ -15485,7 +15606,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>7</v>
       </c>
@@ -15508,7 +15629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>7</v>
       </c>
@@ -15531,7 +15652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>7</v>
       </c>
@@ -15554,7 +15675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>7</v>
       </c>
@@ -15577,7 +15698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>7</v>
       </c>
@@ -15600,7 +15721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>25</v>
       </c>
@@ -15623,7 +15744,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>25</v>
       </c>
@@ -15646,7 +15767,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>25</v>
       </c>
@@ -15669,7 +15790,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>25</v>
       </c>
@@ -15700,10 +15821,10 @@
         <v>65</v>
       </c>
       <c r="C228" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D228" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E228">
         <v>2025</v>
@@ -15723,7 +15844,7 @@
         <v>65</v>
       </c>
       <c r="C229" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D229" t="s">
         <v>37</v>
@@ -15738,7 +15859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>25</v>
       </c>
@@ -15761,7 +15882,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>25</v>
       </c>
@@ -15784,7 +15905,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>25</v>
       </c>
@@ -15807,7 +15928,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>25</v>
       </c>
@@ -15830,7 +15951,7 @@
         <v>6.9999999999999993E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>25</v>
       </c>
@@ -15853,7 +15974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>25</v>
       </c>
@@ -15876,7 +15997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>25</v>
       </c>
@@ -15899,7 +16020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>25</v>
       </c>
@@ -15922,7 +16043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>25</v>
       </c>
@@ -15945,7 +16066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>25</v>
       </c>
@@ -15976,7 +16097,7 @@
         <v>65</v>
       </c>
       <c r="C240" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D240" t="s">
         <v>36</v>
@@ -15999,10 +16120,10 @@
         <v>65</v>
       </c>
       <c r="C241" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D241" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E241">
         <v>2070</v>
@@ -16014,7 +16135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>25</v>
       </c>
@@ -16037,7 +16158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>25</v>
       </c>
@@ -16060,7 +16181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>7</v>
       </c>
@@ -16083,7 +16204,7 @@
         <v>2.4500000000000001E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>7</v>
       </c>
@@ -16106,7 +16227,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>7</v>
       </c>
@@ -16129,7 +16250,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>7</v>
       </c>
@@ -16152,7 +16273,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>7</v>
       </c>
@@ -16175,7 +16296,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>7</v>
       </c>
@@ -16198,7 +16319,7 @@
         <v>0.48999999999999994</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>7</v>
       </c>
@@ -16221,7 +16342,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>2</v>
       </c>
@@ -16244,7 +16365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>2</v>
       </c>
@@ -16267,7 +16388,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>2</v>
       </c>
@@ -16290,7 +16411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>2</v>
       </c>
@@ -16313,7 +16434,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>2</v>
       </c>
@@ -16336,7 +16457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>2</v>
       </c>
@@ -16359,7 +16480,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>5</v>
       </c>
@@ -16382,7 +16503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>5</v>
       </c>
@@ -16405,7 +16526,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>5</v>
       </c>
@@ -16428,7 +16549,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>5</v>
       </c>
@@ -16451,7 +16572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>5</v>
       </c>
@@ -16474,7 +16595,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>5</v>
       </c>
@@ -16497,7 +16618,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>5</v>
       </c>
@@ -16520,7 +16641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>5</v>
       </c>
@@ -16543,7 +16664,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>5</v>
       </c>
@@ -16566,7 +16687,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>39</v>
       </c>
@@ -16589,7 +16710,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>39</v>
       </c>
@@ -16612,7 +16733,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>39</v>
       </c>
@@ -16635,7 +16756,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>39</v>
       </c>
@@ -16658,7 +16779,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>39</v>
       </c>
@@ -16681,7 +16802,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>39</v>
       </c>
@@ -16704,7 +16825,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>39</v>
       </c>
@@ -16727,7 +16848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>39</v>
       </c>
@@ -16750,7 +16871,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>39</v>
       </c>
@@ -16773,7 +16894,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>7</v>
       </c>
@@ -16796,7 +16917,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>7</v>
       </c>
@@ -16819,7 +16940,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>7</v>
       </c>
@@ -16842,7 +16963,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>7</v>
       </c>
@@ -16865,7 +16986,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>25</v>
       </c>
@@ -16888,7 +17009,7 @@
         <v>7.6999999999999996E-4</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>25</v>
       </c>
@@ -16911,7 +17032,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>25</v>
       </c>
@@ -16934,7 +17055,7 @@
         <v>6.9999999999999993E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>25</v>
       </c>
@@ -16965,13 +17086,13 @@
         <v>65</v>
       </c>
       <c r="C283" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D283" t="s">
         <v>36</v>
       </c>
       <c r="E283">
-        <v>2025</v>
+        <v>2070</v>
       </c>
       <c r="F283">
         <v>0</v>
@@ -16991,10 +17112,10 @@
         <v>56</v>
       </c>
       <c r="D284" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E284">
-        <v>2025</v>
+        <v>2070</v>
       </c>
       <c r="F284">
         <v>0</v>
@@ -17003,7 +17124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>25</v>
       </c>
@@ -17026,7 +17147,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>25</v>
       </c>
@@ -17049,7 +17170,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>15</v>
       </c>
@@ -17072,7 +17193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>15</v>
       </c>
@@ -17095,7 +17216,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>15</v>
       </c>
@@ -17118,7 +17239,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>15</v>
       </c>
@@ -17141,7 +17262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>15</v>
       </c>
@@ -17164,7 +17285,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>15</v>
       </c>
@@ -17187,7 +17308,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>15</v>
       </c>
@@ -17210,7 +17331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>15</v>
       </c>
@@ -17233,7 +17354,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>15</v>
       </c>
@@ -17256,7 +17377,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>25</v>
       </c>
@@ -17279,7 +17400,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>25</v>
       </c>
@@ -17302,7 +17423,7 @@
         <v>4.8999999999999995E-2</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>25</v>
       </c>
@@ -17325,7 +17446,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>25</v>
       </c>
@@ -17348,7 +17469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>25</v>
       </c>
@@ -17371,7 +17492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>25</v>
       </c>
@@ -17394,7 +17515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>25</v>
       </c>
@@ -17417,7 +17538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>25</v>
       </c>
@@ -17448,7 +17569,7 @@
         <v>65</v>
       </c>
       <c r="C304" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D304" t="s">
         <v>36</v>
@@ -17471,7 +17592,7 @@
         <v>65</v>
       </c>
       <c r="C305" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D305" t="s">
         <v>37</v>
@@ -17486,7 +17607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>25</v>
       </c>
@@ -17509,7 +17630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>25</v>
       </c>
@@ -17532,7 +17653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>7</v>
       </c>
@@ -17555,7 +17676,7 @@
         <v>2.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>7</v>
       </c>
@@ -17578,7 +17699,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>7</v>
       </c>
@@ -17601,7 +17722,7 @@
         <v>5.6000000000000008E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>7</v>
       </c>
@@ -17624,7 +17745,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>7</v>
       </c>
@@ -17647,7 +17768,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>7</v>
       </c>
@@ -17670,7 +17791,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>7</v>
       </c>
@@ -17693,7 +17814,7 @@
         <v>0.55999999999999994</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>7</v>
       </c>
@@ -17716,7 +17837,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>7</v>
       </c>
@@ -17739,7 +17860,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>7</v>
       </c>
@@ -17762,7 +17883,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>7</v>
       </c>
@@ -17785,7 +17906,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>7</v>
       </c>
@@ -17808,7 +17929,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>2</v>
       </c>
@@ -17831,7 +17952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>2</v>
       </c>
@@ -17854,7 +17975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>5</v>
       </c>
@@ -17877,7 +17998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>5</v>
       </c>
@@ -17900,7 +18021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>7</v>
       </c>
@@ -17923,7 +18044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>7</v>
       </c>
@@ -17946,7 +18067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>15</v>
       </c>
@@ -17969,7 +18090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>15</v>
       </c>
@@ -17992,7 +18113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>25</v>
       </c>
@@ -18015,7 +18136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>25</v>
       </c>
@@ -18038,7 +18159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>39</v>
       </c>
@@ -18061,7 +18182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>39</v>
       </c>
@@ -18084,7 +18205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>2</v>
       </c>
@@ -18107,7 +18228,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>2</v>
       </c>
@@ -18130,7 +18251,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>5</v>
       </c>
@@ -18153,7 +18274,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>5</v>
       </c>
@@ -18176,7 +18297,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>7</v>
       </c>
@@ -18199,7 +18320,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>7</v>
       </c>
@@ -18222,7 +18343,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>15</v>
       </c>
@@ -18245,7 +18366,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>15</v>
       </c>
@@ -18268,7 +18389,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>25</v>
       </c>
@@ -18291,7 +18412,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>25</v>
       </c>
@@ -18314,7 +18435,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>39</v>
       </c>
@@ -18337,7 +18458,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>39</v>
       </c>
@@ -18360,7 +18481,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>2</v>
       </c>
@@ -18383,7 +18504,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>2</v>
       </c>
@@ -18406,7 +18527,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>5</v>
       </c>
@@ -18429,7 +18550,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>5</v>
       </c>
@@ -18452,7 +18573,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>7</v>
       </c>
@@ -18475,7 +18596,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>7</v>
       </c>
@@ -18498,7 +18619,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>15</v>
       </c>
@@ -18521,7 +18642,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>15</v>
       </c>
@@ -18544,7 +18665,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>25</v>
       </c>
@@ -18567,7 +18688,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>25</v>
       </c>
@@ -18590,7 +18711,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>39</v>
       </c>
@@ -18613,7 +18734,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>39</v>
       </c>
@@ -18636,7 +18757,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>2</v>
       </c>
@@ -18659,7 +18780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>2</v>
       </c>
@@ -18682,7 +18803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>5</v>
       </c>
@@ -18705,7 +18826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>5</v>
       </c>
@@ -18728,7 +18849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>7</v>
       </c>
@@ -18751,7 +18872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>7</v>
       </c>
@@ -18774,7 +18895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>15</v>
       </c>
@@ -18797,7 +18918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>15</v>
       </c>
@@ -18820,7 +18941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>25</v>
       </c>
@@ -18843,7 +18964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>25</v>
       </c>
@@ -18866,7 +18987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>39</v>
       </c>
@@ -18889,7 +19010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>39</v>
       </c>
@@ -18912,7 +19033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>2</v>
       </c>
@@ -18935,7 +19056,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>2</v>
       </c>
@@ -18958,7 +19079,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>5</v>
       </c>
@@ -18981,7 +19102,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>5</v>
       </c>
@@ -19004,7 +19125,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>7</v>
       </c>
@@ -19027,7 +19148,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>7</v>
       </c>
@@ -19050,7 +19171,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>15</v>
       </c>
@@ -19073,7 +19194,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>15</v>
       </c>
@@ -19096,7 +19217,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>25</v>
       </c>
@@ -19119,7 +19240,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>25</v>
       </c>
@@ -19142,7 +19263,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>39</v>
       </c>
@@ -19165,7 +19286,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>39</v>
       </c>
@@ -19188,7 +19309,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>2</v>
       </c>
@@ -19211,7 +19332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>2</v>
       </c>
@@ -19234,7 +19355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>5</v>
       </c>
@@ -19257,7 +19378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>5</v>
       </c>
@@ -19280,7 +19401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>7</v>
       </c>
@@ -19303,7 +19424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>7</v>
       </c>
@@ -19326,7 +19447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>15</v>
       </c>
@@ -19349,7 +19470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>15</v>
       </c>
@@ -19372,7 +19493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>25</v>
       </c>
@@ -19395,7 +19516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>25</v>
       </c>
@@ -19418,7 +19539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>39</v>
       </c>
@@ -19441,7 +19562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>39</v>
       </c>
@@ -19464,7 +19585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>2</v>
       </c>
@@ -19487,7 +19608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>2</v>
       </c>
@@ -19510,7 +19631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>5</v>
       </c>
@@ -19533,7 +19654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>5</v>
       </c>
@@ -19556,7 +19677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>7</v>
       </c>
@@ -19579,7 +19700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>7</v>
       </c>
@@ -19602,7 +19723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>15</v>
       </c>
@@ -19625,7 +19746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>15</v>
       </c>
@@ -19648,7 +19769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>25</v>
       </c>
@@ -19671,7 +19792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>25</v>
       </c>
@@ -19694,7 +19815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>39</v>
       </c>
@@ -19717,7 +19838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>39</v>
       </c>
@@ -19740,7 +19861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>2</v>
       </c>
@@ -19763,7 +19884,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>2</v>
       </c>
@@ -19786,7 +19907,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>5</v>
       </c>
@@ -19809,7 +19930,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>5</v>
       </c>
@@ -19832,7 +19953,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>7</v>
       </c>
@@ -19855,7 +19976,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>7</v>
       </c>
@@ -19878,7 +19999,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>15</v>
       </c>
@@ -19901,7 +20022,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>15</v>
       </c>
@@ -19924,7 +20045,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>25</v>
       </c>
@@ -19947,7 +20068,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>25</v>
       </c>
@@ -19970,7 +20091,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>39</v>
       </c>
@@ -19993,7 +20114,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>39</v>
       </c>
@@ -20016,7 +20137,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>2</v>
       </c>
@@ -20039,7 +20160,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>5</v>
       </c>
@@ -20062,7 +20183,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>7</v>
       </c>
@@ -20085,7 +20206,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>15</v>
       </c>
@@ -20108,7 +20229,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>25</v>
       </c>
@@ -20131,7 +20252,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>39</v>
       </c>
@@ -20154,7 +20275,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>2</v>
       </c>
@@ -20177,7 +20298,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>5</v>
       </c>
@@ -20200,7 +20321,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>7</v>
       </c>
@@ -20223,7 +20344,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>15</v>
       </c>
@@ -20246,7 +20367,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>25</v>
       </c>
@@ -20269,7 +20390,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>39</v>
       </c>
@@ -20292,7 +20413,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>2</v>
       </c>
@@ -20315,7 +20436,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>2</v>
       </c>
@@ -20338,7 +20459,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>5</v>
       </c>
@@ -20361,7 +20482,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>5</v>
       </c>
@@ -20384,7 +20505,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>7</v>
       </c>
@@ -20407,7 +20528,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>7</v>
       </c>
@@ -20430,7 +20551,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>15</v>
       </c>
@@ -20453,7 +20574,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>15</v>
       </c>
@@ -20476,7 +20597,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>25</v>
       </c>
@@ -20499,7 +20620,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>25</v>
       </c>
@@ -20522,7 +20643,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>39</v>
       </c>
@@ -20545,7 +20666,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>39</v>
       </c>
@@ -20568,7 +20689,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>2</v>
       </c>
@@ -20591,7 +20712,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>2</v>
       </c>
@@ -20614,7 +20735,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>5</v>
       </c>
@@ -20637,7 +20758,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>5</v>
       </c>
@@ -20660,7 +20781,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>7</v>
       </c>
@@ -20683,7 +20804,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>7</v>
       </c>
@@ -20706,7 +20827,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>15</v>
       </c>
@@ -20729,7 +20850,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>15</v>
       </c>
@@ -20752,7 +20873,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>25</v>
       </c>
@@ -20775,7 +20896,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>25</v>
       </c>
@@ -20798,7 +20919,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>39</v>
       </c>
@@ -20821,7 +20942,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>39</v>
       </c>
@@ -20844,7 +20965,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>2</v>
       </c>
@@ -20867,7 +20988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>2</v>
       </c>
@@ -20890,7 +21011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>5</v>
       </c>
@@ -20913,7 +21034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>5</v>
       </c>
@@ -20936,7 +21057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>7</v>
       </c>
@@ -20959,7 +21080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>7</v>
       </c>
@@ -20982,7 +21103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>15</v>
       </c>
@@ -21005,7 +21126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>15</v>
       </c>
@@ -21028,7 +21149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>25</v>
       </c>
@@ -21051,7 +21172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>25</v>
       </c>
@@ -21074,7 +21195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>39</v>
       </c>
@@ -21097,7 +21218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>39</v>
       </c>
@@ -21120,7 +21241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>2</v>
       </c>
@@ -21143,7 +21264,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>2</v>
       </c>
@@ -21166,7 +21287,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>5</v>
       </c>
@@ -21189,7 +21310,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>5</v>
       </c>
@@ -21212,7 +21333,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>7</v>
       </c>
@@ -21235,7 +21356,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>7</v>
       </c>
@@ -21258,7 +21379,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>15</v>
       </c>
@@ -21281,7 +21402,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>15</v>
       </c>
@@ -21304,7 +21425,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>25</v>
       </c>
@@ -21327,7 +21448,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>25</v>
       </c>
@@ -21350,7 +21471,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>39</v>
       </c>
@@ -21373,7 +21494,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>39</v>
       </c>
@@ -21396,7 +21517,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>2</v>
       </c>
@@ -21419,7 +21540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>2</v>
       </c>
@@ -21442,7 +21563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>5</v>
       </c>
@@ -21465,7 +21586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>5</v>
       </c>
@@ -21488,7 +21609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>7</v>
       </c>
@@ -21511,7 +21632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>7</v>
       </c>
@@ -21534,7 +21655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>15</v>
       </c>
@@ -21557,7 +21678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>15</v>
       </c>
@@ -21580,7 +21701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>25</v>
       </c>
@@ -21603,7 +21724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>25</v>
       </c>
@@ -21626,7 +21747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>39</v>
       </c>
@@ -21649,7 +21770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>39</v>
       </c>
@@ -21672,7 +21793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>2</v>
       </c>
@@ -21695,7 +21816,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>2</v>
       </c>
@@ -21718,7 +21839,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>5</v>
       </c>
@@ -21741,7 +21862,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>5</v>
       </c>
@@ -21764,7 +21885,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>7</v>
       </c>
@@ -21787,7 +21908,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>7</v>
       </c>
@@ -21810,7 +21931,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>15</v>
       </c>
@@ -21833,7 +21954,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>15</v>
       </c>
@@ -21856,7 +21977,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>25</v>
       </c>
@@ -21879,7 +22000,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>25</v>
       </c>
@@ -21902,7 +22023,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>39</v>
       </c>
@@ -21925,7 +22046,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>39</v>
       </c>
@@ -21948,7 +22069,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>25</v>
       </c>
@@ -21971,7 +22092,7 @@
         <v>9.8999999999999999E-4</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>25</v>
       </c>
@@ -21994,7 +22115,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>25</v>
       </c>
@@ -22017,7 +22138,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>25</v>
       </c>
@@ -22048,13 +22169,13 @@
         <v>65</v>
       </c>
       <c r="C504" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D504" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E504">
-        <v>2025</v>
+        <v>2070</v>
       </c>
       <c r="F504">
         <v>0</v>
@@ -22071,13 +22192,13 @@
         <v>65</v>
       </c>
       <c r="C505" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D505" t="s">
         <v>37</v>
       </c>
       <c r="E505">
-        <v>2025</v>
+        <v>2070</v>
       </c>
       <c r="F505">
         <v>0</v>
@@ -22086,7 +22207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>25</v>
       </c>
@@ -22109,7 +22230,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>25</v>
       </c>
@@ -22132,7 +22253,7 @@
         <v>2.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>25</v>
       </c>
@@ -22155,7 +22276,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>25</v>
       </c>
@@ -22178,7 +22299,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>25</v>
       </c>
@@ -22201,7 +22322,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>25</v>
       </c>
@@ -22224,7 +22345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>25</v>
       </c>
@@ -22247,7 +22368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>25</v>
       </c>
@@ -22270,7 +22391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>25</v>
       </c>
@@ -22293,7 +22414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>25</v>
       </c>
@@ -22324,10 +22445,10 @@
         <v>65</v>
       </c>
       <c r="C516" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D516" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E516">
         <v>2070</v>
@@ -22362,7 +22483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>25</v>
       </c>
@@ -22385,7 +22506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>25</v>
       </c>
@@ -22431,7 +22552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>2</v>
       </c>
@@ -22454,7 +22575,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>2</v>
       </c>
@@ -22477,7 +22598,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>5</v>
       </c>
@@ -22500,7 +22621,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>5</v>
       </c>
@@ -22523,7 +22644,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>7</v>
       </c>
@@ -22546,7 +22667,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>7</v>
       </c>
@@ -22569,7 +22690,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>15</v>
       </c>
@@ -22592,7 +22713,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>15</v>
       </c>
@@ -22615,7 +22736,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>25</v>
       </c>
@@ -22638,7 +22759,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>25</v>
       </c>
@@ -22661,7 +22782,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>39</v>
       </c>
@@ -22684,7 +22805,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>39</v>
       </c>
@@ -22709,8 +22830,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G532" xr:uid="{337C5599-DB15-4FEA-8C44-5AEC0C459BB0}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A416:G427">
-      <sortCondition ref="E1:E532"/>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="cng"/>
+        <filter val="lpg"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A171:G520">
+      <sortCondition ref="A1:A532"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G177">
@@ -22732,115 +22859,115 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C142 C148:C177">
-    <cfRule type="containsText" dxfId="153" priority="113" operator="containsText" text="ldv">
+    <cfRule type="containsText" dxfId="169" priority="113" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="114" operator="containsText" text="bus">
+    <cfRule type="containsText" dxfId="168" priority="114" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="115" operator="containsText" text="2w">
+    <cfRule type="containsText" dxfId="167" priority="115" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C462:C479">
-    <cfRule type="containsText" dxfId="150" priority="14" operator="containsText" text="ldv">
+    <cfRule type="containsText" dxfId="166" priority="14" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",C462)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="15" operator="containsText" text="bus">
+    <cfRule type="containsText" dxfId="165" priority="15" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",C462)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="16" operator="containsText" text="2w">
+    <cfRule type="containsText" dxfId="164" priority="16" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",C462)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C531:C532">
-    <cfRule type="containsText" dxfId="147" priority="6" operator="containsText" text="ldv">
+    <cfRule type="containsText" dxfId="163" priority="6" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",C531)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="7" operator="containsText" text="bus">
+    <cfRule type="containsText" dxfId="162" priority="7" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",C531)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="8" operator="containsText" text="2w">
+    <cfRule type="containsText" dxfId="161" priority="8" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",C531)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D142 D148:D177">
-    <cfRule type="containsText" dxfId="144" priority="108" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="160" priority="108" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="109" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="159" priority="109" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="110" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="158" priority="110" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="111" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="157" priority="111" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="112" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="156" priority="112" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D462:D479">
-    <cfRule type="containsText" dxfId="139" priority="13" operator="containsText" text="bev">
-      <formula>NOT(ISERROR(SEARCH("bev",D462)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="9" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="155" priority="9" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",D462)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="10" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="154" priority="10" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",D462)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="11" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="153" priority="11" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",D462)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="12" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="152" priority="12" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",D462)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="151" priority="13" operator="containsText" text="bev">
+      <formula>NOT(ISERROR(SEARCH("bev",D462)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D531:D532">
-    <cfRule type="containsText" dxfId="134" priority="5" operator="containsText" text="bev">
-      <formula>NOT(ISERROR(SEARCH("bev",D531)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="1" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="150" priority="1" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",D531)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="2" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="149" priority="2" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",D531)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="3" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="148" priority="3" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",D531)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="4" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="147" priority="4" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",D531)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="146" priority="5" operator="containsText" text="bev">
+      <formula>NOT(ISERROR(SEARCH("bev",D531)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J142:J168 J173:J205">
-    <cfRule type="containsText" dxfId="129" priority="89" operator="containsText" text="ldv">
+    <cfRule type="containsText" dxfId="145" priority="89" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",J142)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="90" operator="containsText" text="bus">
+    <cfRule type="containsText" dxfId="144" priority="90" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",J142)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="91" operator="containsText" text="2w">
+    <cfRule type="containsText" dxfId="143" priority="91" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",J142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K142:K205">
-    <cfRule type="containsText" dxfId="126" priority="19" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="142" priority="17" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",K142)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="141" priority="18" operator="containsText" text="phev">
+      <formula>NOT(ISERROR(SEARCH("phev",K142)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="140" priority="19" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",K142)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="20" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="139" priority="20" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",K142)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="21" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="138" priority="21" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",K142)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="18" operator="containsText" text="phev">
-      <formula>NOT(ISERROR(SEARCH("phev",K142)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="17" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",K142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22850,10 +22977,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09EB2682-BE80-4949-AB75-59FF57965C53}">
-  <dimension ref="A1:O455"/>
+  <dimension ref="A1:G471"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
+      <selection activeCell="W453" sqref="W453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32798,7 +32925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>7</v>
       </c>
@@ -32821,7 +32948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>25</v>
       </c>
@@ -32844,7 +32971,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>25</v>
       </c>
@@ -32867,7 +32994,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>25</v>
       </c>
@@ -32890,7 +33017,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>25</v>
       </c>
@@ -32913,7 +33040,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>25</v>
       </c>
@@ -32936,7 +33063,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>25</v>
       </c>
@@ -32959,7 +33086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>25</v>
       </c>
@@ -32982,7 +33109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>25</v>
       </c>
@@ -33005,7 +33132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>25</v>
       </c>
@@ -33028,7 +33155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>25</v>
       </c>
@@ -33051,7 +33178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>25</v>
       </c>
@@ -33074,7 +33201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>25</v>
       </c>
@@ -33097,7 +33224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>5</v>
       </c>
@@ -33119,29 +33246,8 @@
       <c r="G446">
         <v>0.1</v>
       </c>
-      <c r="I446" t="s">
-        <v>7</v>
-      </c>
-      <c r="J446" t="s">
-        <v>65</v>
-      </c>
-      <c r="K446" t="s">
-        <v>48</v>
-      </c>
-      <c r="L446" t="s">
-        <v>41</v>
-      </c>
-      <c r="M446">
-        <v>2100</v>
-      </c>
-      <c r="N446">
-        <v>0.1</v>
-      </c>
-      <c r="O446">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>5</v>
       </c>
@@ -33163,29 +33269,8 @@
       <c r="G447">
         <v>0.1</v>
       </c>
-      <c r="I447" t="s">
-        <v>7</v>
-      </c>
-      <c r="J447" t="s">
-        <v>65</v>
-      </c>
-      <c r="K447" t="s">
-        <v>48</v>
-      </c>
-      <c r="L447" t="s">
-        <v>55</v>
-      </c>
-      <c r="M447">
-        <v>2050</v>
-      </c>
-      <c r="N447">
-        <v>0</v>
-      </c>
-      <c r="O447">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>25</v>
       </c>
@@ -33369,10 +33454,378 @@
         <v>0.1</v>
       </c>
     </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>25</v>
+      </c>
+      <c r="B456" t="s">
+        <v>65</v>
+      </c>
+      <c r="C456" t="s">
+        <v>33</v>
+      </c>
+      <c r="D456" t="s">
+        <v>36</v>
+      </c>
+      <c r="E456">
+        <v>2025</v>
+      </c>
+      <c r="F456">
+        <v>0</v>
+      </c>
+      <c r="G456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>25</v>
+      </c>
+      <c r="B457" t="s">
+        <v>65</v>
+      </c>
+      <c r="C457" t="s">
+        <v>33</v>
+      </c>
+      <c r="D457" t="s">
+        <v>36</v>
+      </c>
+      <c r="E457">
+        <v>2070</v>
+      </c>
+      <c r="F457">
+        <v>0</v>
+      </c>
+      <c r="G457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>25</v>
+      </c>
+      <c r="B458" t="s">
+        <v>65</v>
+      </c>
+      <c r="C458" t="s">
+        <v>33</v>
+      </c>
+      <c r="D458" t="s">
+        <v>37</v>
+      </c>
+      <c r="E458">
+        <v>2025</v>
+      </c>
+      <c r="F458">
+        <v>0</v>
+      </c>
+      <c r="G458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>25</v>
+      </c>
+      <c r="B459" t="s">
+        <v>65</v>
+      </c>
+      <c r="C459" t="s">
+        <v>33</v>
+      </c>
+      <c r="D459" t="s">
+        <v>37</v>
+      </c>
+      <c r="E459">
+        <v>2070</v>
+      </c>
+      <c r="F459">
+        <v>0</v>
+      </c>
+      <c r="G459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>25</v>
+      </c>
+      <c r="B460" t="s">
+        <v>65</v>
+      </c>
+      <c r="C460" t="s">
+        <v>48</v>
+      </c>
+      <c r="D460" t="s">
+        <v>36</v>
+      </c>
+      <c r="E460">
+        <v>2025</v>
+      </c>
+      <c r="F460">
+        <v>0</v>
+      </c>
+      <c r="G460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>25</v>
+      </c>
+      <c r="B461" t="s">
+        <v>65</v>
+      </c>
+      <c r="C461" t="s">
+        <v>48</v>
+      </c>
+      <c r="D461" t="s">
+        <v>36</v>
+      </c>
+      <c r="E461">
+        <v>2070</v>
+      </c>
+      <c r="F461">
+        <v>0</v>
+      </c>
+      <c r="G461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>25</v>
+      </c>
+      <c r="B462" t="s">
+        <v>65</v>
+      </c>
+      <c r="C462" t="s">
+        <v>48</v>
+      </c>
+      <c r="D462" t="s">
+        <v>37</v>
+      </c>
+      <c r="E462">
+        <v>2025</v>
+      </c>
+      <c r="F462">
+        <v>0</v>
+      </c>
+      <c r="G462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>25</v>
+      </c>
+      <c r="B463" t="s">
+        <v>65</v>
+      </c>
+      <c r="C463" t="s">
+        <v>48</v>
+      </c>
+      <c r="D463" t="s">
+        <v>37</v>
+      </c>
+      <c r="E463">
+        <v>2070</v>
+      </c>
+      <c r="F463">
+        <v>0</v>
+      </c>
+      <c r="G463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>25</v>
+      </c>
+      <c r="B464" t="s">
+        <v>65</v>
+      </c>
+      <c r="C464" t="s">
+        <v>40</v>
+      </c>
+      <c r="D464" t="s">
+        <v>36</v>
+      </c>
+      <c r="E464">
+        <v>2025</v>
+      </c>
+      <c r="F464">
+        <v>0</v>
+      </c>
+      <c r="G464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>25</v>
+      </c>
+      <c r="B465" t="s">
+        <v>65</v>
+      </c>
+      <c r="C465" t="s">
+        <v>40</v>
+      </c>
+      <c r="D465" t="s">
+        <v>36</v>
+      </c>
+      <c r="E465">
+        <v>2070</v>
+      </c>
+      <c r="F465">
+        <v>0</v>
+      </c>
+      <c r="G465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>25</v>
+      </c>
+      <c r="B466" t="s">
+        <v>65</v>
+      </c>
+      <c r="C466" t="s">
+        <v>40</v>
+      </c>
+      <c r="D466" t="s">
+        <v>37</v>
+      </c>
+      <c r="E466">
+        <v>2025</v>
+      </c>
+      <c r="F466">
+        <v>0</v>
+      </c>
+      <c r="G466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>25</v>
+      </c>
+      <c r="B467" t="s">
+        <v>65</v>
+      </c>
+      <c r="C467" t="s">
+        <v>40</v>
+      </c>
+      <c r="D467" t="s">
+        <v>37</v>
+      </c>
+      <c r="E467">
+        <v>2070</v>
+      </c>
+      <c r="F467">
+        <v>0</v>
+      </c>
+      <c r="G467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>25</v>
+      </c>
+      <c r="B468" t="s">
+        <v>65</v>
+      </c>
+      <c r="C468" t="s">
+        <v>50</v>
+      </c>
+      <c r="D468" t="s">
+        <v>36</v>
+      </c>
+      <c r="E468">
+        <v>2025</v>
+      </c>
+      <c r="F468">
+        <v>0</v>
+      </c>
+      <c r="G468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>25</v>
+      </c>
+      <c r="B469" t="s">
+        <v>65</v>
+      </c>
+      <c r="C469" t="s">
+        <v>50</v>
+      </c>
+      <c r="D469" t="s">
+        <v>36</v>
+      </c>
+      <c r="E469">
+        <v>2070</v>
+      </c>
+      <c r="F469">
+        <v>0</v>
+      </c>
+      <c r="G469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>25</v>
+      </c>
+      <c r="B470" t="s">
+        <v>65</v>
+      </c>
+      <c r="C470" t="s">
+        <v>50</v>
+      </c>
+      <c r="D470" t="s">
+        <v>37</v>
+      </c>
+      <c r="E470">
+        <v>2025</v>
+      </c>
+      <c r="F470">
+        <v>0</v>
+      </c>
+      <c r="G470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>25</v>
+      </c>
+      <c r="B471" t="s">
+        <v>65</v>
+      </c>
+      <c r="C471" t="s">
+        <v>50</v>
+      </c>
+      <c r="D471" t="s">
+        <v>37</v>
+      </c>
+      <c r="E471">
+        <v>2070</v>
+      </c>
+      <c r="F471">
+        <v>0</v>
+      </c>
+      <c r="G471">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G461" xr:uid="{09EB2682-BE80-4949-AB75-59FF57965C53}">
+  <autoFilter ref="A1:G460" xr:uid="{09EB2682-BE80-4949-AB75-59FF57965C53}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A171:G453">
-      <sortCondition ref="C1:C461"/>
+      <sortCondition ref="C1:C460"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G173">
@@ -33382,7 +33835,16 @@
     <sortCondition ref="A2:A173"/>
   </sortState>
   <conditionalFormatting sqref="C1">
-    <cfRule type="colorScale" priority="162">
+    <cfRule type="containsText" dxfId="137" priority="167" operator="containsText" text="ldv">
+      <formula>NOT(ISERROR(SEARCH("ldv",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="136" priority="168" operator="containsText" text="bus">
+      <formula>NOT(ISERROR(SEARCH("bus",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="135" priority="169" operator="containsText" text="2w">
+      <formula>NOT(ISERROR(SEARCH("2w",C1)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="170">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -33392,253 +33854,272 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="161" operator="containsText" text="2w">
-      <formula>NOT(ISERROR(SEARCH("2w",C1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="160" operator="containsText" text="bus">
-      <formula>NOT(ISERROR(SEARCH("bus",C1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="159" operator="containsText" text="ldv">
-      <formula>NOT(ISERROR(SEARCH("ldv",C1)))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C138">
-    <cfRule type="containsText" dxfId="118" priority="179" operator="containsText" text="bus">
+    <cfRule type="containsText" dxfId="134" priority="185" operator="containsText" text="ht">
+      <formula>NOT(ISERROR(SEARCH("ht",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="133" priority="186" operator="containsText" text="ldv">
+      <formula>NOT(ISERROR(SEARCH("ldv",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="132" priority="187" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="178" operator="containsText" text="ldv">
-      <formula>NOT(ISERROR(SEARCH("ldv",C2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="177" operator="containsText" text="ht">
-      <formula>NOT(ISERROR(SEARCH("ht",C2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="180" operator="containsText" text="2w">
+    <cfRule type="containsText" dxfId="131" priority="188" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C144:C146">
-    <cfRule type="containsText" dxfId="114" priority="75" operator="containsText" text="ldv">
+    <cfRule type="containsText" dxfId="130" priority="83" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",C144)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="77" operator="containsText" text="2w">
+    <cfRule type="containsText" dxfId="129" priority="84" operator="containsText" text="bus">
+      <formula>NOT(ISERROR(SEARCH("bus",C144)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="128" priority="85" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",C144)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="76" operator="containsText" text="bus">
-      <formula>NOT(ISERROR(SEARCH("bus",C144)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C414:C431">
-    <cfRule type="containsText" dxfId="111" priority="23" operator="containsText" text="ht">
+    <cfRule type="containsText" dxfId="127" priority="31" operator="containsText" text="ht">
       <formula>NOT(ISERROR(SEARCH("ht",C414)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="24" operator="containsText" text="ldv">
+    <cfRule type="containsText" dxfId="126" priority="32" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",C414)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="25" operator="containsText" text="bus">
+    <cfRule type="containsText" dxfId="125" priority="33" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",C414)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="26" operator="containsText" text="2w">
+    <cfRule type="containsText" dxfId="124" priority="34" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",C414)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C454:C455">
-    <cfRule type="containsText" dxfId="107" priority="15" operator="containsText" text="ldv">
+    <cfRule type="containsText" dxfId="123" priority="23" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",C454)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="16" operator="containsText" text="bus">
+    <cfRule type="containsText" dxfId="122" priority="24" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",C454)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="17" operator="containsText" text="2w">
+    <cfRule type="containsText" dxfId="121" priority="25" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",C454)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D138 R2:R62 K2:K71 D152:D161 K152:K161 D167:D175 K167:K175">
-    <cfRule type="containsText" dxfId="104" priority="157" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="120" priority="162" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="119" priority="163" operator="containsText" text="phev">
+      <formula>NOT(ISERROR(SEARCH("phev",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="118" priority="164" operator="containsText" text="Drivephev">
+      <formula>NOT(ISERROR(SEARCH("Drivephev",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="117" priority="165" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="158" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="116" priority="166" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="156" operator="containsText" text="Drivephev">
-      <formula>NOT(ISERROR(SEARCH("Drivephev",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="155" operator="containsText" text="phev">
-      <formula>NOT(ISERROR(SEARCH("phev",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="154" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D144:D146">
-    <cfRule type="containsText" dxfId="99" priority="74" operator="containsText" text="bev">
-      <formula>NOT(ISERROR(SEARCH("bev",D144)))</formula>
+    <cfRule type="containsText" dxfId="115" priority="78" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",D144)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="73" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="114" priority="79" operator="containsText" text="phev">
+      <formula>NOT(ISERROR(SEARCH("phev",D144)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="113" priority="80" operator="containsText" text="Drivephev">
+      <formula>NOT(ISERROR(SEARCH("Drivephev",D144)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="112" priority="81" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",D144)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="72" operator="containsText" text="Drivephev">
-      <formula>NOT(ISERROR(SEARCH("Drivephev",D144)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="71" operator="containsText" text="phev">
-      <formula>NOT(ISERROR(SEARCH("phev",D144)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="70" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",D144)))</formula>
+    <cfRule type="containsText" dxfId="111" priority="82" operator="containsText" text="bev">
+      <formula>NOT(ISERROR(SEARCH("bev",D144)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D181:D183">
-    <cfRule type="containsText" dxfId="94" priority="39" operator="containsText" text="bev">
-      <formula>NOT(ISERROR(SEARCH("bev",D181)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="35" operator="containsText" text="lpg">
+    <cfRule type="containsText" dxfId="110" priority="43" operator="containsText" text="lpg">
       <formula>NOT(ISERROR(SEARCH("lpg",D181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="36" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="109" priority="44" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",D181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="37" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="108" priority="45" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",D181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="38" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="107" priority="46" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",D181)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="47" operator="containsText" text="bev">
+      <formula>NOT(ISERROR(SEARCH("bev",D181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D192:D203 D205:D212">
-    <cfRule type="containsText" dxfId="89" priority="31" operator="containsText" text="bev">
-      <formula>NOT(ISERROR(SEARCH("bev",D192)))</formula>
+    <cfRule type="containsText" dxfId="105" priority="35" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",D192)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="30" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="104" priority="36" operator="containsText" text="phev">
+      <formula>NOT(ISERROR(SEARCH("phev",D192)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="103" priority="37" operator="containsText" text="Drivephev">
+      <formula>NOT(ISERROR(SEARCH("Drivephev",D192)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="102" priority="38" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",D192)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="29" operator="containsText" text="Drivephev">
-      <formula>NOT(ISERROR(SEARCH("Drivephev",D192)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="28" operator="containsText" text="phev">
-      <formula>NOT(ISERROR(SEARCH("phev",D192)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="27" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",D192)))</formula>
+    <cfRule type="containsText" dxfId="101" priority="39" operator="containsText" text="bev">
+      <formula>NOT(ISERROR(SEARCH("bev",D192)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D414:D431">
-    <cfRule type="containsText" dxfId="84" priority="19" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="100" priority="26" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",D414)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="99" priority="27" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",D414)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="22" operator="containsText" text="bev">
-      <formula>NOT(ISERROR(SEARCH("bev",D414)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="18" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",D414)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="20" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="98" priority="28" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",D414)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="21" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="97" priority="29" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",D414)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="96" priority="30" operator="containsText" text="bev">
+      <formula>NOT(ISERROR(SEARCH("bev",D414)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D454:D455">
-    <cfRule type="containsText" dxfId="79" priority="11" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="95" priority="18" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",D454)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="19" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",D454)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="12" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="93" priority="20" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",D454)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="13" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="92" priority="21" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",D454)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="14" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="91" priority="22" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",D454)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="10" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",D454)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J144:J146">
-    <cfRule type="containsText" dxfId="74" priority="153" operator="containsText" text="2w">
-      <formula>NOT(ISERROR(SEARCH("2w",J144)))</formula>
+    <cfRule type="containsText" dxfId="90" priority="159" operator="containsText" text="ldv">
+      <formula>NOT(ISERROR(SEARCH("ldv",J144)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="152" operator="containsText" text="bus">
+    <cfRule type="containsText" dxfId="89" priority="160" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",J144)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="151" operator="containsText" text="ldv">
-      <formula>NOT(ISERROR(SEARCH("ldv",J144)))</formula>
+    <cfRule type="containsText" dxfId="88" priority="161" operator="containsText" text="2w">
+      <formula>NOT(ISERROR(SEARCH("2w",J144)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K144:K146">
-    <cfRule type="containsText" dxfId="71" priority="148" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="87" priority="154" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",K144)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="86" priority="155" operator="containsText" text="phev">
+      <formula>NOT(ISERROR(SEARCH("phev",K144)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="156" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",K144)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="146" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",K144)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="147" operator="containsText" text="phev">
-      <formula>NOT(ISERROR(SEARCH("phev",K144)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="149" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="84" priority="157" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",K144)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="150" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="83" priority="158" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",K144)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K181:K183">
-    <cfRule type="containsText" dxfId="66" priority="86" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="82" priority="91" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",K181)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="81" priority="92" operator="containsText" text="phev">
+      <formula>NOT(ISERROR(SEARCH("phev",K181)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="80" priority="93" operator="containsText" text="Drivephev">
+      <formula>NOT(ISERROR(SEARCH("Drivephev",K181)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="94" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",K181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="85" operator="containsText" text="Drivephev">
-      <formula>NOT(ISERROR(SEARCH("Drivephev",K181)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="84" operator="containsText" text="phev">
-      <formula>NOT(ISERROR(SEARCH("phev",K181)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="83" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",K181)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="87" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="78" priority="95" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",K181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K434:K446">
-    <cfRule type="containsText" dxfId="61" priority="6" operator="containsText" text="ht">
+    <cfRule type="containsText" dxfId="77" priority="14" operator="containsText" text="ht">
       <formula>NOT(ISERROR(SEARCH("ht",K434)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="9" operator="containsText" text="2w">
-      <formula>NOT(ISERROR(SEARCH("2w",K434)))</formula>
+    <cfRule type="containsText" dxfId="76" priority="15" operator="containsText" text="ldv">
+      <formula>NOT(ISERROR(SEARCH("ldv",K434)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="8" operator="containsText" text="bus">
+    <cfRule type="containsText" dxfId="75" priority="16" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",K434)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="7" operator="containsText" text="ldv">
-      <formula>NOT(ISERROR(SEARCH("ldv",K434)))</formula>
+    <cfRule type="containsText" dxfId="74" priority="17" operator="containsText" text="2w">
+      <formula>NOT(ISERROR(SEARCH("2w",K434)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L434:L446">
-    <cfRule type="containsText" dxfId="57" priority="2" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="73" priority="9" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",L434)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="10" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",L434)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="1" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",L434)))</formula>
+    <cfRule type="containsText" dxfId="71" priority="11" operator="containsText" text="Drivephev">
+      <formula>NOT(ISERROR(SEARCH("Drivephev",L434)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="bev">
-      <formula>NOT(ISERROR(SEARCH("bev",L434)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="4" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="70" priority="12" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",L434)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="3" operator="containsText" text="Drivephev">
-      <formula>NOT(ISERROR(SEARCH("Drivephev",L434)))</formula>
+    <cfRule type="containsText" dxfId="69" priority="13" operator="containsText" text="bev">
+      <formula>NOT(ISERROR(SEARCH("bev",L434)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q62 J2:J71 C192:C203 C205:C212">
-    <cfRule type="containsText" dxfId="52" priority="32" operator="containsText" text="ldv">
+    <cfRule type="containsText" dxfId="68" priority="40" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="33" operator="containsText" text="bus">
+    <cfRule type="containsText" dxfId="67" priority="41" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="34" operator="containsText" text="2w">
+    <cfRule type="containsText" dxfId="66" priority="42" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C456:C457">
+    <cfRule type="containsText" dxfId="57" priority="6" operator="containsText" text="ldv">
+      <formula>NOT(ISERROR(SEARCH("ldv",C456)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="7" operator="containsText" text="bus">
+      <formula>NOT(ISERROR(SEARCH("bus",C456)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="55" priority="8" operator="containsText" text="2w">
+      <formula>NOT(ISERROR(SEARCH("2w",C456)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D456:D457">
+    <cfRule type="containsText" dxfId="54" priority="1" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",D456)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="2" operator="containsText" text="phev">
+      <formula>NOT(ISERROR(SEARCH("phev",D456)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="3" operator="containsText" text="Drivephev">
+      <formula>NOT(ISERROR(SEARCH("Drivephev",D456)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="4" operator="containsText" text="ice">
+      <formula>NOT(ISERROR(SEARCH("ice",D456)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="5" operator="containsText" text="bev">
+      <formula>NOT(ISERROR(SEARCH("bev",D456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41406,11 +41887,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B234">
-    <cfRule type="containsText" dxfId="49" priority="7" operator="containsText" text="ldv">
+    <cfRule type="containsText" dxfId="49" priority="6" operator="containsText" text="ht">
+      <formula>NOT(ISERROR(SEARCH("ht",B1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="7" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",B1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="6" operator="containsText" text="ht">
-      <formula>NOT(ISERROR(SEARCH("ht",B1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="47" priority="8" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",B1)))</formula>
@@ -41420,82 +41901,82 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B235:B1048576">
-    <cfRule type="containsText" dxfId="45" priority="51" operator="containsText" text="ldv">
+    <cfRule type="containsText" dxfId="45" priority="50" operator="containsText" text="ht">
+      <formula>NOT(ISERROR(SEARCH("ht",B235)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="51" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",B235)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="50" operator="containsText" text="ht">
-      <formula>NOT(ISERROR(SEARCH("ht",B235)))</formula>
+    <cfRule type="containsText" dxfId="43" priority="52" operator="containsText" text="bus">
+      <formula>NOT(ISERROR(SEARCH("bus",B235)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="53" operator="containsText" text="2w">
+    <cfRule type="containsText" dxfId="42" priority="53" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",B235)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="52" operator="containsText" text="bus">
-      <formula>NOT(ISERROR(SEARCH("bus",B235)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B312:B386">
-    <cfRule type="containsText" dxfId="41" priority="26" operator="containsText" text="bus">
+    <cfRule type="containsText" dxfId="41" priority="24" operator="containsText" text="ht">
+      <formula>NOT(ISERROR(SEARCH("ht",B312)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="25" operator="containsText" text="ldv">
+      <formula>NOT(ISERROR(SEARCH("ldv",B312)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="26" operator="containsText" text="bus">
       <formula>NOT(ISERROR(SEARCH("bus",B312)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="27" operator="containsText" text="2w">
+    <cfRule type="containsText" dxfId="38" priority="27" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",B312)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="24" operator="containsText" text="ht">
-      <formula>NOT(ISERROR(SEARCH("ht",B312)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="25" operator="containsText" text="ldv">
-      <formula>NOT(ISERROR(SEARCH("ldv",B312)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C234">
-    <cfRule type="containsText" dxfId="37" priority="2" operator="containsText" text="phev">
+    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="2" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="3" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="4" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="34" priority="4" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",C1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="1" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C235:C1048576">
-    <cfRule type="containsText" dxfId="32" priority="47" operator="containsText" text="Drivephev">
+    <cfRule type="containsText" dxfId="32" priority="45" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",C235)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="46" operator="containsText" text="phev">
+      <formula>NOT(ISERROR(SEARCH("phev",C235)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="47" operator="containsText" text="Drivephev">
       <formula>NOT(ISERROR(SEARCH("Drivephev",C235)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="49" operator="containsText" text="bev">
-      <formula>NOT(ISERROR(SEARCH("bev",C235)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="48" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="29" priority="48" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",C235)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="45" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",C235)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="46" operator="containsText" text="phev">
-      <formula>NOT(ISERROR(SEARCH("phev",C235)))</formula>
+    <cfRule type="containsText" dxfId="28" priority="49" operator="containsText" text="bev">
+      <formula>NOT(ISERROR(SEARCH("bev",C235)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C312:C386">
-    <cfRule type="containsText" dxfId="27" priority="22" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="27" priority="19" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",C312)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="20" operator="containsText" text="phev">
+      <formula>NOT(ISERROR(SEARCH("phev",C312)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="21" operator="containsText" text="Drivephev">
+      <formula>NOT(ISERROR(SEARCH("Drivephev",C312)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="22" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",C312)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="23" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",C312)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="20" operator="containsText" text="phev">
-      <formula>NOT(ISERROR(SEARCH("phev",C312)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="Drivephev">
-      <formula>NOT(ISERROR(SEARCH("Drivephev",C312)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",C312)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:I42">
@@ -41505,14 +41986,14 @@
     <cfRule type="containsText" dxfId="21" priority="38" operator="containsText" text="phev">
       <formula>NOT(ISERROR(SEARCH("phev",I40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="40" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="20" priority="39" operator="containsText" text="Drivephev">
+      <formula>NOT(ISERROR(SEARCH("Drivephev",I40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="40" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",I40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="41" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="18" priority="41" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",I40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="39" operator="containsText" text="Drivephev">
-      <formula>NOT(ISERROR(SEARCH("Drivephev",I40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77:I114 I122:I152">
@@ -41536,28 +42017,28 @@
     <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="ldv">
       <formula>NOT(ISERROR(SEARCH("ldv",I229)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="18" operator="containsText" text="2w">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="bus">
+      <formula>NOT(ISERROR(SEARCH("bus",I229)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="18" operator="containsText" text="2w">
       <formula>NOT(ISERROR(SEARCH("2w",I229)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="bus">
-      <formula>NOT(ISERROR(SEARCH("bus",I229)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J77:J114 J122:J152">
-    <cfRule type="containsText" dxfId="9" priority="31" operator="containsText" text="ice">
+    <cfRule type="containsText" dxfId="9" priority="28" operator="containsText" text="lpg">
+      <formula>NOT(ISERROR(SEARCH("lpg",J77)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="29" operator="containsText" text="phev">
+      <formula>NOT(ISERROR(SEARCH("phev",J77)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="30" operator="containsText" text="Drivephev">
+      <formula>NOT(ISERROR(SEARCH("Drivephev",J77)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="31" operator="containsText" text="ice">
       <formula>NOT(ISERROR(SEARCH("ice",J77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="32" operator="containsText" text="bev">
+    <cfRule type="containsText" dxfId="5" priority="32" operator="containsText" text="bev">
       <formula>NOT(ISERROR(SEARCH("bev",J77)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="28" operator="containsText" text="lpg">
-      <formula>NOT(ISERROR(SEARCH("lpg",J77)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="29" operator="containsText" text="phev">
-      <formula>NOT(ISERROR(SEARCH("phev",J77)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="30" operator="containsText" text="Drivephev">
-      <formula>NOT(ISERROR(SEARCH("Drivephev",J77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J229:J234">
